--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,12 @@
     <t>['30', '90+5']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['30', '53', '73']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -542,9 +548,6 @@
   </si>
   <si>
     <t>['22', '37', '71', '76']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['44', '67']</t>
@@ -671,6 +674,12 @@
   </si>
   <si>
     <t>['45', '66', '80', '90+1']</t>
+  </si>
+  <si>
+    <t>['19', '26', '72']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1285,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1366,7 +1375,7 @@
         <v>1.42</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1745,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1849,7 +1858,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2127,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>1.77</v>
@@ -2512,7 +2521,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2613,7 +2622,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2995,7 +3004,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3082,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT11">
         <v>0.92</v>
@@ -3273,10 +3282,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU12">
         <v>1.21</v>
@@ -3950,7 +3959,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4231,7 +4240,7 @@
         <v>1.82</v>
       </c>
       <c r="AT17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>1.79</v>
@@ -4523,7 +4532,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4610,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
         <v>1.42</v>
@@ -4714,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4801,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT20">
         <v>1.75</v>
@@ -4905,7 +4914,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4995,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.43</v>
@@ -5096,7 +5105,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5183,10 +5192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT22">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.18</v>
@@ -5287,7 +5296,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5377,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU23">
         <v>1.26</v>
@@ -5565,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT24">
         <v>1.77</v>
@@ -5860,7 +5869,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -5947,10 +5956,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>1.71</v>
@@ -6051,7 +6060,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6242,7 +6251,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6433,7 +6442,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6624,7 +6633,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6815,7 +6824,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7006,7 +7015,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7093,7 +7102,7 @@
         <v>2.33</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
         <v>1.75</v>
@@ -7388,7 +7397,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7478,7 +7487,7 @@
         <v>1.42</v>
       </c>
       <c r="AT34">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.45</v>
@@ -7579,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7770,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7857,10 +7866,10 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU36">
         <v>1.81</v>
@@ -7961,7 +7970,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8242,7 +8251,7 @@
         <v>1.69</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8343,7 +8352,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8624,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8812,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT41">
         <v>1.27</v>
@@ -9107,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9197,7 +9206,7 @@
         <v>1.69</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU43">
         <v>2.06</v>
@@ -9298,7 +9307,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9489,7 +9498,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9576,7 +9585,7 @@
         <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT45">
         <v>0.92</v>
@@ -9871,7 +9880,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10149,10 +10158,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT48">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>1.05</v>
@@ -10253,7 +10262,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10444,7 +10453,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10531,10 +10540,10 @@
         <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -10635,7 +10644,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10826,7 +10835,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11017,7 +11026,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11107,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11295,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT54">
         <v>1.31</v>
@@ -11399,7 +11408,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11590,7 +11599,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11677,7 +11686,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
         <v>0.08</v>
@@ -11781,7 +11790,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11868,10 +11877,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU57">
         <v>1.04</v>
@@ -11972,7 +11981,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12059,10 +12068,10 @@
         <v>0.4</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT58">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU58">
         <v>1.06</v>
@@ -12354,7 +12363,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12444,7 +12453,7 @@
         <v>1.83</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>1.38</v>
@@ -13017,7 +13026,7 @@
         <v>1.82</v>
       </c>
       <c r="AT63">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU63">
         <v>1.82</v>
@@ -13118,7 +13127,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13309,7 +13318,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13396,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
         <v>1.31</v>
@@ -13500,7 +13509,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13781,7 +13790,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU67">
         <v>2.06</v>
@@ -13969,7 +13978,7 @@
         <v>0.17</v>
       </c>
       <c r="AS68">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT68">
         <v>0.08</v>
@@ -14073,7 +14082,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14264,7 +14273,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14542,7 +14551,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
         <v>1.31</v>
@@ -14646,7 +14655,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14837,7 +14846,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14927,7 +14936,7 @@
         <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.44</v>
@@ -15118,7 +15127,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU74">
         <v>1.47</v>
@@ -15219,7 +15228,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15306,7 +15315,7 @@
         <v>2.14</v>
       </c>
       <c r="AS75">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT75">
         <v>1.77</v>
@@ -15410,7 +15419,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15497,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1.27</v>
@@ -15792,7 +15801,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16070,7 +16079,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
         <v>1.42</v>
@@ -16174,7 +16183,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16264,7 +16273,7 @@
         <v>1.83</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU80">
         <v>1.57</v>
@@ -16365,7 +16374,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16747,7 +16756,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16837,7 +16846,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -17320,7 +17329,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17511,7 +17520,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17789,7 +17798,7 @@
         <v>2.5</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
         <v>1.75</v>
@@ -18084,7 +18093,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18171,7 +18180,7 @@
         <v>1.44</v>
       </c>
       <c r="AS90">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT90">
         <v>1.42</v>
@@ -18365,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU91">
         <v>1.87</v>
@@ -18848,7 +18857,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18938,7 +18947,7 @@
         <v>1.42</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19039,7 +19048,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19230,7 +19239,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19317,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
         <v>1.77</v>
@@ -19421,7 +19430,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19612,7 +19621,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19699,10 +19708,10 @@
         <v>1.33</v>
       </c>
       <c r="AS98">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -19803,7 +19812,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20081,7 +20090,7 @@
         <v>1.11</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
         <v>0.92</v>
@@ -20185,7 +20194,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20466,7 +20475,7 @@
         <v>1.69</v>
       </c>
       <c r="AT102">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20758,7 +20767,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21039,7 +21048,7 @@
         <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU105">
         <v>1.86</v>
@@ -21140,7 +21149,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21522,7 +21531,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21609,7 +21618,7 @@
         <v>1.1</v>
       </c>
       <c r="AS108">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT108">
         <v>0.92</v>
@@ -21713,7 +21722,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22095,7 +22104,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22182,10 +22191,10 @@
         <v>1.64</v>
       </c>
       <c r="AS111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -22668,7 +22677,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22758,7 +22767,7 @@
         <v>1.42</v>
       </c>
       <c r="AT114">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.23</v>
@@ -22859,7 +22868,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22946,7 +22955,7 @@
         <v>1.82</v>
       </c>
       <c r="AS115">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT115">
         <v>1.75</v>
@@ -23050,7 +23059,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23241,7 +23250,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23713,7 +23722,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23814,7 +23823,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23901,7 +23910,7 @@
         <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT120">
         <v>1.27</v>
@@ -23956,6 +23965,579 @@
       </c>
       <c r="BK120">
         <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5019389</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45121.65625</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P121" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>6.64</v>
+      </c>
+      <c r="U121">
+        <v>2.48</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>1.35</v>
+      </c>
+      <c r="X121">
+        <v>3.28</v>
+      </c>
+      <c r="Y121">
+        <v>2.7</v>
+      </c>
+      <c r="Z121">
+        <v>1.48</v>
+      </c>
+      <c r="AA121">
+        <v>5.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.11</v>
+      </c>
+      <c r="AC121">
+        <v>4</v>
+      </c>
+      <c r="AD121">
+        <v>3.6</v>
+      </c>
+      <c r="AE121">
+        <v>1.73</v>
+      </c>
+      <c r="AF121">
+        <v>1.03</v>
+      </c>
+      <c r="AG121">
+        <v>12</v>
+      </c>
+      <c r="AH121">
+        <v>1.22</v>
+      </c>
+      <c r="AI121">
+        <v>3.8</v>
+      </c>
+      <c r="AJ121">
+        <v>1.57</v>
+      </c>
+      <c r="AK121">
+        <v>2.15</v>
+      </c>
+      <c r="AL121">
+        <v>1.9</v>
+      </c>
+      <c r="AM121">
+        <v>1.8</v>
+      </c>
+      <c r="AN121">
+        <v>2.7</v>
+      </c>
+      <c r="AO121">
+        <v>1.19</v>
+      </c>
+      <c r="AP121">
+        <v>1.11</v>
+      </c>
+      <c r="AQ121">
+        <v>0.73</v>
+      </c>
+      <c r="AR121">
+        <v>1.18</v>
+      </c>
+      <c r="AS121">
+        <v>0.67</v>
+      </c>
+      <c r="AT121">
+        <v>1.33</v>
+      </c>
+      <c r="AU121">
+        <v>0.95</v>
+      </c>
+      <c r="AV121">
+        <v>1.18</v>
+      </c>
+      <c r="AW121">
+        <v>2.13</v>
+      </c>
+      <c r="AX121">
+        <v>4.86</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>1.26</v>
+      </c>
+      <c r="BA121">
+        <v>1.24</v>
+      </c>
+      <c r="BB121">
+        <v>1.46</v>
+      </c>
+      <c r="BC121">
+        <v>1.83</v>
+      </c>
+      <c r="BD121">
+        <v>2.32</v>
+      </c>
+      <c r="BE121">
+        <v>3.08</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
+        <v>7</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>7</v>
+      </c>
+      <c r="BK121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5019388</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45121.65625</v>
+      </c>
+      <c r="F122">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>111</v>
+      </c>
+      <c r="P122" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q122">
+        <v>7</v>
+      </c>
+      <c r="R122">
+        <v>9</v>
+      </c>
+      <c r="S122">
+        <v>16</v>
+      </c>
+      <c r="T122">
+        <v>3.2</v>
+      </c>
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
+        <v>3.5</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>2.4</v>
+      </c>
+      <c r="Y122">
+        <v>3.6</v>
+      </c>
+      <c r="Z122">
+        <v>1.25</v>
+      </c>
+      <c r="AA122">
+        <v>8.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.04</v>
+      </c>
+      <c r="AC122">
+        <v>2.5</v>
+      </c>
+      <c r="AD122">
+        <v>2.8</v>
+      </c>
+      <c r="AE122">
+        <v>2.87</v>
+      </c>
+      <c r="AF122">
+        <v>1.07</v>
+      </c>
+      <c r="AG122">
+        <v>6.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.44</v>
+      </c>
+      <c r="AI122">
+        <v>2.37</v>
+      </c>
+      <c r="AJ122">
+        <v>2.48</v>
+      </c>
+      <c r="AK122">
+        <v>1.49</v>
+      </c>
+      <c r="AL122">
+        <v>2.05</v>
+      </c>
+      <c r="AM122">
+        <v>1.65</v>
+      </c>
+      <c r="AN122">
+        <v>1.39</v>
+      </c>
+      <c r="AO122">
+        <v>1.35</v>
+      </c>
+      <c r="AP122">
+        <v>1.5</v>
+      </c>
+      <c r="AQ122">
+        <v>1.67</v>
+      </c>
+      <c r="AR122">
+        <v>1.5</v>
+      </c>
+      <c r="AS122">
+        <v>1.62</v>
+      </c>
+      <c r="AT122">
+        <v>1.46</v>
+      </c>
+      <c r="AU122">
+        <v>1.17</v>
+      </c>
+      <c r="AV122">
+        <v>1.14</v>
+      </c>
+      <c r="AW122">
+        <v>2.31</v>
+      </c>
+      <c r="AX122">
+        <v>2.39</v>
+      </c>
+      <c r="AY122">
+        <v>8</v>
+      </c>
+      <c r="AZ122">
+        <v>1.82</v>
+      </c>
+      <c r="BA122">
+        <v>1.36</v>
+      </c>
+      <c r="BB122">
+        <v>1.66</v>
+      </c>
+      <c r="BC122">
+        <v>1.98</v>
+      </c>
+      <c r="BD122">
+        <v>2.79</v>
+      </c>
+      <c r="BE122">
+        <v>3.8</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>6</v>
+      </c>
+      <c r="BH122">
+        <v>7</v>
+      </c>
+      <c r="BI122">
+        <v>6</v>
+      </c>
+      <c r="BJ122">
+        <v>12</v>
+      </c>
+      <c r="BK122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5019390</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45122.65625</v>
+      </c>
+      <c r="F123">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" t="s">
+        <v>65</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>158</v>
+      </c>
+      <c r="P123" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>2.35</v>
+      </c>
+      <c r="U123">
+        <v>2.1</v>
+      </c>
+      <c r="V123">
+        <v>4.4</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>2.7</v>
+      </c>
+      <c r="Y123">
+        <v>2.87</v>
+      </c>
+      <c r="Z123">
+        <v>1.36</v>
+      </c>
+      <c r="AA123">
+        <v>7.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.07</v>
+      </c>
+      <c r="AC123">
+        <v>1.83</v>
+      </c>
+      <c r="AD123">
+        <v>3.25</v>
+      </c>
+      <c r="AE123">
+        <v>3.5</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>8.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.27</v>
+      </c>
+      <c r="AI123">
+        <v>3.4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.92</v>
+      </c>
+      <c r="AK123">
+        <v>1.73</v>
+      </c>
+      <c r="AL123">
+        <v>1.72</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.17</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1.85</v>
+      </c>
+      <c r="AQ123">
+        <v>1.36</v>
+      </c>
+      <c r="AR123">
+        <v>0.55</v>
+      </c>
+      <c r="AS123">
+        <v>1.5</v>
+      </c>
+      <c r="AT123">
+        <v>0.5</v>
+      </c>
+      <c r="AU123">
+        <v>1.42</v>
+      </c>
+      <c r="AV123">
+        <v>1.06</v>
+      </c>
+      <c r="AW123">
+        <v>2.48</v>
+      </c>
+      <c r="AX123">
+        <v>1.41</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>3.49</v>
+      </c>
+      <c r="BA123">
+        <v>1.22</v>
+      </c>
+      <c r="BB123">
+        <v>1.43</v>
+      </c>
+      <c r="BC123">
+        <v>1.79</v>
+      </c>
+      <c r="BD123">
+        <v>2.2</v>
+      </c>
+      <c r="BE123">
+        <v>2.93</v>
+      </c>
+      <c r="BF123">
+        <v>10</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>9</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>19</v>
+      </c>
+      <c r="BK123">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['30', '53', '73']</t>
   </si>
   <si>
+    <t>['75', '89']</t>
+  </si>
+  <si>
+    <t>['68', '78']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['20', '73']</t>
+  </si>
+  <si>
+    <t>['24', '59']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1297,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
         <v>1.46</v>
@@ -1858,7 +1870,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2327,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT7">
         <v>1.31</v>
@@ -2622,7 +2634,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2903,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU10">
         <v>1.15</v>
@@ -3004,7 +3016,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3664,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT14">
         <v>0.08</v>
@@ -3959,7 +3971,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4237,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4431,7 +4443,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU18">
         <v>1.73</v>
@@ -4532,7 +4544,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4723,7 +4735,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4914,7 +4926,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5105,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5296,7 +5308,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5869,7 +5881,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6060,7 +6072,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6251,7 +6263,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6338,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
+        <v>1.31</v>
+      </c>
+      <c r="AT28">
         <v>1.42</v>
-      </c>
-      <c r="AT28">
-        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>1.4</v>
@@ -6442,7 +6454,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6633,7 +6645,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6720,7 +6732,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
         <v>0.08</v>
@@ -6824,7 +6836,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7015,7 +7027,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7397,7 +7409,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7484,7 +7496,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
         <v>1.33</v>
@@ -7588,7 +7600,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7970,7 +7982,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8057,7 +8069,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
         <v>1.77</v>
@@ -8352,7 +8364,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8824,7 +8836,7 @@
         <v>0.67</v>
       </c>
       <c r="AT41">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU41">
         <v>1.1</v>
@@ -9012,7 +9024,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT42">
         <v>1.31</v>
@@ -9116,7 +9128,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9307,7 +9319,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9498,7 +9510,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9880,7 +9892,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9967,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT47">
         <v>1.42</v>
@@ -10262,7 +10274,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10352,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU49">
         <v>2.31</v>
@@ -10453,7 +10465,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10644,7 +10656,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10835,7 +10847,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10922,7 +10934,7 @@
         <v>2.2</v>
       </c>
       <c r="AS52">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT52">
         <v>1.75</v>
@@ -11026,7 +11038,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11408,7 +11420,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11599,7 +11611,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11790,7 +11802,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11981,7 +11993,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12363,7 +12375,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13023,7 +13035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13127,7 +13139,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13217,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU64">
         <v>1.85</v>
@@ -13318,7 +13330,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13509,7 +13521,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14082,7 +14094,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14273,7 +14285,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14360,7 +14372,7 @@
         <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT70">
         <v>1.42</v>
@@ -14655,7 +14667,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14742,7 +14754,7 @@
         <v>2.43</v>
       </c>
       <c r="AS72">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT72">
         <v>1.75</v>
@@ -14846,7 +14858,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15228,7 +15240,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15419,7 +15431,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15509,7 +15521,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU76">
         <v>1.67</v>
@@ -15801,7 +15813,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16183,7 +16195,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16374,7 +16386,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16652,7 +16664,7 @@
         <v>1.43</v>
       </c>
       <c r="AS82">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
         <v>0.92</v>
@@ -16756,7 +16768,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -17034,10 +17046,10 @@
         <v>1.29</v>
       </c>
       <c r="AS84">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU84">
         <v>1.66</v>
@@ -17225,7 +17237,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT85">
         <v>1.77</v>
@@ -17329,7 +17341,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17520,7 +17532,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18093,7 +18105,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18565,7 +18577,7 @@
         <v>1.69</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU92">
         <v>1.92</v>
@@ -18753,7 +18765,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT93">
         <v>0.92</v>
@@ -18857,7 +18869,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18944,7 +18956,7 @@
         <v>1.89</v>
       </c>
       <c r="AS94">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
         <v>1.46</v>
@@ -19048,7 +19060,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19239,7 +19251,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19430,7 +19442,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19621,7 +19633,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19812,7 +19824,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20194,7 +20206,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20281,7 +20293,7 @@
         <v>1.1</v>
       </c>
       <c r="AS101">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT101">
         <v>1.31</v>
@@ -20767,7 +20779,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20854,7 +20866,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT104">
         <v>1.77</v>
@@ -21149,7 +21161,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21430,7 +21442,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21531,7 +21543,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21722,7 +21734,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22104,7 +22116,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22677,7 +22689,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22764,7 +22776,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -22868,7 +22880,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23059,7 +23071,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23146,7 +23158,7 @@
         <v>1.42</v>
       </c>
       <c r="AS116">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT116">
         <v>1.31</v>
@@ -23250,7 +23262,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23823,7 +23835,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23913,7 +23925,7 @@
         <v>0.67</v>
       </c>
       <c r="AT120">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU120">
         <v>1.01</v>
@@ -24014,7 +24026,7 @@
         <v>157</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24205,7 +24217,7 @@
         <v>111</v>
       </c>
       <c r="P122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24537,6 +24549,579 @@
         <v>19</v>
       </c>
       <c r="BK123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5019391</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45135.65625</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>159</v>
+      </c>
+      <c r="P124" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>1.57</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>11</v>
+      </c>
+      <c r="W124">
+        <v>1.25</v>
+      </c>
+      <c r="X124">
+        <v>3.75</v>
+      </c>
+      <c r="Y124">
+        <v>2.25</v>
+      </c>
+      <c r="Z124">
+        <v>1.57</v>
+      </c>
+      <c r="AA124">
+        <v>5.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.14</v>
+      </c>
+      <c r="AC124">
+        <v>1.22</v>
+      </c>
+      <c r="AD124">
+        <v>6</v>
+      </c>
+      <c r="AE124">
+        <v>10</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>12</v>
+      </c>
+      <c r="AH124">
+        <v>1.16</v>
+      </c>
+      <c r="AI124">
+        <v>4.75</v>
+      </c>
+      <c r="AJ124">
+        <v>1.55</v>
+      </c>
+      <c r="AK124">
+        <v>2.35</v>
+      </c>
+      <c r="AL124">
+        <v>2.25</v>
+      </c>
+      <c r="AM124">
+        <v>1.57</v>
+      </c>
+      <c r="AN124">
+        <v>1.04</v>
+      </c>
+      <c r="AO124">
+        <v>1.06</v>
+      </c>
+      <c r="AP124">
+        <v>4.2</v>
+      </c>
+      <c r="AQ124">
+        <v>1.82</v>
+      </c>
+      <c r="AR124">
+        <v>0.08</v>
+      </c>
+      <c r="AS124">
+        <v>1.92</v>
+      </c>
+      <c r="AT124">
+        <v>0.08</v>
+      </c>
+      <c r="AU124">
+        <v>1.64</v>
+      </c>
+      <c r="AV124">
+        <v>0.9</v>
+      </c>
+      <c r="AW124">
+        <v>2.54</v>
+      </c>
+      <c r="AX124">
+        <v>1.09</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>8.85</v>
+      </c>
+      <c r="BA124">
+        <v>1.21</v>
+      </c>
+      <c r="BB124">
+        <v>1.43</v>
+      </c>
+      <c r="BC124">
+        <v>1.88</v>
+      </c>
+      <c r="BD124">
+        <v>2.11</v>
+      </c>
+      <c r="BE124">
+        <v>2.63</v>
+      </c>
+      <c r="BF124">
+        <v>7</v>
+      </c>
+      <c r="BG124">
+        <v>2</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>2</v>
+      </c>
+      <c r="BJ124">
+        <v>14</v>
+      </c>
+      <c r="BK124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5019392</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45135.65625</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
+      <c r="H125" t="s">
+        <v>67</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>77</v>
+      </c>
+      <c r="P125" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>3.75</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>3.1</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>2.63</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.33</v>
+      </c>
+      <c r="AA125">
+        <v>10</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>2.63</v>
+      </c>
+      <c r="AD125">
+        <v>3.2</v>
+      </c>
+      <c r="AE125">
+        <v>2.45</v>
+      </c>
+      <c r="AF125">
+        <v>1.07</v>
+      </c>
+      <c r="AG125">
+        <v>7.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.36</v>
+      </c>
+      <c r="AI125">
+        <v>2.95</v>
+      </c>
+      <c r="AJ125">
+        <v>2.2</v>
+      </c>
+      <c r="AK125">
+        <v>1.6</v>
+      </c>
+      <c r="AL125">
+        <v>1.95</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.63</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>1.33</v>
+      </c>
+      <c r="AQ125">
+        <v>1.42</v>
+      </c>
+      <c r="AR125">
+        <v>1.27</v>
+      </c>
+      <c r="AS125">
+        <v>1.31</v>
+      </c>
+      <c r="AT125">
+        <v>1.42</v>
+      </c>
+      <c r="AU125">
+        <v>1.18</v>
+      </c>
+      <c r="AV125">
+        <v>1.27</v>
+      </c>
+      <c r="AW125">
+        <v>2.45</v>
+      </c>
+      <c r="AX125">
+        <v>2.1</v>
+      </c>
+      <c r="AY125">
+        <v>7.5</v>
+      </c>
+      <c r="AZ125">
+        <v>1.91</v>
+      </c>
+      <c r="BA125">
+        <v>1.43</v>
+      </c>
+      <c r="BB125">
+        <v>1.73</v>
+      </c>
+      <c r="BC125">
+        <v>2.1</v>
+      </c>
+      <c r="BD125">
+        <v>2.63</v>
+      </c>
+      <c r="BE125">
+        <v>3.92</v>
+      </c>
+      <c r="BF125">
+        <v>2</v>
+      </c>
+      <c r="BG125">
+        <v>4</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>6</v>
+      </c>
+      <c r="BK125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5019393</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45135.65625</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>160</v>
+      </c>
+      <c r="P126" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>3.1</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>3.5</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>2.75</v>
+      </c>
+      <c r="Y126">
+        <v>3</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>8</v>
+      </c>
+      <c r="AB126">
+        <v>1.08</v>
+      </c>
+      <c r="AC126">
+        <v>2.15</v>
+      </c>
+      <c r="AD126">
+        <v>3.25</v>
+      </c>
+      <c r="AE126">
+        <v>3.1</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>8</v>
+      </c>
+      <c r="AH126">
+        <v>1.33</v>
+      </c>
+      <c r="AI126">
+        <v>3.2</v>
+      </c>
+      <c r="AJ126">
+        <v>2.08</v>
+      </c>
+      <c r="AK126">
+        <v>1.78</v>
+      </c>
+      <c r="AL126">
+        <v>1.75</v>
+      </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
+      <c r="AN126">
+        <v>1.33</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.57</v>
+      </c>
+      <c r="AQ126">
+        <v>1</v>
+      </c>
+      <c r="AR126">
+        <v>0.92</v>
+      </c>
+      <c r="AS126">
+        <v>1</v>
+      </c>
+      <c r="AT126">
+        <v>0.92</v>
+      </c>
+      <c r="AU126">
+        <v>1.69</v>
+      </c>
+      <c r="AV126">
+        <v>1.43</v>
+      </c>
+      <c r="AW126">
+        <v>3.12</v>
+      </c>
+      <c r="AX126">
+        <v>1.84</v>
+      </c>
+      <c r="AY126">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ126">
+        <v>2.31</v>
+      </c>
+      <c r="BA126">
+        <v>1.2</v>
+      </c>
+      <c r="BB126">
+        <v>1.43</v>
+      </c>
+      <c r="BC126">
+        <v>1.7</v>
+      </c>
+      <c r="BD126">
+        <v>2.1</v>
+      </c>
+      <c r="BE126">
+        <v>2.63</v>
+      </c>
+      <c r="BF126">
+        <v>9</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>3</v>
+      </c>
+      <c r="BI126">
+        <v>2</v>
+      </c>
+      <c r="BJ126">
+        <v>12</v>
+      </c>
+      <c r="BK126">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,9 @@
     <t>['68', '78']</t>
   </si>
   <si>
+    <t>['2', '45+3', '77', '85']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -682,16 +685,22 @@
     <t>['45', '66', '80', '90+1']</t>
   </si>
   <si>
-    <t>['19', '26', '72']</t>
+    <t>['80']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['19', '26', '72']</t>
   </si>
   <si>
     <t>['20', '73']</t>
   </si>
   <si>
     <t>['24', '59']</t>
+  </si>
+  <si>
+    <t>['12', '32']</t>
+  </si>
+  <si>
+    <t>['36', '75']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1306,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1769,7 +1778,7 @@
         <v>1.62</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1870,7 +1879,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2148,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
         <v>1.77</v>
@@ -2339,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>1.31</v>
@@ -2634,7 +2643,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -3016,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3488,7 +3497,7 @@
         <v>1.83</v>
       </c>
       <c r="AT13">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU13">
         <v>1.66</v>
@@ -3971,7 +3980,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4249,10 +4258,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU17">
         <v>1.79</v>
@@ -4544,7 +4553,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4631,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>2.15</v>
@@ -4735,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4926,7 +4935,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5117,7 +5126,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5207,7 +5216,7 @@
         <v>0.67</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU22">
         <v>1.18</v>
@@ -5308,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5881,7 +5890,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -5968,7 +5977,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -6072,7 +6081,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6263,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6454,7 +6463,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6544,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU29">
         <v>2.27</v>
@@ -6645,7 +6654,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6732,7 +6741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>0.08</v>
@@ -6836,7 +6845,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7027,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7409,7 +7418,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7499,7 +7508,7 @@
         <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU34">
         <v>1.45</v>
@@ -7600,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7878,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
         <v>1.46</v>
@@ -7982,7 +7991,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8069,7 +8078,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1.77</v>
@@ -8263,7 +8272,7 @@
         <v>1.69</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8364,7 +8373,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -9128,7 +9137,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9319,7 +9328,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9409,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44">
         <v>2.09</v>
@@ -9510,7 +9519,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9892,7 +9901,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9979,10 +9988,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10274,7 +10283,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10465,7 +10474,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10552,10 +10561,10 @@
         <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -10656,7 +10665,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10847,7 +10856,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11038,7 +11047,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11420,7 +11429,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11611,7 +11620,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11698,7 +11707,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
         <v>0.08</v>
@@ -11802,7 +11811,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11993,7 +12002,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12274,7 +12283,7 @@
         <v>1.69</v>
       </c>
       <c r="AT59">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU59">
         <v>2.01</v>
@@ -12375,7 +12384,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12465,7 +12474,7 @@
         <v>1.83</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU60">
         <v>1.38</v>
@@ -13035,7 +13044,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13139,7 +13148,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13330,7 +13339,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13521,7 +13530,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14094,7 +14103,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14285,7 +14294,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14375,7 +14384,7 @@
         <v>1.31</v>
       </c>
       <c r="AT70">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU70">
         <v>1.33</v>
@@ -14563,7 +14572,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
         <v>1.31</v>
@@ -14667,7 +14676,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14754,7 +14763,7 @@
         <v>2.43</v>
       </c>
       <c r="AS72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>1.75</v>
@@ -14858,7 +14867,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15139,7 +15148,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU74">
         <v>1.47</v>
@@ -15240,7 +15249,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15431,7 +15440,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15518,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
         <v>1.42</v>
@@ -15813,7 +15822,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -15903,7 +15912,7 @@
         <v>2</v>
       </c>
       <c r="AT78">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU78">
         <v>1.98</v>
@@ -16094,7 +16103,7 @@
         <v>1.62</v>
       </c>
       <c r="AT79">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU79">
         <v>1.13</v>
@@ -16195,7 +16204,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16386,7 +16395,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16768,7 +16777,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16858,7 +16867,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -17046,7 +17055,7 @@
         <v>1.29</v>
       </c>
       <c r="AS84">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.42</v>
@@ -17341,7 +17350,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17532,7 +17541,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17810,7 +17819,7 @@
         <v>2.5</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT88">
         <v>1.75</v>
@@ -18105,7 +18114,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18195,7 +18204,7 @@
         <v>0.67</v>
       </c>
       <c r="AT90">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU90">
         <v>1.03</v>
@@ -18765,7 +18774,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>0.92</v>
@@ -18869,7 +18878,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19060,7 +19069,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19251,7 +19260,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19338,7 +19347,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
         <v>1.77</v>
@@ -19442,7 +19451,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19633,7 +19642,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19723,7 +19732,7 @@
         <v>1.62</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -19824,7 +19833,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19914,7 +19923,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU99">
         <v>1.8</v>
@@ -20206,7 +20215,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20779,7 +20788,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20866,7 +20875,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>1.77</v>
@@ -21161,7 +21170,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21543,7 +21552,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21734,7 +21743,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21824,7 +21833,7 @@
         <v>1.83</v>
       </c>
       <c r="AT109">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22116,7 +22125,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22203,7 +22212,7 @@
         <v>1.64</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT111">
         <v>1.46</v>
@@ -22689,7 +22698,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22779,7 +22788,7 @@
         <v>1.31</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU114">
         <v>1.23</v>
@@ -22880,7 +22889,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23071,7 +23080,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23158,7 +23167,7 @@
         <v>1.42</v>
       </c>
       <c r="AS116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.31</v>
@@ -23262,7 +23271,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23835,7 +23844,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23984,7 +23993,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5019389</v>
+        <v>5019388</v>
       </c>
       <c r="C121" t="s">
         <v>63</v>
@@ -23999,175 +24008,175 @@
         <v>24</v>
       </c>
       <c r="G121" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O121" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R121">
+        <v>9</v>
+      </c>
+      <c r="S121">
+        <v>16</v>
+      </c>
+      <c r="T121">
+        <v>3.2</v>
+      </c>
+      <c r="U121">
+        <v>1.9</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.5</v>
+      </c>
+      <c r="X121">
+        <v>2.4</v>
+      </c>
+      <c r="Y121">
+        <v>3.6</v>
+      </c>
+      <c r="Z121">
+        <v>1.25</v>
+      </c>
+      <c r="AA121">
+        <v>8.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.04</v>
+      </c>
+      <c r="AC121">
+        <v>2.5</v>
+      </c>
+      <c r="AD121">
+        <v>2.8</v>
+      </c>
+      <c r="AE121">
+        <v>2.87</v>
+      </c>
+      <c r="AF121">
+        <v>1.07</v>
+      </c>
+      <c r="AG121">
+        <v>6.5</v>
+      </c>
+      <c r="AH121">
+        <v>1.44</v>
+      </c>
+      <c r="AI121">
+        <v>2.37</v>
+      </c>
+      <c r="AJ121">
+        <v>2.48</v>
+      </c>
+      <c r="AK121">
+        <v>1.49</v>
+      </c>
+      <c r="AL121">
+        <v>2.05</v>
+      </c>
+      <c r="AM121">
+        <v>1.65</v>
+      </c>
+      <c r="AN121">
+        <v>1.39</v>
+      </c>
+      <c r="AO121">
+        <v>1.35</v>
+      </c>
+      <c r="AP121">
+        <v>1.5</v>
+      </c>
+      <c r="AQ121">
+        <v>1.67</v>
+      </c>
+      <c r="AR121">
+        <v>1.5</v>
+      </c>
+      <c r="AS121">
+        <v>1.62</v>
+      </c>
+      <c r="AT121">
+        <v>1.46</v>
+      </c>
+      <c r="AU121">
+        <v>1.17</v>
+      </c>
+      <c r="AV121">
+        <v>1.14</v>
+      </c>
+      <c r="AW121">
+        <v>2.31</v>
+      </c>
+      <c r="AX121">
+        <v>2.39</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>1.82</v>
+      </c>
+      <c r="BA121">
+        <v>1.36</v>
+      </c>
+      <c r="BB121">
+        <v>1.66</v>
+      </c>
+      <c r="BC121">
+        <v>1.98</v>
+      </c>
+      <c r="BD121">
+        <v>2.79</v>
+      </c>
+      <c r="BE121">
+        <v>3.8</v>
+      </c>
+      <c r="BF121">
+        <v>5</v>
+      </c>
+      <c r="BG121">
         <v>6</v>
       </c>
-      <c r="S121">
-        <v>10</v>
-      </c>
-      <c r="T121">
-        <v>6.64</v>
-      </c>
-      <c r="U121">
-        <v>2.48</v>
-      </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
-      <c r="W121">
-        <v>1.35</v>
-      </c>
-      <c r="X121">
-        <v>3.28</v>
-      </c>
-      <c r="Y121">
-        <v>2.7</v>
-      </c>
-      <c r="Z121">
-        <v>1.48</v>
-      </c>
-      <c r="AA121">
-        <v>5.5</v>
-      </c>
-      <c r="AB121">
-        <v>1.11</v>
-      </c>
-      <c r="AC121">
-        <v>4</v>
-      </c>
-      <c r="AD121">
-        <v>3.6</v>
-      </c>
-      <c r="AE121">
-        <v>1.73</v>
-      </c>
-      <c r="AF121">
-        <v>1.03</v>
-      </c>
-      <c r="AG121">
+      <c r="BH121">
+        <v>7</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
         <v>12</v>
       </c>
-      <c r="AH121">
-        <v>1.22</v>
-      </c>
-      <c r="AI121">
-        <v>3.8</v>
-      </c>
-      <c r="AJ121">
-        <v>1.57</v>
-      </c>
-      <c r="AK121">
-        <v>2.15</v>
-      </c>
-      <c r="AL121">
-        <v>1.9</v>
-      </c>
-      <c r="AM121">
-        <v>1.8</v>
-      </c>
-      <c r="AN121">
-        <v>2.7</v>
-      </c>
-      <c r="AO121">
-        <v>1.19</v>
-      </c>
-      <c r="AP121">
-        <v>1.11</v>
-      </c>
-      <c r="AQ121">
-        <v>0.73</v>
-      </c>
-      <c r="AR121">
-        <v>1.18</v>
-      </c>
-      <c r="AS121">
-        <v>0.67</v>
-      </c>
-      <c r="AT121">
-        <v>1.33</v>
-      </c>
-      <c r="AU121">
-        <v>0.95</v>
-      </c>
-      <c r="AV121">
-        <v>1.18</v>
-      </c>
-      <c r="AW121">
-        <v>2.13</v>
-      </c>
-      <c r="AX121">
-        <v>4.86</v>
-      </c>
-      <c r="AY121">
-        <v>10</v>
-      </c>
-      <c r="AZ121">
-        <v>1.26</v>
-      </c>
-      <c r="BA121">
-        <v>1.24</v>
-      </c>
-      <c r="BB121">
-        <v>1.46</v>
-      </c>
-      <c r="BC121">
-        <v>1.83</v>
-      </c>
-      <c r="BD121">
-        <v>2.32</v>
-      </c>
-      <c r="BE121">
-        <v>3.08</v>
-      </c>
-      <c r="BF121">
-        <v>3</v>
-      </c>
-      <c r="BG121">
-        <v>7</v>
-      </c>
-      <c r="BH121">
-        <v>4</v>
-      </c>
-      <c r="BI121">
-        <v>4</v>
-      </c>
-      <c r="BJ121">
-        <v>7</v>
-      </c>
       <c r="BK121">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:63">
@@ -24175,7 +24184,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5019388</v>
+        <v>5019389</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24190,175 +24199,175 @@
         <v>24</v>
       </c>
       <c r="G122" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H122" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O122" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>6.64</v>
+      </c>
+      <c r="U122">
+        <v>2.48</v>
+      </c>
+      <c r="V122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>1.35</v>
+      </c>
+      <c r="X122">
+        <v>3.28</v>
+      </c>
+      <c r="Y122">
+        <v>2.7</v>
+      </c>
+      <c r="Z122">
+        <v>1.48</v>
+      </c>
+      <c r="AA122">
+        <v>5.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>4</v>
+      </c>
+      <c r="AD122">
+        <v>3.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.73</v>
+      </c>
+      <c r="AF122">
+        <v>1.03</v>
+      </c>
+      <c r="AG122">
+        <v>12</v>
+      </c>
+      <c r="AH122">
+        <v>1.22</v>
+      </c>
+      <c r="AI122">
+        <v>3.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.57</v>
+      </c>
+      <c r="AK122">
+        <v>2.15</v>
+      </c>
+      <c r="AL122">
+        <v>1.9</v>
+      </c>
+      <c r="AM122">
+        <v>1.8</v>
+      </c>
+      <c r="AN122">
+        <v>2.7</v>
+      </c>
+      <c r="AO122">
+        <v>1.19</v>
+      </c>
+      <c r="AP122">
+        <v>1.11</v>
+      </c>
+      <c r="AQ122">
+        <v>0.73</v>
+      </c>
+      <c r="AR122">
+        <v>1.18</v>
+      </c>
+      <c r="AS122">
+        <v>0.67</v>
+      </c>
+      <c r="AT122">
+        <v>1.23</v>
+      </c>
+      <c r="AU122">
+        <v>0.95</v>
+      </c>
+      <c r="AV122">
+        <v>1.18</v>
+      </c>
+      <c r="AW122">
+        <v>2.13</v>
+      </c>
+      <c r="AX122">
+        <v>4.86</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>1.26</v>
+      </c>
+      <c r="BA122">
+        <v>1.24</v>
+      </c>
+      <c r="BB122">
+        <v>1.46</v>
+      </c>
+      <c r="BC122">
+        <v>1.83</v>
+      </c>
+      <c r="BD122">
+        <v>2.32</v>
+      </c>
+      <c r="BE122">
+        <v>3.08</v>
+      </c>
+      <c r="BF122">
+        <v>3</v>
+      </c>
+      <c r="BG122">
         <v>7</v>
       </c>
-      <c r="R122">
-        <v>9</v>
-      </c>
-      <c r="S122">
-        <v>16</v>
-      </c>
-      <c r="T122">
-        <v>3.2</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>3.5</v>
-      </c>
-      <c r="W122">
-        <v>1.5</v>
-      </c>
-      <c r="X122">
-        <v>2.4</v>
-      </c>
-      <c r="Y122">
-        <v>3.6</v>
-      </c>
-      <c r="Z122">
-        <v>1.25</v>
-      </c>
-      <c r="AA122">
-        <v>8.5</v>
-      </c>
-      <c r="AB122">
-        <v>1.04</v>
-      </c>
-      <c r="AC122">
-        <v>2.5</v>
-      </c>
-      <c r="AD122">
-        <v>2.8</v>
-      </c>
-      <c r="AE122">
-        <v>2.87</v>
-      </c>
-      <c r="AF122">
-        <v>1.07</v>
-      </c>
-      <c r="AG122">
-        <v>6.5</v>
-      </c>
-      <c r="AH122">
-        <v>1.44</v>
-      </c>
-      <c r="AI122">
-        <v>2.37</v>
-      </c>
-      <c r="AJ122">
-        <v>2.48</v>
-      </c>
-      <c r="AK122">
-        <v>1.49</v>
-      </c>
-      <c r="AL122">
-        <v>2.05</v>
-      </c>
-      <c r="AM122">
-        <v>1.65</v>
-      </c>
-      <c r="AN122">
-        <v>1.39</v>
-      </c>
-      <c r="AO122">
-        <v>1.35</v>
-      </c>
-      <c r="AP122">
-        <v>1.5</v>
-      </c>
-      <c r="AQ122">
-        <v>1.67</v>
-      </c>
-      <c r="AR122">
-        <v>1.5</v>
-      </c>
-      <c r="AS122">
-        <v>1.62</v>
-      </c>
-      <c r="AT122">
-        <v>1.46</v>
-      </c>
-      <c r="AU122">
-        <v>1.17</v>
-      </c>
-      <c r="AV122">
-        <v>1.14</v>
-      </c>
-      <c r="AW122">
-        <v>2.31</v>
-      </c>
-      <c r="AX122">
-        <v>2.39</v>
-      </c>
-      <c r="AY122">
-        <v>8</v>
-      </c>
-      <c r="AZ122">
-        <v>1.82</v>
-      </c>
-      <c r="BA122">
-        <v>1.36</v>
-      </c>
-      <c r="BB122">
-        <v>1.66</v>
-      </c>
-      <c r="BC122">
-        <v>1.98</v>
-      </c>
-      <c r="BD122">
-        <v>2.79</v>
-      </c>
-      <c r="BE122">
-        <v>3.8</v>
-      </c>
-      <c r="BF122">
-        <v>5</v>
-      </c>
-      <c r="BG122">
-        <v>6</v>
-      </c>
       <c r="BH122">
+        <v>4</v>
+      </c>
+      <c r="BI122">
+        <v>4</v>
+      </c>
+      <c r="BJ122">
         <v>7</v>
       </c>
-      <c r="BI122">
-        <v>6</v>
-      </c>
-      <c r="BJ122">
-        <v>12</v>
-      </c>
       <c r="BK122">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24495,7 +24504,7 @@
         <v>0.55</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT123">
         <v>0.5</v>
@@ -24686,7 +24695,7 @@
         <v>0.08</v>
       </c>
       <c r="AS124">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.08</v>
@@ -24790,7 +24799,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24981,7 +24990,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25123,6 +25132,388 @@
       </c>
       <c r="BK126">
         <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5019398</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45142.65625</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>77</v>
+      </c>
+      <c r="P127" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>3.5</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>2.9</v>
+      </c>
+      <c r="W127">
+        <v>1.41</v>
+      </c>
+      <c r="X127">
+        <v>2.7</v>
+      </c>
+      <c r="Y127">
+        <v>2.95</v>
+      </c>
+      <c r="Z127">
+        <v>1.35</v>
+      </c>
+      <c r="AA127">
+        <v>7.4</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>2.74</v>
+      </c>
+      <c r="AD127">
+        <v>3.15</v>
+      </c>
+      <c r="AE127">
+        <v>2.3</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>9.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.33</v>
+      </c>
+      <c r="AI127">
+        <v>3.2</v>
+      </c>
+      <c r="AJ127">
+        <v>2.04</v>
+      </c>
+      <c r="AK127">
+        <v>1.8</v>
+      </c>
+      <c r="AL127">
+        <v>1.8</v>
+      </c>
+      <c r="AM127">
+        <v>1.95</v>
+      </c>
+      <c r="AN127">
+        <v>1.6</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.38</v>
+      </c>
+      <c r="AQ127">
+        <v>1.5</v>
+      </c>
+      <c r="AR127">
+        <v>1.42</v>
+      </c>
+      <c r="AS127">
+        <v>1.38</v>
+      </c>
+      <c r="AT127">
+        <v>1.54</v>
+      </c>
+      <c r="AU127">
+        <v>1.49</v>
+      </c>
+      <c r="AV127">
+        <v>1.44</v>
+      </c>
+      <c r="AW127">
+        <v>2.93</v>
+      </c>
+      <c r="AX127">
+        <v>2.05</v>
+      </c>
+      <c r="AY127">
+        <v>7</v>
+      </c>
+      <c r="AZ127">
+        <v>2.15</v>
+      </c>
+      <c r="BA127">
+        <v>1.36</v>
+      </c>
+      <c r="BB127">
+        <v>1.6</v>
+      </c>
+      <c r="BC127">
+        <v>2</v>
+      </c>
+      <c r="BD127">
+        <v>2.5</v>
+      </c>
+      <c r="BE127">
+        <v>3.3</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>6</v>
+      </c>
+      <c r="BJ127">
+        <v>10</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5019394</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45142.65625</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>161</v>
+      </c>
+      <c r="P128" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q128">
+        <v>8</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>13</v>
+      </c>
+      <c r="T128">
+        <v>2.2</v>
+      </c>
+      <c r="U128">
+        <v>2.15</v>
+      </c>
+      <c r="V128">
+        <v>4.75</v>
+      </c>
+      <c r="W128">
+        <v>1.37</v>
+      </c>
+      <c r="X128">
+        <v>2.85</v>
+      </c>
+      <c r="Y128">
+        <v>2.7</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>7</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>1.7</v>
+      </c>
+      <c r="AD128">
+        <v>3.65</v>
+      </c>
+      <c r="AE128">
+        <v>3.9</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>9.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.29</v>
+      </c>
+      <c r="AI128">
+        <v>3.25</v>
+      </c>
+      <c r="AJ128">
+        <v>1.82</v>
+      </c>
+      <c r="AK128">
+        <v>1.88</v>
+      </c>
+      <c r="AL128">
+        <v>1.9</v>
+      </c>
+      <c r="AM128">
+        <v>1.8</v>
+      </c>
+      <c r="AN128">
+        <v>1.18</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>2.1</v>
+      </c>
+      <c r="AQ128">
+        <v>1.92</v>
+      </c>
+      <c r="AR128">
+        <v>1.33</v>
+      </c>
+      <c r="AS128">
+        <v>2</v>
+      </c>
+      <c r="AT128">
+        <v>1.23</v>
+      </c>
+      <c r="AU128">
+        <v>1.67</v>
+      </c>
+      <c r="AV128">
+        <v>1.2</v>
+      </c>
+      <c r="AW128">
+        <v>2.87</v>
+      </c>
+      <c r="AX128">
+        <v>1.5</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>3.3</v>
+      </c>
+      <c r="BA128">
+        <v>1.29</v>
+      </c>
+      <c r="BB128">
+        <v>1.44</v>
+      </c>
+      <c r="BC128">
+        <v>1.76</v>
+      </c>
+      <c r="BD128">
+        <v>1.9</v>
+      </c>
+      <c r="BE128">
+        <v>2.7</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>2</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>10</v>
+      </c>
+      <c r="BJ128">
+        <v>9</v>
+      </c>
+      <c r="BK128">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['2', '45+3', '77', '85']</t>
   </si>
   <si>
+    <t>['29', '50']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -701,6 +704,9 @@
   </si>
   <si>
     <t>['36', '75']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1584,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT3">
         <v>0.08</v>
@@ -1879,7 +1885,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2542,7 +2548,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2643,7 +2649,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2924,7 +2930,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>1.15</v>
@@ -3025,7 +3031,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3494,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT13">
         <v>1.54</v>
@@ -3980,7 +3986,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4067,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT16">
         <v>1.75</v>
@@ -4449,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT18">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU18">
         <v>1.73</v>
@@ -4553,7 +4559,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4744,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4935,7 +4941,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5022,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU21">
         <v>1.43</v>
@@ -5126,7 +5132,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5317,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5890,7 +5896,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -5980,7 +5986,7 @@
         <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU26">
         <v>1.71</v>
@@ -6081,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6272,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6362,7 +6368,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU28">
         <v>1.4</v>
@@ -6463,7 +6469,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6550,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT29">
         <v>1.54</v>
@@ -6654,7 +6660,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6845,7 +6851,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7036,7 +7042,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7418,7 +7424,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7609,7 +7615,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7696,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT35">
         <v>1.77</v>
@@ -7991,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8373,7 +8379,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8460,7 +8466,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT39">
         <v>0.92</v>
@@ -8654,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8845,7 +8851,7 @@
         <v>0.67</v>
       </c>
       <c r="AT41">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.1</v>
@@ -9137,7 +9143,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9328,7 +9334,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9519,7 +9525,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9797,7 +9803,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT46">
         <v>0.08</v>
@@ -9901,7 +9907,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10182,7 +10188,7 @@
         <v>0.67</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU48">
         <v>1.05</v>
@@ -10283,7 +10289,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10370,10 +10376,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT49">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>2.31</v>
@@ -10474,7 +10480,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10665,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10752,7 +10758,7 @@
         <v>2.5</v>
       </c>
       <c r="AS51">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT51">
         <v>1.75</v>
@@ -10856,7 +10862,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11047,7 +11053,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11429,7 +11435,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11620,7 +11626,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11811,7 +11817,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -12002,7 +12008,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12092,7 +12098,7 @@
         <v>1.62</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU58">
         <v>1.06</v>
@@ -12384,7 +12390,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12471,7 +12477,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT60">
         <v>1.23</v>
@@ -12662,7 +12668,7 @@
         <v>1.4</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT61">
         <v>0.92</v>
@@ -13047,7 +13053,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU63">
         <v>1.82</v>
@@ -13148,7 +13154,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13238,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU64">
         <v>1.85</v>
@@ -13339,7 +13345,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13530,7 +13536,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13808,7 +13814,7 @@
         <v>2.29</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT67">
         <v>1.46</v>
@@ -14103,7 +14109,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14294,7 +14300,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14676,7 +14682,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14867,7 +14873,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14954,10 +14960,10 @@
         <v>0.29</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU73">
         <v>1.44</v>
@@ -15249,7 +15255,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15440,7 +15446,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15530,7 +15536,7 @@
         <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.67</v>
@@ -15822,7 +15828,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -15909,7 +15915,7 @@
         <v>1.43</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT78">
         <v>1.54</v>
@@ -16204,7 +16210,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16291,7 +16297,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT80">
         <v>1.46</v>
@@ -16395,7 +16401,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16777,7 +16783,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16864,7 +16870,7 @@
         <v>1.13</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT83">
         <v>1.23</v>
@@ -17058,7 +17064,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU84">
         <v>1.66</v>
@@ -17350,7 +17356,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17541,7 +17547,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18010,7 +18016,7 @@
         <v>1.22</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT89">
         <v>1.31</v>
@@ -18114,7 +18120,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18395,7 +18401,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU91">
         <v>1.87</v>
@@ -18586,7 +18592,7 @@
         <v>1.69</v>
       </c>
       <c r="AT92">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU92">
         <v>1.92</v>
@@ -18878,7 +18884,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19069,7 +19075,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19156,7 +19162,7 @@
         <v>0.11</v>
       </c>
       <c r="AS95">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
         <v>0.08</v>
@@ -19260,7 +19266,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19451,7 +19457,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19642,7 +19648,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19833,7 +19839,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20215,7 +20221,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20684,7 +20690,7 @@
         <v>0.1</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT103">
         <v>0.08</v>
@@ -20788,7 +20794,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21069,7 +21075,7 @@
         <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU105">
         <v>1.86</v>
@@ -21170,7 +21176,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21451,7 +21457,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21552,7 +21558,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21743,7 +21749,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21830,7 +21836,7 @@
         <v>1.45</v>
       </c>
       <c r="AS109">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT109">
         <v>1.54</v>
@@ -22021,7 +22027,7 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT110">
         <v>1.75</v>
@@ -22125,7 +22131,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22594,7 +22600,7 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT113">
         <v>1.77</v>
@@ -22698,7 +22704,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22889,7 +22895,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23080,7 +23086,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23271,7 +23277,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23743,7 +23749,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23844,7 +23850,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23934,7 +23940,7 @@
         <v>0.67</v>
       </c>
       <c r="AT120">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU120">
         <v>1.01</v>
@@ -24035,7 +24041,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24226,7 +24232,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24507,7 +24513,7 @@
         <v>1.38</v>
       </c>
       <c r="AT123">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU123">
         <v>1.42</v>
@@ -24799,7 +24805,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24889,7 +24895,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU125">
         <v>1.18</v>
@@ -24990,7 +24996,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25181,7 +25187,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25310,19 +25316,19 @@
         <v>6</v>
       </c>
       <c r="BG127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH127">
         <v>4</v>
       </c>
       <c r="BI127">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ127">
         <v>10</v>
       </c>
       <c r="BK127">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:63">
@@ -25372,7 +25378,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q128">
         <v>8</v>
@@ -25498,22 +25504,404 @@
         <v>2.7</v>
       </c>
       <c r="BF128">
+        <v>10</v>
+      </c>
+      <c r="BG128">
         <v>5</v>
       </c>
-      <c r="BG128">
-        <v>2</v>
-      </c>
       <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>9</v>
+      </c>
+      <c r="BJ128">
+        <v>13</v>
+      </c>
+      <c r="BK128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5019395</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45144.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>66</v>
+      </c>
+      <c r="H129" t="s">
+        <v>67</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>121</v>
+      </c>
+      <c r="P129" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>2.85</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>3.75</v>
+      </c>
+      <c r="W129">
+        <v>1.49</v>
+      </c>
+      <c r="X129">
+        <v>2.45</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.3</v>
+      </c>
+      <c r="AA129">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB129">
+        <v>1.04</v>
+      </c>
+      <c r="AC129">
+        <v>2.4</v>
+      </c>
+      <c r="AD129">
+        <v>3</v>
+      </c>
+      <c r="AE129">
+        <v>2.9</v>
+      </c>
+      <c r="AF129">
+        <v>1.1</v>
+      </c>
+      <c r="AG129">
+        <v>6.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.42</v>
+      </c>
+      <c r="AI129">
+        <v>2.7</v>
+      </c>
+      <c r="AJ129">
+        <v>2.35</v>
+      </c>
+      <c r="AK129">
+        <v>1.53</v>
+      </c>
+      <c r="AL129">
+        <v>2</v>
+      </c>
+      <c r="AM129">
+        <v>1.75</v>
+      </c>
+      <c r="AN129">
+        <v>1.25</v>
+      </c>
+      <c r="AO129">
+        <v>1.28</v>
+      </c>
+      <c r="AP129">
+        <v>1.66</v>
+      </c>
+      <c r="AQ129">
+        <v>1.83</v>
+      </c>
+      <c r="AR129">
+        <v>1.42</v>
+      </c>
+      <c r="AS129">
+        <v>1.77</v>
+      </c>
+      <c r="AT129">
+        <v>1.38</v>
+      </c>
+      <c r="AU129">
+        <v>1.57</v>
+      </c>
+      <c r="AV129">
+        <v>1.24</v>
+      </c>
+      <c r="AW129">
+        <v>2.81</v>
+      </c>
+      <c r="AX129">
+        <v>1.64</v>
+      </c>
+      <c r="AY129">
+        <v>7.5</v>
+      </c>
+      <c r="AZ129">
+        <v>2.78</v>
+      </c>
+      <c r="BA129">
+        <v>1.51</v>
+      </c>
+      <c r="BB129">
+        <v>1.91</v>
+      </c>
+      <c r="BC129">
+        <v>2.52</v>
+      </c>
+      <c r="BD129">
+        <v>3.42</v>
+      </c>
+      <c r="BE129">
+        <v>5.1</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
         <v>4</v>
       </c>
-      <c r="BI128">
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>8</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5019397</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45144.58333333334</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>162</v>
+      </c>
+      <c r="P130" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q130">
+        <v>7</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
         <v>10</v>
       </c>
-      <c r="BJ128">
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>2.3</v>
+      </c>
+      <c r="V130">
+        <v>7</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.33</v>
+      </c>
+      <c r="AD130">
+        <v>4.75</v>
+      </c>
+      <c r="AE130">
+        <v>7.5</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
         <v>9</v>
       </c>
-      <c r="BK128">
+      <c r="AH130">
+        <v>1.28</v>
+      </c>
+      <c r="AI130">
+        <v>3.5</v>
+      </c>
+      <c r="AJ130">
+        <v>1.76</v>
+      </c>
+      <c r="AK130">
+        <v>1.97</v>
+      </c>
+      <c r="AL130">
+        <v>2.05</v>
+      </c>
+      <c r="AM130">
+        <v>1.7</v>
+      </c>
+      <c r="AN130">
+        <v>1.06</v>
+      </c>
+      <c r="AO130">
+        <v>1.16</v>
+      </c>
+      <c r="AP130">
+        <v>2.7</v>
+      </c>
+      <c r="AQ130">
+        <v>2</v>
+      </c>
+      <c r="AR130">
+        <v>0.5</v>
+      </c>
+      <c r="AS130">
+        <v>2.08</v>
+      </c>
+      <c r="AT130">
+        <v>0.46</v>
+      </c>
+      <c r="AU130">
+        <v>1.98</v>
+      </c>
+      <c r="AV130">
+        <v>1.03</v>
+      </c>
+      <c r="AW130">
+        <v>3.01</v>
+      </c>
+      <c r="AX130">
+        <v>1.18</v>
+      </c>
+      <c r="AY130">
         <v>12</v>
+      </c>
+      <c r="AZ130">
+        <v>6.11</v>
+      </c>
+      <c r="BA130">
+        <v>1.17</v>
+      </c>
+      <c r="BB130">
+        <v>1.32</v>
+      </c>
+      <c r="BC130">
+        <v>1.58</v>
+      </c>
+      <c r="BD130">
+        <v>1.85</v>
+      </c>
+      <c r="BE130">
+        <v>2.52</v>
+      </c>
+      <c r="BF130">
+        <v>6</v>
+      </c>
+      <c r="BG130">
+        <v>6</v>
+      </c>
+      <c r="BH130">
+        <v>9</v>
+      </c>
+      <c r="BI130">
+        <v>5</v>
+      </c>
+      <c r="BJ130">
+        <v>15</v>
+      </c>
+      <c r="BK130">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['29', '50']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
   <si>
     <t>['19', '53']</t>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1315,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1399,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1590,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT3">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>1.23</v>
@@ -1885,7 +1888,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT5">
         <v>1.75</v>
@@ -2166,7 +2169,7 @@
         <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2649,7 +2652,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2739,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT10">
         <v>1.38</v>
@@ -3031,7 +3034,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3121,7 +3124,7 @@
         <v>0.67</v>
       </c>
       <c r="AT11">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3309,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU12">
         <v>1.21</v>
@@ -3500,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT13">
         <v>1.54</v>
@@ -3691,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT14">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU14">
         <v>1.3</v>
@@ -3885,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU15">
         <v>1.95</v>
@@ -3986,7 +3989,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4455,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT18">
         <v>1.38</v>
@@ -4559,7 +4562,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4750,7 +4753,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4941,7 +4944,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5132,7 +5135,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5323,7 +5326,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5410,10 +5413,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT23">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU23">
         <v>1.26</v>
@@ -5601,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU24">
         <v>1.09</v>
@@ -5896,7 +5899,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6087,7 +6090,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6278,7 +6281,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6365,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT28">
         <v>1.38</v>
@@ -6469,7 +6472,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6660,7 +6663,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6750,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU30">
         <v>1.75</v>
@@ -6851,7 +6854,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -6941,7 +6944,7 @@
         <v>1.69</v>
       </c>
       <c r="AT31">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU31">
         <v>1.78</v>
@@ -7042,7 +7045,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7129,7 +7132,7 @@
         <v>2.33</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
         <v>1.75</v>
@@ -7320,10 +7323,10 @@
         <v>0.33</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT33">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU33">
         <v>1.2</v>
@@ -7424,7 +7427,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7511,7 +7514,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT34">
         <v>1.23</v>
@@ -7615,7 +7618,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7702,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU35">
         <v>1.63</v>
@@ -7896,7 +7899,7 @@
         <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU36">
         <v>1.81</v>
@@ -7997,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8087,7 +8090,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU37">
         <v>1.87</v>
@@ -8379,7 +8382,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8466,10 +8469,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT39">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>1.45</v>
@@ -8657,7 +8660,7 @@
         <v>0.67</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT40">
         <v>0.46</v>
@@ -9039,7 +9042,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
         <v>1.31</v>
@@ -9143,7 +9146,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9233,7 +9236,7 @@
         <v>1.69</v>
       </c>
       <c r="AT43">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU43">
         <v>2.06</v>
@@ -9334,7 +9337,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9525,7 +9528,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9612,10 +9615,10 @@
         <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9806,7 +9809,7 @@
         <v>2.08</v>
       </c>
       <c r="AT46">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU46">
         <v>2.25</v>
@@ -9907,7 +9910,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10289,7 +10292,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10480,7 +10483,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10671,7 +10674,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10758,7 +10761,7 @@
         <v>2.5</v>
       </c>
       <c r="AS51">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT51">
         <v>1.75</v>
@@ -10862,7 +10865,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10949,7 +10952,7 @@
         <v>2.2</v>
       </c>
       <c r="AS52">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT52">
         <v>1.75</v>
@@ -11053,7 +11056,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11143,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11331,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT54">
         <v>1.31</v>
@@ -11435,7 +11438,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11522,10 +11525,10 @@
         <v>1.8</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT55">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU55">
         <v>1.6</v>
@@ -11626,7 +11629,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11716,7 +11719,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU56">
         <v>1.62</v>
@@ -11817,7 +11820,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11907,7 +11910,7 @@
         <v>0.67</v>
       </c>
       <c r="AT57">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.04</v>
@@ -12008,7 +12011,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12095,7 +12098,7 @@
         <v>0.4</v>
       </c>
       <c r="AS58">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
         <v>0.46</v>
@@ -12390,7 +12393,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12477,7 +12480,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>1.23</v>
@@ -12671,7 +12674,7 @@
         <v>2.08</v>
       </c>
       <c r="AT61">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU61">
         <v>2.24</v>
@@ -12859,10 +12862,10 @@
         <v>1.17</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT62">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13154,7 +13157,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13345,7 +13348,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13536,7 +13539,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13626,7 +13629,7 @@
         <v>1.69</v>
       </c>
       <c r="AT66">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU66">
         <v>1.96</v>
@@ -13817,7 +13820,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU67">
         <v>2.06</v>
@@ -14005,10 +14008,10 @@
         <v>0.17</v>
       </c>
       <c r="AS68">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU68">
         <v>1.11</v>
@@ -14109,7 +14112,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14300,7 +14303,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14387,7 +14390,7 @@
         <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT70">
         <v>1.54</v>
@@ -14682,7 +14685,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14873,7 +14876,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14960,7 +14963,7 @@
         <v>0.29</v>
       </c>
       <c r="AS73">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT73">
         <v>0.46</v>
@@ -15151,7 +15154,7 @@
         <v>1.29</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT74">
         <v>1.23</v>
@@ -15255,7 +15258,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15345,7 +15348,7 @@
         <v>0.67</v>
       </c>
       <c r="AT75">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU75">
         <v>1.06</v>
@@ -15446,7 +15449,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15828,7 +15831,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16106,7 +16109,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
         <v>1.54</v>
@@ -16210,7 +16213,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16297,10 +16300,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT80">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.57</v>
@@ -16401,7 +16404,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16491,7 +16494,7 @@
         <v>1.69</v>
       </c>
       <c r="AT81">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU81">
         <v>1.8</v>
@@ -16679,10 +16682,10 @@
         <v>1.43</v>
       </c>
       <c r="AS82">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU82">
         <v>1.29</v>
@@ -16783,7 +16786,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -17252,10 +17255,10 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT85">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU85">
         <v>1.3</v>
@@ -17356,7 +17359,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17446,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU86">
         <v>1.8</v>
@@ -17547,7 +17550,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17634,7 +17637,7 @@
         <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT87">
         <v>1.31</v>
@@ -18120,7 +18123,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18783,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU93">
         <v>1.6</v>
@@ -18884,7 +18887,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18971,10 +18974,10 @@
         <v>1.89</v>
       </c>
       <c r="AS94">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19075,7 +19078,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19162,10 +19165,10 @@
         <v>0.11</v>
       </c>
       <c r="AS95">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT95">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU95">
         <v>1.57</v>
@@ -19266,7 +19269,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19356,7 +19359,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU96">
         <v>1.48</v>
@@ -19457,7 +19460,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19544,7 +19547,7 @@
         <v>2.22</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT97">
         <v>1.75</v>
@@ -19648,7 +19651,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19735,7 +19738,7 @@
         <v>1.33</v>
       </c>
       <c r="AS98">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
         <v>1.23</v>
@@ -19839,7 +19842,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20117,10 +20120,10 @@
         <v>1.11</v>
       </c>
       <c r="AS100">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU100">
         <v>1.17</v>
@@ -20221,7 +20224,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20308,7 +20311,7 @@
         <v>1.1</v>
       </c>
       <c r="AS101">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT101">
         <v>1.31</v>
@@ -20502,7 +20505,7 @@
         <v>1.69</v>
       </c>
       <c r="AT102">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20693,7 +20696,7 @@
         <v>2.08</v>
       </c>
       <c r="AT103">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU103">
         <v>2.07</v>
@@ -20794,7 +20797,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20884,7 +20887,7 @@
         <v>2</v>
       </c>
       <c r="AT104">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21176,7 +21179,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21454,7 +21457,7 @@
         <v>1.22</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT107">
         <v>1.38</v>
@@ -21558,7 +21561,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21648,7 +21651,7 @@
         <v>0.67</v>
       </c>
       <c r="AT108">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU108">
         <v>1.04</v>
@@ -21749,7 +21752,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21836,7 +21839,7 @@
         <v>1.45</v>
       </c>
       <c r="AS109">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT109">
         <v>1.54</v>
@@ -22131,7 +22134,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22221,7 +22224,7 @@
         <v>1.38</v>
       </c>
       <c r="AT111">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -22409,10 +22412,10 @@
         <v>0.09</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT112">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU112">
         <v>1.51</v>
@@ -22600,10 +22603,10 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT113">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU113">
         <v>1.62</v>
@@ -22704,7 +22707,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22791,7 +22794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT114">
         <v>1.23</v>
@@ -22895,7 +22898,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22982,7 +22985,7 @@
         <v>1.82</v>
       </c>
       <c r="AS115">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT115">
         <v>1.75</v>
@@ -23086,7 +23089,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23277,7 +23280,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23367,7 +23370,7 @@
         <v>1.69</v>
       </c>
       <c r="AT117">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -23558,7 +23561,7 @@
         <v>1</v>
       </c>
       <c r="AT118">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU118">
         <v>1.76</v>
@@ -23746,7 +23749,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT119">
         <v>0.46</v>
@@ -23850,7 +23853,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24041,7 +24044,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24128,10 +24131,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT121">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU121">
         <v>1.17</v>
@@ -24232,7 +24235,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24704,7 +24707,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AU124">
         <v>1.64</v>
@@ -24805,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24892,7 +24895,7 @@
         <v>1.27</v>
       </c>
       <c r="AS125">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT125">
         <v>1.38</v>
@@ -24996,7 +24999,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25086,7 +25089,7 @@
         <v>1</v>
       </c>
       <c r="AT126">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU126">
         <v>1.69</v>
@@ -25187,7 +25190,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25378,7 +25381,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>8</v>
@@ -25656,7 +25659,7 @@
         <v>1.42</v>
       </c>
       <c r="AS129">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT129">
         <v>1.38</v>
@@ -25760,7 +25763,7 @@
         <v>162</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25902,6 +25905,770 @@
       </c>
       <c r="BK130">
         <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5019402</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45149.65625</v>
+      </c>
+      <c r="F131">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>67</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>79</v>
+      </c>
+      <c r="P131" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>4.1</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
+        <v>2.65</v>
+      </c>
+      <c r="W131">
+        <v>1.46</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>3.1</v>
+      </c>
+      <c r="Z131">
+        <v>1.31</v>
+      </c>
+      <c r="AA131">
+        <v>8.75</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>4.5</v>
+      </c>
+      <c r="AD131">
+        <v>3.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.78</v>
+      </c>
+      <c r="AF131">
+        <v>1.07</v>
+      </c>
+      <c r="AG131">
+        <v>7.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.39</v>
+      </c>
+      <c r="AI131">
+        <v>2.75</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.75</v>
+      </c>
+      <c r="AL131">
+        <v>1.98</v>
+      </c>
+      <c r="AM131">
+        <v>1.73</v>
+      </c>
+      <c r="AN131">
+        <v>1.75</v>
+      </c>
+      <c r="AO131">
+        <v>1.31</v>
+      </c>
+      <c r="AP131">
+        <v>1.27</v>
+      </c>
+      <c r="AQ131">
+        <v>1.62</v>
+      </c>
+      <c r="AR131">
+        <v>1.77</v>
+      </c>
+      <c r="AS131">
+        <v>1.57</v>
+      </c>
+      <c r="AT131">
+        <v>1.71</v>
+      </c>
+      <c r="AU131">
+        <v>1.19</v>
+      </c>
+      <c r="AV131">
+        <v>1.57</v>
+      </c>
+      <c r="AW131">
+        <v>2.76</v>
+      </c>
+      <c r="AX131">
+        <v>2.67</v>
+      </c>
+      <c r="AY131">
+        <v>8</v>
+      </c>
+      <c r="AZ131">
+        <v>1.64</v>
+      </c>
+      <c r="BA131">
+        <v>1.47</v>
+      </c>
+      <c r="BB131">
+        <v>1.83</v>
+      </c>
+      <c r="BC131">
+        <v>2.28</v>
+      </c>
+      <c r="BD131">
+        <v>2.9</v>
+      </c>
+      <c r="BE131">
+        <v>3.3</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>5</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>9</v>
+      </c>
+      <c r="BK131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5019401</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45149.65625</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>66</v>
+      </c>
+      <c r="H132" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>163</v>
+      </c>
+      <c r="P132" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>3</v>
+      </c>
+      <c r="T132">
+        <v>2.6</v>
+      </c>
+      <c r="U132">
+        <v>2.13</v>
+      </c>
+      <c r="V132">
+        <v>4.2</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>2.83</v>
+      </c>
+      <c r="Y132">
+        <v>2.88</v>
+      </c>
+      <c r="Z132">
+        <v>1.39</v>
+      </c>
+      <c r="AA132">
+        <v>7.4</v>
+      </c>
+      <c r="AB132">
+        <v>1.07</v>
+      </c>
+      <c r="AC132">
+        <v>2.1</v>
+      </c>
+      <c r="AD132">
+        <v>3.5</v>
+      </c>
+      <c r="AE132">
+        <v>3.3</v>
+      </c>
+      <c r="AF132">
+        <v>1.02</v>
+      </c>
+      <c r="AG132">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH132">
+        <v>1.29</v>
+      </c>
+      <c r="AI132">
+        <v>3.2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>1.95</v>
+      </c>
+      <c r="AL132">
+        <v>1.8</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.29</v>
+      </c>
+      <c r="AO132">
+        <v>1.3</v>
+      </c>
+      <c r="AP132">
+        <v>1.78</v>
+      </c>
+      <c r="AQ132">
+        <v>1.77</v>
+      </c>
+      <c r="AR132">
+        <v>0.92</v>
+      </c>
+      <c r="AS132">
+        <v>1.86</v>
+      </c>
+      <c r="AT132">
+        <v>0.86</v>
+      </c>
+      <c r="AU132">
+        <v>1.55</v>
+      </c>
+      <c r="AV132">
+        <v>1.38</v>
+      </c>
+      <c r="AW132">
+        <v>2.93</v>
+      </c>
+      <c r="AX132">
+        <v>1.75</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>2.44</v>
+      </c>
+      <c r="BA132">
+        <v>1.32</v>
+      </c>
+      <c r="BB132">
+        <v>1.61</v>
+      </c>
+      <c r="BC132">
+        <v>1.93</v>
+      </c>
+      <c r="BD132">
+        <v>2.69</v>
+      </c>
+      <c r="BE132">
+        <v>3.65</v>
+      </c>
+      <c r="BF132">
+        <v>5</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>3</v>
+      </c>
+      <c r="BI132">
+        <v>3</v>
+      </c>
+      <c r="BJ132">
+        <v>8</v>
+      </c>
+      <c r="BK132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5019403</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45149.65625</v>
+      </c>
+      <c r="F133">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>77</v>
+      </c>
+      <c r="P133" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q133">
+        <v>5</v>
+      </c>
+      <c r="R133">
+        <v>9</v>
+      </c>
+      <c r="S133">
+        <v>14</v>
+      </c>
+      <c r="T133">
+        <v>2.63</v>
+      </c>
+      <c r="U133">
+        <v>2.2</v>
+      </c>
+      <c r="V133">
+        <v>4</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>3</v>
+      </c>
+      <c r="Y133">
+        <v>2.75</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>7</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>1.78</v>
+      </c>
+      <c r="AD133">
+        <v>3.6</v>
+      </c>
+      <c r="AE133">
+        <v>4.33</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>1.75</v>
+      </c>
+      <c r="AK133">
+        <v>2</v>
+      </c>
+      <c r="AL133">
+        <v>1.75</v>
+      </c>
+      <c r="AM133">
+        <v>2</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>2</v>
+      </c>
+      <c r="AR133">
+        <v>1.46</v>
+      </c>
+      <c r="AS133">
+        <v>1.93</v>
+      </c>
+      <c r="AT133">
+        <v>1.43</v>
+      </c>
+      <c r="AU133">
+        <v>1.58</v>
+      </c>
+      <c r="AV133">
+        <v>1.18</v>
+      </c>
+      <c r="AW133">
+        <v>2.76</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>4</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>7</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>11</v>
+      </c>
+      <c r="BK133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5019399</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45149.65625</v>
+      </c>
+      <c r="F134">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>88</v>
+      </c>
+      <c r="P134" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>10</v>
+      </c>
+      <c r="T134">
+        <v>1.89</v>
+      </c>
+      <c r="U134">
+        <v>2.41</v>
+      </c>
+      <c r="V134">
+        <v>7.06</v>
+      </c>
+      <c r="W134">
+        <v>1.32</v>
+      </c>
+      <c r="X134">
+        <v>3.1</v>
+      </c>
+      <c r="Y134">
+        <v>2.5</v>
+      </c>
+      <c r="Z134">
+        <v>1.46</v>
+      </c>
+      <c r="AA134">
+        <v>6.25</v>
+      </c>
+      <c r="AB134">
+        <v>1.1</v>
+      </c>
+      <c r="AC134">
+        <v>1.44</v>
+      </c>
+      <c r="AD134">
+        <v>4.5</v>
+      </c>
+      <c r="AE134">
+        <v>6.5</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>12</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>3.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.95</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.7</v>
+      </c>
+      <c r="AN134">
+        <v>1.08</v>
+      </c>
+      <c r="AO134">
+        <v>1.18</v>
+      </c>
+      <c r="AP134">
+        <v>2.97</v>
+      </c>
+      <c r="AQ134">
+        <v>1.31</v>
+      </c>
+      <c r="AR134">
+        <v>0.08</v>
+      </c>
+      <c r="AS134">
+        <v>1.29</v>
+      </c>
+      <c r="AT134">
+        <v>0.14</v>
+      </c>
+      <c r="AU134">
+        <v>1.14</v>
+      </c>
+      <c r="AV134">
+        <v>0.89</v>
+      </c>
+      <c r="AW134">
+        <v>2.03</v>
+      </c>
+      <c r="AX134">
+        <v>1.34</v>
+      </c>
+      <c r="AY134">
+        <v>9.5</v>
+      </c>
+      <c r="AZ134">
+        <v>4.07</v>
+      </c>
+      <c r="BA134">
+        <v>1.33</v>
+      </c>
+      <c r="BB134">
+        <v>1.62</v>
+      </c>
+      <c r="BC134">
+        <v>1.93</v>
+      </c>
+      <c r="BD134">
+        <v>2.48</v>
+      </c>
+      <c r="BE134">
+        <v>3.2</v>
+      </c>
+      <c r="BF134">
+        <v>7</v>
+      </c>
+      <c r="BG134">
+        <v>7</v>
+      </c>
+      <c r="BH134">
+        <v>8</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>15</v>
+      </c>
+      <c r="BK134">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['41', '85', '88']</t>
   </si>
   <si>
     <t>['19', '53']</t>
@@ -1071,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1318,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1787,7 +1790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT4">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1888,7 +1891,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2548,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT8">
         <v>0.46</v>
@@ -2652,7 +2655,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -3034,7 +3037,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3989,7 +3992,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4270,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU17">
         <v>1.79</v>
@@ -4562,7 +4565,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4753,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4944,7 +4947,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5135,7 +5138,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5225,7 +5228,7 @@
         <v>0.67</v>
       </c>
       <c r="AT22">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU22">
         <v>1.18</v>
@@ -5326,7 +5329,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5795,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT25">
         <v>1.31</v>
@@ -5899,7 +5902,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6090,7 +6093,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6281,7 +6284,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6472,7 +6475,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6663,7 +6666,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6854,7 +6857,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -6941,7 +6944,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
         <v>0.86</v>
@@ -7045,7 +7048,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7427,7 +7430,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7517,7 +7520,7 @@
         <v>1.29</v>
       </c>
       <c r="AT34">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU34">
         <v>1.45</v>
@@ -7618,7 +7621,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8000,7 +8003,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8278,10 +8281,10 @@
         <v>1.25</v>
       </c>
       <c r="AS38">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT38">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8382,7 +8385,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -9146,7 +9149,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9233,7 +9236,7 @@
         <v>2.25</v>
       </c>
       <c r="AS43">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT43">
         <v>1.43</v>
@@ -9337,7 +9340,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9528,7 +9531,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9910,7 +9913,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10292,7 +10295,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10483,7 +10486,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10573,7 +10576,7 @@
         <v>1.38</v>
       </c>
       <c r="AT50">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -10674,7 +10677,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10865,7 +10868,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11056,7 +11059,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11438,7 +11441,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11629,7 +11632,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11820,7 +11823,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -12011,7 +12014,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12289,7 +12292,7 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT59">
         <v>1.54</v>
@@ -12393,7 +12396,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12483,7 +12486,7 @@
         <v>1.86</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU60">
         <v>1.38</v>
@@ -13157,7 +13160,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13348,7 +13351,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13539,7 +13542,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13626,7 +13629,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT66">
         <v>1.71</v>
@@ -14112,7 +14115,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14303,7 +14306,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14685,7 +14688,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14876,7 +14879,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15157,7 +15160,7 @@
         <v>1.93</v>
       </c>
       <c r="AT74">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU74">
         <v>1.47</v>
@@ -15258,7 +15261,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15449,7 +15452,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15727,7 +15730,7 @@
         <v>1.57</v>
       </c>
       <c r="AS77">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
         <v>1.31</v>
@@ -15831,7 +15834,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16213,7 +16216,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16404,7 +16407,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16491,7 +16494,7 @@
         <v>0.14</v>
       </c>
       <c r="AS81">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT81">
         <v>0.14</v>
@@ -16786,7 +16789,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16876,7 +16879,7 @@
         <v>2.08</v>
       </c>
       <c r="AT83">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -17359,7 +17362,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17550,7 +17553,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18123,7 +18126,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18592,7 +18595,7 @@
         <v>1.25</v>
       </c>
       <c r="AS92">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT92">
         <v>1.38</v>
@@ -18887,7 +18890,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19078,7 +19081,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19269,7 +19272,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19460,7 +19463,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19651,7 +19654,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19741,7 +19744,7 @@
         <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -19842,7 +19845,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20224,7 +20227,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20502,7 +20505,7 @@
         <v>1.7</v>
       </c>
       <c r="AS102">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT102">
         <v>1.43</v>
@@ -20797,7 +20800,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21075,7 +21078,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS105">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT105">
         <v>0.46</v>
@@ -21179,7 +21182,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21561,7 +21564,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21752,7 +21755,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22134,7 +22137,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22707,7 +22710,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22797,7 +22800,7 @@
         <v>1.29</v>
       </c>
       <c r="AT114">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU114">
         <v>1.23</v>
@@ -22898,7 +22901,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23089,7 +23092,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23280,7 +23283,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23367,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT117">
         <v>0.86</v>
@@ -23853,7 +23856,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24044,7 +24047,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24235,7 +24238,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24325,7 +24328,7 @@
         <v>0.67</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>0.95</v>
@@ -24808,7 +24811,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24999,7 +25002,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25190,7 +25193,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25381,7 +25384,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>8</v>
@@ -25471,7 +25474,7 @@
         <v>2</v>
       </c>
       <c r="AT128">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU128">
         <v>1.67</v>
@@ -25763,7 +25766,7 @@
         <v>162</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -26527,7 +26530,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26669,6 +26672,197 @@
       </c>
       <c r="BK134">
         <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5019400</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45151.60416666666</v>
+      </c>
+      <c r="F135">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>164</v>
+      </c>
+      <c r="P135" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q135">
+        <v>7</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>2.09</v>
+      </c>
+      <c r="U135">
+        <v>2.27</v>
+      </c>
+      <c r="V135">
+        <v>6.01</v>
+      </c>
+      <c r="W135">
+        <v>1.37</v>
+      </c>
+      <c r="X135">
+        <v>2.96</v>
+      </c>
+      <c r="Y135">
+        <v>2.75</v>
+      </c>
+      <c r="Z135">
+        <v>1.42</v>
+      </c>
+      <c r="AA135">
+        <v>6.8</v>
+      </c>
+      <c r="AB135">
+        <v>1.09</v>
+      </c>
+      <c r="AC135">
+        <v>1.57</v>
+      </c>
+      <c r="AD135">
+        <v>3.8</v>
+      </c>
+      <c r="AE135">
+        <v>4.55</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>9</v>
+      </c>
+      <c r="AH135">
+        <v>1.25</v>
+      </c>
+      <c r="AI135">
+        <v>3.6</v>
+      </c>
+      <c r="AJ135">
+        <v>1.88</v>
+      </c>
+      <c r="AK135">
+        <v>1.96</v>
+      </c>
+      <c r="AL135">
+        <v>1.94</v>
+      </c>
+      <c r="AM135">
+        <v>1.82</v>
+      </c>
+      <c r="AN135">
+        <v>1.14</v>
+      </c>
+      <c r="AO135">
+        <v>1.22</v>
+      </c>
+      <c r="AP135">
+        <v>2.5</v>
+      </c>
+      <c r="AQ135">
+        <v>1.69</v>
+      </c>
+      <c r="AR135">
+        <v>1.23</v>
+      </c>
+      <c r="AS135">
+        <v>1.79</v>
+      </c>
+      <c r="AT135">
+        <v>1.14</v>
+      </c>
+      <c r="AU135">
+        <v>1.8</v>
+      </c>
+      <c r="AV135">
+        <v>1.23</v>
+      </c>
+      <c r="AW135">
+        <v>3.03</v>
+      </c>
+      <c r="AX135">
+        <v>1.29</v>
+      </c>
+      <c r="AY135">
+        <v>11.2</v>
+      </c>
+      <c r="AZ135">
+        <v>4.54</v>
+      </c>
+      <c r="BA135">
+        <v>1.18</v>
+      </c>
+      <c r="BB135">
+        <v>1.36</v>
+      </c>
+      <c r="BC135">
+        <v>1.65</v>
+      </c>
+      <c r="BD135">
+        <v>2.09</v>
+      </c>
+      <c r="BE135">
+        <v>2.72</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>5</v>
+      </c>
+      <c r="BI135">
+        <v>4</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,15 @@
     <t>['41', '85', '88']</t>
   </si>
   <si>
+    <t>['61', '85', '90+5']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['13', '53']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -524,9 +533,6 @@
   </si>
   <si>
     <t>['18', '54']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['15', '41', '65', '75']</t>
@@ -713,6 +719,12 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['22', '42']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1330,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1891,7 +1903,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1981,7 +1993,7 @@
         <v>1.93</v>
       </c>
       <c r="AT5">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2169,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT6">
         <v>1.71</v>
@@ -2360,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT7">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2554,7 +2566,7 @@
         <v>1.79</v>
       </c>
       <c r="AT8">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2655,7 +2667,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2742,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
         <v>1.71</v>
@@ -2936,7 +2948,7 @@
         <v>1.93</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>1.15</v>
@@ -3037,7 +3049,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3124,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT11">
         <v>0.86</v>
@@ -3509,7 +3521,7 @@
         <v>1.86</v>
       </c>
       <c r="AT13">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU13">
         <v>1.66</v>
@@ -3888,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT15">
         <v>0.86</v>
@@ -3992,7 +4004,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4079,10 +4091,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT16">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4270,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT17">
         <v>1.14</v>
@@ -4464,7 +4476,7 @@
         <v>1.86</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>1.73</v>
@@ -4565,7 +4577,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4652,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT19">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU19">
         <v>2.15</v>
@@ -4756,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4843,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT20">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -4947,7 +4959,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5034,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT21">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU21">
         <v>1.43</v>
@@ -5138,7 +5150,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5225,7 +5237,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT22">
         <v>1.14</v>
@@ -5329,7 +5341,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5801,7 +5813,7 @@
         <v>1.79</v>
       </c>
       <c r="AT25">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU25">
         <v>1.42</v>
@@ -5902,7 +5914,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -5989,10 +6001,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU26">
         <v>1.71</v>
@@ -6093,7 +6105,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6180,10 +6192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT27">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU27">
         <v>2.19</v>
@@ -6284,7 +6296,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6374,7 +6386,7 @@
         <v>1.29</v>
       </c>
       <c r="AT28">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.4</v>
@@ -6475,7 +6487,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6562,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT29">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU29">
         <v>2.27</v>
@@ -6666,7 +6678,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6753,7 +6765,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -6857,7 +6869,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -7048,7 +7060,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7138,7 +7150,7 @@
         <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU32">
         <v>0.99</v>
@@ -7430,7 +7442,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7621,7 +7633,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7899,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT36">
         <v>1.43</v>
@@ -8003,7 +8015,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8090,7 +8102,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT37">
         <v>1.71</v>
@@ -8385,7 +8397,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8666,7 +8678,7 @@
         <v>1.93</v>
       </c>
       <c r="AT40">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8854,10 +8866,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT41">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.1</v>
@@ -9048,7 +9060,7 @@
         <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU42">
         <v>1.4</v>
@@ -9149,7 +9161,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9340,7 +9352,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9427,10 +9439,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT44">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU44">
         <v>2.09</v>
@@ -9531,7 +9543,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9809,7 +9821,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT46">
         <v>0.14</v>
@@ -9913,7 +9925,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10000,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10191,10 +10203,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT48">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU48">
         <v>1.05</v>
@@ -10295,7 +10307,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10382,10 +10394,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>2.31</v>
@@ -10486,7 +10498,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10573,7 +10585,7 @@
         <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
         <v>1.14</v>
@@ -10677,7 +10689,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10767,7 +10779,7 @@
         <v>1.86</v>
       </c>
       <c r="AT51">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU51">
         <v>1.41</v>
@@ -10868,7 +10880,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10958,7 +10970,7 @@
         <v>1.29</v>
       </c>
       <c r="AT52">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11059,7 +11071,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11146,7 +11158,7 @@
         <v>2.4</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
         <v>1.43</v>
@@ -11340,7 +11352,7 @@
         <v>1.57</v>
       </c>
       <c r="AT54">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU54">
         <v>1.12</v>
@@ -11441,7 +11453,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11632,7 +11644,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11719,7 +11731,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT56">
         <v>0.14</v>
@@ -11823,7 +11835,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11910,7 +11922,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT57">
         <v>1.43</v>
@@ -12014,7 +12026,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12104,7 +12116,7 @@
         <v>1.57</v>
       </c>
       <c r="AT58">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU58">
         <v>1.06</v>
@@ -12295,7 +12307,7 @@
         <v>1.79</v>
       </c>
       <c r="AT59">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU59">
         <v>2.01</v>
@@ -12396,7 +12408,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12674,7 +12686,7 @@
         <v>1.4</v>
       </c>
       <c r="AS61">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT61">
         <v>0.86</v>
@@ -13056,10 +13068,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT63">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU63">
         <v>1.82</v>
@@ -13160,7 +13172,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13247,10 +13259,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.85</v>
@@ -13351,7 +13363,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13438,10 +13450,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT65">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU65">
         <v>1.02</v>
@@ -13542,7 +13554,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13820,7 +13832,7 @@
         <v>2.29</v>
       </c>
       <c r="AS67">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT67">
         <v>1.43</v>
@@ -14115,7 +14127,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14202,10 +14214,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT69">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU69">
         <v>1.84</v>
@@ -14306,7 +14318,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14396,7 +14408,7 @@
         <v>1.29</v>
       </c>
       <c r="AT70">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU70">
         <v>1.33</v>
@@ -14584,10 +14596,10 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU71">
         <v>1.67</v>
@@ -14688,7 +14700,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14775,10 +14787,10 @@
         <v>2.43</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -14879,7 +14891,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14969,7 +14981,7 @@
         <v>1.86</v>
       </c>
       <c r="AT73">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU73">
         <v>1.44</v>
@@ -15261,7 +15273,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15348,7 +15360,7 @@
         <v>2.14</v>
       </c>
       <c r="AS75">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT75">
         <v>1.71</v>
@@ -15452,7 +15464,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15539,10 +15551,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT76">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.67</v>
@@ -15733,7 +15745,7 @@
         <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU77">
         <v>1.85</v>
@@ -15834,7 +15846,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -15921,10 +15933,10 @@
         <v>1.43</v>
       </c>
       <c r="AS78">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT78">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU78">
         <v>1.98</v>
@@ -16115,7 +16127,7 @@
         <v>1.57</v>
       </c>
       <c r="AT79">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU79">
         <v>1.13</v>
@@ -16216,7 +16228,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16407,7 +16419,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16789,7 +16801,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16876,7 +16888,7 @@
         <v>1.13</v>
       </c>
       <c r="AS83">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT83">
         <v>1.14</v>
@@ -17067,10 +17079,10 @@
         <v>1.29</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT84">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.66</v>
@@ -17362,7 +17374,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17449,7 +17461,7 @@
         <v>0.13</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT86">
         <v>0.14</v>
@@ -17553,7 +17565,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17643,7 +17655,7 @@
         <v>1.93</v>
       </c>
       <c r="AT87">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU87">
         <v>1.52</v>
@@ -17831,10 +17843,10 @@
         <v>2.5</v>
       </c>
       <c r="AS88">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU88">
         <v>1.55</v>
@@ -18022,10 +18034,10 @@
         <v>1.22</v>
       </c>
       <c r="AS89">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU89">
         <v>2.12</v>
@@ -18126,7 +18138,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18213,10 +18225,10 @@
         <v>1.44</v>
       </c>
       <c r="AS90">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT90">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU90">
         <v>1.03</v>
@@ -18404,10 +18416,10 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU91">
         <v>1.87</v>
@@ -18598,7 +18610,7 @@
         <v>1.79</v>
       </c>
       <c r="AT92">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU92">
         <v>1.92</v>
@@ -18786,7 +18798,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT93">
         <v>0.86</v>
@@ -18890,7 +18902,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19081,7 +19093,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19272,7 +19284,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19359,7 +19371,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT96">
         <v>1.71</v>
@@ -19463,7 +19475,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19553,7 +19565,7 @@
         <v>1.93</v>
       </c>
       <c r="AT97">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU97">
         <v>1.51</v>
@@ -19654,7 +19666,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19845,7 +19857,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19932,10 +19944,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT99">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU99">
         <v>1.8</v>
@@ -20227,7 +20239,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20317,7 +20329,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU101">
         <v>1.29</v>
@@ -20696,7 +20708,7 @@
         <v>0.1</v>
       </c>
       <c r="AS103">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT103">
         <v>0.14</v>
@@ -20800,7 +20812,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20887,7 +20899,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT104">
         <v>1.71</v>
@@ -21081,7 +21093,7 @@
         <v>1.79</v>
       </c>
       <c r="AT105">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU105">
         <v>1.86</v>
@@ -21182,7 +21194,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21269,10 +21281,10 @@
         <v>1.27</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU106">
         <v>1.8</v>
@@ -21463,7 +21475,7 @@
         <v>1.93</v>
       </c>
       <c r="AT107">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21564,7 +21576,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21651,7 +21663,7 @@
         <v>1.1</v>
       </c>
       <c r="AS108">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT108">
         <v>0.86</v>
@@ -21755,7 +21767,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21845,7 +21857,7 @@
         <v>1.86</v>
       </c>
       <c r="AT109">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22033,10 +22045,10 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT110">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU110">
         <v>2.07</v>
@@ -22137,7 +22149,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22224,7 +22236,7 @@
         <v>1.64</v>
       </c>
       <c r="AS111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT111">
         <v>1.43</v>
@@ -22710,7 +22722,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22901,7 +22913,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22991,7 +23003,7 @@
         <v>1.57</v>
       </c>
       <c r="AT115">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU115">
         <v>1.18</v>
@@ -23092,7 +23104,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23179,10 +23191,10 @@
         <v>1.42</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT116">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU116">
         <v>1.64</v>
@@ -23283,7 +23295,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23561,7 +23573,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT118">
         <v>1.71</v>
@@ -23755,7 +23767,7 @@
         <v>1.93</v>
       </c>
       <c r="AT119">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23856,7 +23868,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23943,10 +23955,10 @@
         <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT120">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.01</v>
@@ -24047,7 +24059,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24238,7 +24250,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24325,7 +24337,7 @@
         <v>1.18</v>
       </c>
       <c r="AS122">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -24516,10 +24528,10 @@
         <v>0.55</v>
       </c>
       <c r="AS123">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT123">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU123">
         <v>1.42</v>
@@ -24707,7 +24719,7 @@
         <v>0.08</v>
       </c>
       <c r="AS124">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT124">
         <v>0.14</v>
@@ -24811,7 +24823,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24901,7 +24913,7 @@
         <v>1.29</v>
       </c>
       <c r="AT125">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.18</v>
@@ -25002,7 +25014,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25089,7 +25101,7 @@
         <v>0.92</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT126">
         <v>0.86</v>
@@ -25193,7 +25205,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25280,10 +25292,10 @@
         <v>1.42</v>
       </c>
       <c r="AS127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU127">
         <v>1.49</v>
@@ -25384,7 +25396,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>8</v>
@@ -25471,7 +25483,7 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT128">
         <v>1.14</v>
@@ -25665,7 +25677,7 @@
         <v>1.86</v>
       </c>
       <c r="AT129">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25766,7 +25778,7 @@
         <v>162</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25853,10 +25865,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT130">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU130">
         <v>1.98</v>
@@ -26530,7 +26542,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26863,6 +26875,961 @@
       </c>
       <c r="BK135">
         <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5019405</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45163.65625</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136" t="s">
+        <v>65</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>165</v>
+      </c>
+      <c r="P136" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q136">
+        <v>9</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>2.2</v>
+      </c>
+      <c r="V136">
+        <v>4.5</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>2.75</v>
+      </c>
+      <c r="Y136">
+        <v>3</v>
+      </c>
+      <c r="Z136">
+        <v>1.36</v>
+      </c>
+      <c r="AA136">
+        <v>8</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>1.77</v>
+      </c>
+      <c r="AD136">
+        <v>3.45</v>
+      </c>
+      <c r="AE136">
+        <v>4.15</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>8</v>
+      </c>
+      <c r="AH136">
+        <v>1.33</v>
+      </c>
+      <c r="AI136">
+        <v>3.2</v>
+      </c>
+      <c r="AJ136">
+        <v>1.93</v>
+      </c>
+      <c r="AK136">
+        <v>1.72</v>
+      </c>
+      <c r="AL136">
+        <v>1.8</v>
+      </c>
+      <c r="AM136">
+        <v>1.95</v>
+      </c>
+      <c r="AN136">
+        <v>1.18</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.87</v>
+      </c>
+      <c r="AQ136">
+        <v>1</v>
+      </c>
+      <c r="AR136">
+        <v>0.46</v>
+      </c>
+      <c r="AS136">
+        <v>1.14</v>
+      </c>
+      <c r="AT136">
+        <v>0.43</v>
+      </c>
+      <c r="AU136">
+        <v>1.68</v>
+      </c>
+      <c r="AV136">
+        <v>1.05</v>
+      </c>
+      <c r="AW136">
+        <v>2.73</v>
+      </c>
+      <c r="AX136">
+        <v>1.3</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>4.42</v>
+      </c>
+      <c r="BA136">
+        <v>1.21</v>
+      </c>
+      <c r="BB136">
+        <v>1.43</v>
+      </c>
+      <c r="BC136">
+        <v>1.67</v>
+      </c>
+      <c r="BD136">
+        <v>2.1</v>
+      </c>
+      <c r="BE136">
+        <v>2.63</v>
+      </c>
+      <c r="BF136">
+        <v>6</v>
+      </c>
+      <c r="BG136">
+        <v>6</v>
+      </c>
+      <c r="BH136">
+        <v>4</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5019406</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45163.65625</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>77</v>
+      </c>
+      <c r="P137" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>13</v>
+      </c>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="V137">
+        <v>1.5</v>
+      </c>
+      <c r="W137">
+        <v>1.25</v>
+      </c>
+      <c r="X137">
+        <v>3.75</v>
+      </c>
+      <c r="Y137">
+        <v>2.1</v>
+      </c>
+      <c r="Z137">
+        <v>1.67</v>
+      </c>
+      <c r="AA137">
+        <v>4.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.18</v>
+      </c>
+      <c r="AC137">
+        <v>22</v>
+      </c>
+      <c r="AD137">
+        <v>8.4</v>
+      </c>
+      <c r="AE137">
+        <v>1.07</v>
+      </c>
+      <c r="AF137">
+        <v>1</v>
+      </c>
+      <c r="AG137">
+        <v>12</v>
+      </c>
+      <c r="AH137">
+        <v>1.13</v>
+      </c>
+      <c r="AI137">
+        <v>5</v>
+      </c>
+      <c r="AJ137">
+        <v>1.43</v>
+      </c>
+      <c r="AK137">
+        <v>2.51</v>
+      </c>
+      <c r="AL137">
+        <v>2.38</v>
+      </c>
+      <c r="AM137">
+        <v>1.53</v>
+      </c>
+      <c r="AN137">
+        <v>4.75</v>
+      </c>
+      <c r="AO137">
+        <v>1.04</v>
+      </c>
+      <c r="AP137">
+        <v>1.01</v>
+      </c>
+      <c r="AQ137">
+        <v>0.67</v>
+      </c>
+      <c r="AR137">
+        <v>1.54</v>
+      </c>
+      <c r="AS137">
+        <v>0.62</v>
+      </c>
+      <c r="AT137">
+        <v>1.64</v>
+      </c>
+      <c r="AU137">
+        <v>0.95</v>
+      </c>
+      <c r="AV137">
+        <v>1.45</v>
+      </c>
+      <c r="AW137">
+        <v>2.4</v>
+      </c>
+      <c r="AX137">
+        <v>8.25</v>
+      </c>
+      <c r="AY137">
+        <v>12</v>
+      </c>
+      <c r="AZ137">
+        <v>1.11</v>
+      </c>
+      <c r="BA137">
+        <v>1.3</v>
+      </c>
+      <c r="BB137">
+        <v>1.5</v>
+      </c>
+      <c r="BC137">
+        <v>1.93</v>
+      </c>
+      <c r="BD137">
+        <v>2.25</v>
+      </c>
+      <c r="BE137">
+        <v>2.9</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
+        <v>6</v>
+      </c>
+      <c r="BI137">
+        <v>3</v>
+      </c>
+      <c r="BJ137">
+        <v>12</v>
+      </c>
+      <c r="BK137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5019407</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45163.65625</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>66</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>166</v>
+      </c>
+      <c r="P138" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>5</v>
+      </c>
+      <c r="T138">
+        <v>2.3</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>5.5</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>2.75</v>
+      </c>
+      <c r="Y138">
+        <v>3</v>
+      </c>
+      <c r="Z138">
+        <v>1.36</v>
+      </c>
+      <c r="AA138">
+        <v>8</v>
+      </c>
+      <c r="AB138">
+        <v>1.08</v>
+      </c>
+      <c r="AC138">
+        <v>1.67</v>
+      </c>
+      <c r="AD138">
+        <v>3.6</v>
+      </c>
+      <c r="AE138">
+        <v>4.6</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
+      <c r="AH138">
+        <v>1.3</v>
+      </c>
+      <c r="AI138">
+        <v>3.3</v>
+      </c>
+      <c r="AJ138">
+        <v>1.9</v>
+      </c>
+      <c r="AK138">
+        <v>1.74</v>
+      </c>
+      <c r="AL138">
+        <v>1.95</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.12</v>
+      </c>
+      <c r="AO138">
+        <v>1.2</v>
+      </c>
+      <c r="AP138">
+        <v>2</v>
+      </c>
+      <c r="AQ138">
+        <v>2.08</v>
+      </c>
+      <c r="AR138">
+        <v>1.31</v>
+      </c>
+      <c r="AS138">
+        <v>2.14</v>
+      </c>
+      <c r="AT138">
+        <v>1.21</v>
+      </c>
+      <c r="AU138">
+        <v>1.96</v>
+      </c>
+      <c r="AV138">
+        <v>1.21</v>
+      </c>
+      <c r="AW138">
+        <v>3.17</v>
+      </c>
+      <c r="AX138">
+        <v>1.51</v>
+      </c>
+      <c r="AY138">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138">
+        <v>3.16</v>
+      </c>
+      <c r="BA138">
+        <v>1.29</v>
+      </c>
+      <c r="BB138">
+        <v>1.5</v>
+      </c>
+      <c r="BC138">
+        <v>1.8</v>
+      </c>
+      <c r="BD138">
+        <v>2.25</v>
+      </c>
+      <c r="BE138">
+        <v>2.88</v>
+      </c>
+      <c r="BF138">
+        <v>4</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>6</v>
+      </c>
+      <c r="BI138">
+        <v>3</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5019404</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45163.6875</v>
+      </c>
+      <c r="F139">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>167</v>
+      </c>
+      <c r="P139" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <v>7</v>
+      </c>
+      <c r="S139">
+        <v>15</v>
+      </c>
+      <c r="T139">
+        <v>3.4</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>3.5</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>2.5</v>
+      </c>
+      <c r="Y139">
+        <v>3.5</v>
+      </c>
+      <c r="Z139">
+        <v>1.29</v>
+      </c>
+      <c r="AA139">
+        <v>10</v>
+      </c>
+      <c r="AB139">
+        <v>1.06</v>
+      </c>
+      <c r="AC139">
+        <v>2.34</v>
+      </c>
+      <c r="AD139">
+        <v>3.1</v>
+      </c>
+      <c r="AE139">
+        <v>2.88</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>2.2</v>
+      </c>
+      <c r="AK139">
+        <v>1.55</v>
+      </c>
+      <c r="AL139">
+        <v>1.95</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.75</v>
+      </c>
+      <c r="AS139">
+        <v>1.93</v>
+      </c>
+      <c r="AT139">
+        <v>1.69</v>
+      </c>
+      <c r="AU139">
+        <v>1.7</v>
+      </c>
+      <c r="AV139">
+        <v>1.26</v>
+      </c>
+      <c r="AW139">
+        <v>2.96</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>5</v>
+      </c>
+      <c r="BG139">
+        <v>6</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>9</v>
+      </c>
+      <c r="BK139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5019408</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45164.65625</v>
+      </c>
+      <c r="F140">
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>77</v>
+      </c>
+      <c r="P140" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>3.4</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>3.6</v>
+      </c>
+      <c r="W140">
+        <v>1.53</v>
+      </c>
+      <c r="X140">
+        <v>2.38</v>
+      </c>
+      <c r="Y140">
+        <v>3.5</v>
+      </c>
+      <c r="Z140">
+        <v>1.29</v>
+      </c>
+      <c r="AA140">
+        <v>11</v>
+      </c>
+      <c r="AB140">
+        <v>1.05</v>
+      </c>
+      <c r="AC140">
+        <v>2.45</v>
+      </c>
+      <c r="AD140">
+        <v>3</v>
+      </c>
+      <c r="AE140">
+        <v>2.8</v>
+      </c>
+      <c r="AF140">
+        <v>1.06</v>
+      </c>
+      <c r="AG140">
+        <v>7</v>
+      </c>
+      <c r="AH140">
+        <v>1.44</v>
+      </c>
+      <c r="AI140">
+        <v>2.65</v>
+      </c>
+      <c r="AJ140">
+        <v>2.25</v>
+      </c>
+      <c r="AK140">
+        <v>1.53</v>
+      </c>
+      <c r="AL140">
+        <v>2</v>
+      </c>
+      <c r="AM140">
+        <v>1.75</v>
+      </c>
+      <c r="AN140">
+        <v>1.36</v>
+      </c>
+      <c r="AO140">
+        <v>1.28</v>
+      </c>
+      <c r="AP140">
+        <v>1.53</v>
+      </c>
+      <c r="AQ140">
+        <v>1.38</v>
+      </c>
+      <c r="AR140">
+        <v>1.38</v>
+      </c>
+      <c r="AS140">
+        <v>1.29</v>
+      </c>
+      <c r="AT140">
+        <v>1.5</v>
+      </c>
+      <c r="AU140">
+        <v>1.49</v>
+      </c>
+      <c r="AV140">
+        <v>1.22</v>
+      </c>
+      <c r="AW140">
+        <v>2.71</v>
+      </c>
+      <c r="AX140">
+        <v>1.75</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>2.52</v>
+      </c>
+      <c r="BA140">
+        <v>1.5</v>
+      </c>
+      <c r="BB140">
+        <v>1.85</v>
+      </c>
+      <c r="BC140">
+        <v>2.33</v>
+      </c>
+      <c r="BD140">
+        <v>3.08</v>
+      </c>
+      <c r="BE140">
+        <v>3.96</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>7</v>
+      </c>
+      <c r="BH140">
+        <v>8</v>
+      </c>
+      <c r="BI140">
+        <v>6</v>
+      </c>
+      <c r="BJ140">
+        <v>13</v>
+      </c>
+      <c r="BK140">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,21 @@
     <t>['13', '53']</t>
   </si>
   <si>
+    <t>['80', '90']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['43', '51', '82']</t>
+  </si>
+  <si>
+    <t>['28', '64', '74']</t>
+  </si>
+  <si>
+    <t>['34', '45', '69']</t>
+  </si>
+  <si>
     <t>['19', '53']</t>
   </si>
   <si>
@@ -725,6 +740,9 @@
   </si>
   <si>
     <t>['22', '42']</t>
+  </si>
+  <si>
+    <t>['42', '47', '77']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1348,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1417,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT2">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1608,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT3">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.14</v>
@@ -1903,7 +1921,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1993,7 +2011,7 @@
         <v>1.93</v>
       </c>
       <c r="AT5">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2667,7 +2685,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2754,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT9">
         <v>1.71</v>
@@ -3049,7 +3067,7 @@
         <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3139,7 +3157,7 @@
         <v>0.62</v>
       </c>
       <c r="AT11">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3327,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>1.21</v>
@@ -3518,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU13">
         <v>1.66</v>
@@ -3709,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU14">
         <v>1.3</v>
@@ -3900,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT15">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU15">
         <v>1.95</v>
@@ -4004,7 +4022,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4091,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT16">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4473,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4667,7 +4685,7 @@
         <v>1.29</v>
       </c>
       <c r="AT19">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU19">
         <v>2.15</v>
@@ -4768,7 +4786,7 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4858,7 +4876,7 @@
         <v>0.62</v>
       </c>
       <c r="AT20">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -4959,7 +4977,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -5046,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT21">
         <v>0.43</v>
@@ -5150,7 +5168,7 @@
         <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5341,7 +5359,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5431,7 +5449,7 @@
         <v>1.93</v>
       </c>
       <c r="AT23">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.26</v>
@@ -5619,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>1.71</v>
@@ -5914,7 +5932,7 @@
         <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6105,7 +6123,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6192,7 +6210,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
         <v>1.21</v>
@@ -6296,7 +6314,7 @@
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6383,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6487,7 +6505,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6574,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT29">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU29">
         <v>2.27</v>
@@ -6678,7 +6696,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6768,7 +6786,7 @@
         <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU30">
         <v>1.75</v>
@@ -6869,7 +6887,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -6959,7 +6977,7 @@
         <v>1.79</v>
       </c>
       <c r="AT31">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.78</v>
@@ -7060,7 +7078,7 @@
         <v>77</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7147,10 +7165,10 @@
         <v>2.33</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU32">
         <v>0.99</v>
@@ -7341,7 +7359,7 @@
         <v>1.93</v>
       </c>
       <c r="AT33">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU33">
         <v>1.2</v>
@@ -7442,7 +7460,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7529,7 +7547,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT34">
         <v>1.14</v>
@@ -7633,7 +7651,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7720,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT35">
         <v>1.71</v>
@@ -7914,7 +7932,7 @@
         <v>1.29</v>
       </c>
       <c r="AT36">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.81</v>
@@ -8015,7 +8033,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8397,7 +8415,7 @@
         <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8484,10 +8502,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>1.45</v>
@@ -9057,7 +9075,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT42">
         <v>1.21</v>
@@ -9161,7 +9179,7 @@
         <v>77</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>13</v>
@@ -9251,7 +9269,7 @@
         <v>1.79</v>
       </c>
       <c r="AT43">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>2.06</v>
@@ -9352,7 +9370,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9439,10 +9457,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT44">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU44">
         <v>2.09</v>
@@ -9543,7 +9561,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9630,10 +9648,10 @@
         <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9821,10 +9839,10 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT46">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU46">
         <v>2.25</v>
@@ -9925,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10015,7 +10033,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10307,7 +10325,7 @@
         <v>107</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10394,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10498,7 +10516,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10689,7 +10707,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10776,10 +10794,10 @@
         <v>2.5</v>
       </c>
       <c r="AS51">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT51">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU51">
         <v>1.41</v>
@@ -10880,7 +10898,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10967,10 +10985,10 @@
         <v>2.2</v>
       </c>
       <c r="AS52">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11071,7 +11089,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11158,10 +11176,10 @@
         <v>2.4</v>
       </c>
       <c r="AS53">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11349,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>1.21</v>
@@ -11453,7 +11471,7 @@
         <v>77</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11644,7 +11662,7 @@
         <v>112</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11734,7 +11752,7 @@
         <v>1.29</v>
       </c>
       <c r="AT56">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU56">
         <v>1.62</v>
@@ -11835,7 +11853,7 @@
         <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -11925,7 +11943,7 @@
         <v>0.62</v>
       </c>
       <c r="AT57">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU57">
         <v>1.04</v>
@@ -12026,7 +12044,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12113,7 +12131,7 @@
         <v>0.4</v>
       </c>
       <c r="AS58">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT58">
         <v>0.43</v>
@@ -12307,7 +12325,7 @@
         <v>1.79</v>
       </c>
       <c r="AT59">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU59">
         <v>2.01</v>
@@ -12408,7 +12426,7 @@
         <v>116</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12495,7 +12513,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT60">
         <v>1.14</v>
@@ -12686,10 +12704,10 @@
         <v>1.4</v>
       </c>
       <c r="AS61">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT61">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU61">
         <v>2.24</v>
@@ -12880,7 +12898,7 @@
         <v>1.93</v>
       </c>
       <c r="AT62">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13172,7 +13190,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13259,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT64">
         <v>1.5</v>
@@ -13363,7 +13381,7 @@
         <v>77</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13554,7 +13572,7 @@
         <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13832,10 +13850,10 @@
         <v>2.29</v>
       </c>
       <c r="AS67">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT67">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>2.06</v>
@@ -14023,10 +14041,10 @@
         <v>0.17</v>
       </c>
       <c r="AS68">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU68">
         <v>1.11</v>
@@ -14127,7 +14145,7 @@
         <v>77</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14214,10 +14232,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU69">
         <v>1.84</v>
@@ -14318,7 +14336,7 @@
         <v>122</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14405,10 +14423,10 @@
         <v>1.17</v>
       </c>
       <c r="AS70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT70">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU70">
         <v>1.33</v>
@@ -14700,7 +14718,7 @@
         <v>77</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14790,7 +14808,7 @@
         <v>1.93</v>
       </c>
       <c r="AT72">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -14891,7 +14909,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14978,7 +14996,7 @@
         <v>0.29</v>
       </c>
       <c r="AS73">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT73">
         <v>0.43</v>
@@ -15273,7 +15291,7 @@
         <v>77</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15464,7 +15482,7 @@
         <v>77</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15846,7 +15864,7 @@
         <v>126</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -15933,10 +15951,10 @@
         <v>1.43</v>
       </c>
       <c r="AS78">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT78">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU78">
         <v>1.98</v>
@@ -16124,10 +16142,10 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU79">
         <v>1.13</v>
@@ -16228,7 +16246,7 @@
         <v>127</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16315,10 +16333,10 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT80">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.57</v>
@@ -16419,7 +16437,7 @@
         <v>128</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16509,7 +16527,7 @@
         <v>1.79</v>
       </c>
       <c r="AT81">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU81">
         <v>1.8</v>
@@ -16697,10 +16715,10 @@
         <v>1.43</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>1.29</v>
@@ -16801,7 +16819,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>14</v>
@@ -16888,7 +16906,7 @@
         <v>1.13</v>
       </c>
       <c r="AS83">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT83">
         <v>1.14</v>
@@ -17270,7 +17288,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT85">
         <v>1.71</v>
@@ -17374,7 +17392,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17461,10 +17479,10 @@
         <v>0.13</v>
       </c>
       <c r="AS86">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT86">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU86">
         <v>1.8</v>
@@ -17565,7 +17583,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17846,7 +17864,7 @@
         <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU88">
         <v>1.55</v>
@@ -18034,7 +18052,7 @@
         <v>1.22</v>
       </c>
       <c r="AS89">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT89">
         <v>1.21</v>
@@ -18138,7 +18156,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18228,7 +18246,7 @@
         <v>0.62</v>
       </c>
       <c r="AT90">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU90">
         <v>1.03</v>
@@ -18416,7 +18434,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
         <v>0.43</v>
@@ -18801,7 +18819,7 @@
         <v>1.93</v>
       </c>
       <c r="AT93">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU93">
         <v>1.6</v>
@@ -18902,7 +18920,7 @@
         <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18989,10 +19007,10 @@
         <v>1.89</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT94">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU94">
         <v>1.28</v>
@@ -19093,7 +19111,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19180,10 +19198,10 @@
         <v>0.11</v>
       </c>
       <c r="AS95">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT95">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU95">
         <v>1.57</v>
@@ -19284,7 +19302,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19475,7 +19493,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19565,7 +19583,7 @@
         <v>1.93</v>
       </c>
       <c r="AT97">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU97">
         <v>1.51</v>
@@ -19666,7 +19684,7 @@
         <v>141</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19753,7 +19771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT98">
         <v>1.14</v>
@@ -19857,7 +19875,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19944,10 +19962,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU99">
         <v>1.8</v>
@@ -20135,10 +20153,10 @@
         <v>1.11</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU100">
         <v>1.17</v>
@@ -20239,7 +20257,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20326,7 +20344,7 @@
         <v>1.1</v>
       </c>
       <c r="AS101">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT101">
         <v>1.21</v>
@@ -20520,7 +20538,7 @@
         <v>1.79</v>
       </c>
       <c r="AT102">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20708,10 +20726,10 @@
         <v>0.1</v>
       </c>
       <c r="AS103">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT103">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU103">
         <v>2.07</v>
@@ -20812,7 +20830,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21194,7 +21212,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21281,7 +21299,7 @@
         <v>1.27</v>
       </c>
       <c r="AS106">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT106">
         <v>1.21</v>
@@ -21576,7 +21594,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21666,7 +21684,7 @@
         <v>0.62</v>
       </c>
       <c r="AT108">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU108">
         <v>1.04</v>
@@ -21767,7 +21785,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21854,10 +21872,10 @@
         <v>1.45</v>
       </c>
       <c r="AS109">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU109">
         <v>1.67</v>
@@ -22045,10 +22063,10 @@
         <v>2</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU110">
         <v>2.07</v>
@@ -22149,7 +22167,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22239,7 +22257,7 @@
         <v>1.29</v>
       </c>
       <c r="AT111">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -22430,7 +22448,7 @@
         <v>1.93</v>
       </c>
       <c r="AT112">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU112">
         <v>1.51</v>
@@ -22618,7 +22636,7 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT113">
         <v>1.71</v>
@@ -22722,7 +22740,7 @@
         <v>96</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22809,7 +22827,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT114">
         <v>1.14</v>
@@ -22913,7 +22931,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23000,10 +23018,10 @@
         <v>1.82</v>
       </c>
       <c r="AS115">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU115">
         <v>1.18</v>
@@ -23104,7 +23122,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -23295,7 +23313,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23385,7 +23403,7 @@
         <v>1.79</v>
       </c>
       <c r="AT117">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -23573,7 +23591,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT118">
         <v>1.71</v>
@@ -23868,7 +23886,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24059,7 +24077,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24146,10 +24164,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT121">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>1.17</v>
@@ -24250,7 +24268,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24722,7 +24740,7 @@
         <v>1.93</v>
       </c>
       <c r="AT124">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU124">
         <v>1.64</v>
@@ -24823,7 +24841,7 @@
         <v>77</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24910,7 +24928,7 @@
         <v>1.27</v>
       </c>
       <c r="AS125">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT125">
         <v>1.5</v>
@@ -25014,7 +25032,7 @@
         <v>160</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25101,10 +25119,10 @@
         <v>0.92</v>
       </c>
       <c r="AS126">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU126">
         <v>1.69</v>
@@ -25205,7 +25223,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25295,7 +25313,7 @@
         <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU127">
         <v>1.49</v>
@@ -25396,7 +25414,7 @@
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>8</v>
@@ -25674,7 +25692,7 @@
         <v>1.42</v>
       </c>
       <c r="AS129">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT129">
         <v>1.5</v>
@@ -25778,7 +25796,7 @@
         <v>162</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25865,7 +25883,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT130">
         <v>0.43</v>
@@ -26056,7 +26074,7 @@
         <v>1.77</v>
       </c>
       <c r="AS131">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT131">
         <v>1.71</v>
@@ -26247,10 +26265,10 @@
         <v>0.92</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT132">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -26441,7 +26459,7 @@
         <v>1.93</v>
       </c>
       <c r="AT133">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU133">
         <v>1.58</v>
@@ -26542,7 +26560,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26629,10 +26647,10 @@
         <v>0.08</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT134">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU134">
         <v>1.14</v>
@@ -27011,7 +27029,7 @@
         <v>0.46</v>
       </c>
       <c r="AS136">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
         <v>0.43</v>
@@ -27115,7 +27133,7 @@
         <v>77</v>
       </c>
       <c r="P137" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27205,7 +27223,7 @@
         <v>0.62</v>
       </c>
       <c r="AT137">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU137">
         <v>0.95</v>
@@ -27393,7 +27411,7 @@
         <v>1.31</v>
       </c>
       <c r="AS138">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT138">
         <v>1.21</v>
@@ -27497,7 +27515,7 @@
         <v>167</v>
       </c>
       <c r="P139" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27587,7 +27605,7 @@
         <v>1.93</v>
       </c>
       <c r="AT139">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU139">
         <v>1.7</v>
@@ -27688,7 +27706,7 @@
         <v>77</v>
       </c>
       <c r="P140" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27830,6 +27848,961 @@
       </c>
       <c r="BK140">
         <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5019412</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45170.65625</v>
+      </c>
+      <c r="F141">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>67</v>
+      </c>
+      <c r="H141" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>168</v>
+      </c>
+      <c r="P141" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q141">
+        <v>6</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>3.4</v>
+      </c>
+      <c r="W141">
+        <v>1.49</v>
+      </c>
+      <c r="X141">
+        <v>2.45</v>
+      </c>
+      <c r="Y141">
+        <v>3.25</v>
+      </c>
+      <c r="Z141">
+        <v>1.3</v>
+      </c>
+      <c r="AA141">
+        <v>8.9</v>
+      </c>
+      <c r="AB141">
+        <v>1.04</v>
+      </c>
+      <c r="AC141">
+        <v>2.78</v>
+      </c>
+      <c r="AD141">
+        <v>2.97</v>
+      </c>
+      <c r="AE141">
+        <v>2.48</v>
+      </c>
+      <c r="AF141">
+        <v>1.1</v>
+      </c>
+      <c r="AG141">
+        <v>6.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.42</v>
+      </c>
+      <c r="AI141">
+        <v>2.75</v>
+      </c>
+      <c r="AJ141">
+        <v>2.21</v>
+      </c>
+      <c r="AK141">
+        <v>1.59</v>
+      </c>
+      <c r="AL141">
+        <v>1.95</v>
+      </c>
+      <c r="AM141">
+        <v>1.8</v>
+      </c>
+      <c r="AN141">
+        <v>1.47</v>
+      </c>
+      <c r="AO141">
+        <v>1.28</v>
+      </c>
+      <c r="AP141">
+        <v>1.45</v>
+      </c>
+      <c r="AQ141">
+        <v>1.57</v>
+      </c>
+      <c r="AR141">
+        <v>1.64</v>
+      </c>
+      <c r="AS141">
+        <v>1.67</v>
+      </c>
+      <c r="AT141">
+        <v>1.53</v>
+      </c>
+      <c r="AU141">
+        <v>1.18</v>
+      </c>
+      <c r="AV141">
+        <v>1.42</v>
+      </c>
+      <c r="AW141">
+        <v>2.6</v>
+      </c>
+      <c r="AX141">
+        <v>2.05</v>
+      </c>
+      <c r="AY141">
+        <v>6.5</v>
+      </c>
+      <c r="AZ141">
+        <v>2.2</v>
+      </c>
+      <c r="BA141">
+        <v>1.43</v>
+      </c>
+      <c r="BB141">
+        <v>1.78</v>
+      </c>
+      <c r="BC141">
+        <v>2.29</v>
+      </c>
+      <c r="BD141">
+        <v>3.08</v>
+      </c>
+      <c r="BE141">
+        <v>3.6</v>
+      </c>
+      <c r="BF141">
+        <v>9</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>9</v>
+      </c>
+      <c r="BI141">
+        <v>2</v>
+      </c>
+      <c r="BJ141">
+        <v>18</v>
+      </c>
+      <c r="BK141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5019411</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45170.65625</v>
+      </c>
+      <c r="F142">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>66</v>
+      </c>
+      <c r="H142" t="s">
+        <v>71</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>169</v>
+      </c>
+      <c r="P142" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q142">
+        <v>9</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>3.75</v>
+      </c>
+      <c r="U142">
+        <v>2.2</v>
+      </c>
+      <c r="V142">
+        <v>2.88</v>
+      </c>
+      <c r="W142">
+        <v>1.41</v>
+      </c>
+      <c r="X142">
+        <v>2.7</v>
+      </c>
+      <c r="Y142">
+        <v>2.85</v>
+      </c>
+      <c r="Z142">
+        <v>1.37</v>
+      </c>
+      <c r="AA142">
+        <v>6.95</v>
+      </c>
+      <c r="AB142">
+        <v>1.07</v>
+      </c>
+      <c r="AC142">
+        <v>2.99</v>
+      </c>
+      <c r="AD142">
+        <v>3.23</v>
+      </c>
+      <c r="AE142">
+        <v>2.19</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>8</v>
+      </c>
+      <c r="AH142">
+        <v>1.3</v>
+      </c>
+      <c r="AI142">
+        <v>3.3</v>
+      </c>
+      <c r="AJ142">
+        <v>1.87</v>
+      </c>
+      <c r="AK142">
+        <v>1.84</v>
+      </c>
+      <c r="AL142">
+        <v>1.75</v>
+      </c>
+      <c r="AM142">
+        <v>2</v>
+      </c>
+      <c r="AN142">
+        <v>1.66</v>
+      </c>
+      <c r="AO142">
+        <v>1.25</v>
+      </c>
+      <c r="AP142">
+        <v>1.35</v>
+      </c>
+      <c r="AQ142">
+        <v>1.86</v>
+      </c>
+      <c r="AR142">
+        <v>1.69</v>
+      </c>
+      <c r="AS142">
+        <v>1.73</v>
+      </c>
+      <c r="AT142">
+        <v>1.79</v>
+      </c>
+      <c r="AU142">
+        <v>1.53</v>
+      </c>
+      <c r="AV142">
+        <v>1.26</v>
+      </c>
+      <c r="AW142">
+        <v>2.79</v>
+      </c>
+      <c r="AX142">
+        <v>2.5</v>
+      </c>
+      <c r="AY142">
+        <v>6.5</v>
+      </c>
+      <c r="AZ142">
+        <v>1.83</v>
+      </c>
+      <c r="BA142">
+        <v>1.38</v>
+      </c>
+      <c r="BB142">
+        <v>1.7</v>
+      </c>
+      <c r="BC142">
+        <v>2.16</v>
+      </c>
+      <c r="BD142">
+        <v>2.88</v>
+      </c>
+      <c r="BE142">
+        <v>3.6</v>
+      </c>
+      <c r="BF142">
+        <v>9</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>8</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>17</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5019413</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45170.65625</v>
+      </c>
+      <c r="F143">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>70</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>170</v>
+      </c>
+      <c r="P143" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q143">
+        <v>12</v>
+      </c>
+      <c r="R143">
+        <v>5</v>
+      </c>
+      <c r="S143">
+        <v>17</v>
+      </c>
+      <c r="T143">
+        <v>2.2</v>
+      </c>
+      <c r="U143">
+        <v>2.3</v>
+      </c>
+      <c r="V143">
+        <v>5</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.63</v>
+      </c>
+      <c r="Z143">
+        <v>1.44</v>
+      </c>
+      <c r="AA143">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1.1</v>
+      </c>
+      <c r="AC143">
+        <v>1.6</v>
+      </c>
+      <c r="AD143">
+        <v>3.68</v>
+      </c>
+      <c r="AE143">
+        <v>4.9</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>1.75</v>
+      </c>
+      <c r="AK143">
+        <v>1.97</v>
+      </c>
+      <c r="AL143">
+        <v>1.75</v>
+      </c>
+      <c r="AM143">
+        <v>2</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
+      <c r="AQ143">
+        <v>2.14</v>
+      </c>
+      <c r="AR143">
+        <v>1.43</v>
+      </c>
+      <c r="AS143">
+        <v>2.2</v>
+      </c>
+      <c r="AT143">
+        <v>1.33</v>
+      </c>
+      <c r="AU143">
+        <v>1.91</v>
+      </c>
+      <c r="AV143">
+        <v>1.19</v>
+      </c>
+      <c r="AW143">
+        <v>3.1</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>11</v>
+      </c>
+      <c r="BG143">
+        <v>2</v>
+      </c>
+      <c r="BH143">
+        <v>7</v>
+      </c>
+      <c r="BI143">
+        <v>5</v>
+      </c>
+      <c r="BJ143">
+        <v>18</v>
+      </c>
+      <c r="BK143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5019409</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45170.65625</v>
+      </c>
+      <c r="F144">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
+        <v>65</v>
+      </c>
+      <c r="H144" t="s">
+        <v>69</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>171</v>
+      </c>
+      <c r="P144" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>7</v>
+      </c>
+      <c r="T144">
+        <v>3.6</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>2.88</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>2.75</v>
+      </c>
+      <c r="Y144">
+        <v>2.75</v>
+      </c>
+      <c r="Z144">
+        <v>1.4</v>
+      </c>
+      <c r="AA144">
+        <v>8</v>
+      </c>
+      <c r="AB144">
+        <v>1.08</v>
+      </c>
+      <c r="AC144">
+        <v>2.78</v>
+      </c>
+      <c r="AD144">
+        <v>3.33</v>
+      </c>
+      <c r="AE144">
+        <v>2.27</v>
+      </c>
+      <c r="AF144">
+        <v>1.06</v>
+      </c>
+      <c r="AG144">
+        <v>8</v>
+      </c>
+      <c r="AH144">
+        <v>1.28</v>
+      </c>
+      <c r="AI144">
+        <v>3.5</v>
+      </c>
+      <c r="AJ144">
+        <v>1.82</v>
+      </c>
+      <c r="AK144">
+        <v>1.88</v>
+      </c>
+      <c r="AL144">
+        <v>1.7</v>
+      </c>
+      <c r="AM144">
+        <v>2.05</v>
+      </c>
+      <c r="AN144">
+        <v>1.68</v>
+      </c>
+      <c r="AO144">
+        <v>1.25</v>
+      </c>
+      <c r="AP144">
+        <v>1.35</v>
+      </c>
+      <c r="AQ144">
+        <v>1.29</v>
+      </c>
+      <c r="AR144">
+        <v>0.86</v>
+      </c>
+      <c r="AS144">
+        <v>1.4</v>
+      </c>
+      <c r="AT144">
+        <v>0.8</v>
+      </c>
+      <c r="AU144">
+        <v>1.18</v>
+      </c>
+      <c r="AV144">
+        <v>1.35</v>
+      </c>
+      <c r="AW144">
+        <v>2.53</v>
+      </c>
+      <c r="AX144">
+        <v>2.6</v>
+      </c>
+      <c r="AY144">
+        <v>6.5</v>
+      </c>
+      <c r="AZ144">
+        <v>1.78</v>
+      </c>
+      <c r="BA144">
+        <v>1.24</v>
+      </c>
+      <c r="BB144">
+        <v>1.47</v>
+      </c>
+      <c r="BC144">
+        <v>1.84</v>
+      </c>
+      <c r="BD144">
+        <v>2.34</v>
+      </c>
+      <c r="BE144">
+        <v>3.14</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>1</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>9</v>
+      </c>
+      <c r="BK144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5019410</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45170.65625</v>
+      </c>
+      <c r="F145">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>172</v>
+      </c>
+      <c r="P145" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>10</v>
+      </c>
+      <c r="S145">
+        <v>13</v>
+      </c>
+      <c r="T145">
+        <v>1.67</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>9.5</v>
+      </c>
+      <c r="W145">
+        <v>1.29</v>
+      </c>
+      <c r="X145">
+        <v>3.5</v>
+      </c>
+      <c r="Y145">
+        <v>2.25</v>
+      </c>
+      <c r="Z145">
+        <v>1.57</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.14</v>
+      </c>
+      <c r="AC145">
+        <v>1.26</v>
+      </c>
+      <c r="AD145">
+        <v>4.93</v>
+      </c>
+      <c r="AE145">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AF145">
+        <v>1.02</v>
+      </c>
+      <c r="AG145">
+        <v>12</v>
+      </c>
+      <c r="AH145">
+        <v>1.18</v>
+      </c>
+      <c r="AI145">
+        <v>4.84</v>
+      </c>
+      <c r="AJ145">
+        <v>1.59</v>
+      </c>
+      <c r="AK145">
+        <v>2.13</v>
+      </c>
+      <c r="AL145">
+        <v>2.1</v>
+      </c>
+      <c r="AM145">
+        <v>1.67</v>
+      </c>
+      <c r="AN145">
+        <v>1.05</v>
+      </c>
+      <c r="AO145">
+        <v>1.08</v>
+      </c>
+      <c r="AP145">
+        <v>3.6</v>
+      </c>
+      <c r="AQ145">
+        <v>1.14</v>
+      </c>
+      <c r="AR145">
+        <v>0.14</v>
+      </c>
+      <c r="AS145">
+        <v>1.27</v>
+      </c>
+      <c r="AT145">
+        <v>0.13</v>
+      </c>
+      <c r="AU145">
+        <v>1.67</v>
+      </c>
+      <c r="AV145">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW145">
+        <v>2.61</v>
+      </c>
+      <c r="AX145">
+        <v>1.08</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>11</v>
+      </c>
+      <c r="BA145">
+        <v>1.22</v>
+      </c>
+      <c r="BB145">
+        <v>1.43</v>
+      </c>
+      <c r="BC145">
+        <v>1.93</v>
+      </c>
+      <c r="BD145">
+        <v>2.19</v>
+      </c>
+      <c r="BE145">
+        <v>2.88</v>
+      </c>
+      <c r="BF145">
+        <v>5</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>5</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>10</v>
+      </c>
+      <c r="BK145">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -744,6 +744,9 @@
   <si>
     <t>['42', '47', '77']</t>
   </si>
+  <si>
+    <t>['2', '40', '44', '52', '57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2011,7 +2014,7 @@
         <v>1.93</v>
       </c>
       <c r="AT5">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3154,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT11">
         <v>0.8</v>
@@ -4112,7 +4115,7 @@
         <v>2.2</v>
       </c>
       <c r="AT16">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4873,10 +4876,10 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT20">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU20">
         <v>1.45</v>
@@ -5255,7 +5258,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT22">
         <v>1.14</v>
@@ -7168,7 +7171,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU32">
         <v>0.99</v>
@@ -8884,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -10221,7 +10224,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT48">
         <v>0.43</v>
@@ -10797,7 +10800,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU51">
         <v>1.41</v>
@@ -10988,7 +10991,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11940,7 +11943,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT57">
         <v>1.33</v>
@@ -13468,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT65">
         <v>1.21</v>
@@ -14235,7 +14238,7 @@
         <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU69">
         <v>1.84</v>
@@ -14808,7 +14811,7 @@
         <v>1.93</v>
       </c>
       <c r="AT72">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -15378,7 +15381,7 @@
         <v>2.14</v>
       </c>
       <c r="AS75">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT75">
         <v>1.71</v>
@@ -17864,7 +17867,7 @@
         <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU88">
         <v>1.55</v>
@@ -18243,7 +18246,7 @@
         <v>1.44</v>
       </c>
       <c r="AS90">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT90">
         <v>1.53</v>
@@ -19583,7 +19586,7 @@
         <v>1.93</v>
       </c>
       <c r="AT97">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU97">
         <v>1.51</v>
@@ -21681,7 +21684,7 @@
         <v>1.1</v>
       </c>
       <c r="AS108">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT108">
         <v>0.8</v>
@@ -22066,7 +22069,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU110">
         <v>2.07</v>
@@ -23021,7 +23024,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU115">
         <v>1.18</v>
@@ -23973,7 +23976,7 @@
         <v>1.1</v>
       </c>
       <c r="AS120">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT120">
         <v>1.5</v>
@@ -24355,7 +24358,7 @@
         <v>1.18</v>
       </c>
       <c r="AS122">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -27220,7 +27223,7 @@
         <v>1.54</v>
       </c>
       <c r="AS137">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT137">
         <v>1.53</v>
@@ -27605,7 +27608,7 @@
         <v>1.93</v>
       </c>
       <c r="AT139">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU139">
         <v>1.7</v>
@@ -28178,7 +28181,7 @@
         <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AU142">
         <v>1.53</v>
@@ -28803,6 +28806,197 @@
       </c>
       <c r="BK145">
         <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5019396</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45175.65625</v>
+      </c>
+      <c r="F146">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>77</v>
+      </c>
+      <c r="P146" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>7</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>11</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>1.57</v>
+      </c>
+      <c r="W146">
+        <v>1.29</v>
+      </c>
+      <c r="X146">
+        <v>3.5</v>
+      </c>
+      <c r="Y146">
+        <v>2.25</v>
+      </c>
+      <c r="Z146">
+        <v>1.57</v>
+      </c>
+      <c r="AA146">
+        <v>5.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.14</v>
+      </c>
+      <c r="AC146">
+        <v>10.12</v>
+      </c>
+      <c r="AD146">
+        <v>6.76</v>
+      </c>
+      <c r="AE146">
+        <v>1.15</v>
+      </c>
+      <c r="AF146">
+        <v>1.02</v>
+      </c>
+      <c r="AG146">
+        <v>12</v>
+      </c>
+      <c r="AH146">
+        <v>1.18</v>
+      </c>
+      <c r="AI146">
+        <v>4.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.56</v>
+      </c>
+      <c r="AK146">
+        <v>2.31</v>
+      </c>
+      <c r="AL146">
+        <v>2.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.57</v>
+      </c>
+      <c r="AN146">
+        <v>4</v>
+      </c>
+      <c r="AO146">
+        <v>1.06</v>
+      </c>
+      <c r="AP146">
+        <v>1.02</v>
+      </c>
+      <c r="AQ146">
+        <v>0.62</v>
+      </c>
+      <c r="AR146">
+        <v>1.79</v>
+      </c>
+      <c r="AS146">
+        <v>0.57</v>
+      </c>
+      <c r="AT146">
+        <v>1.87</v>
+      </c>
+      <c r="AU146">
+        <v>0.98</v>
+      </c>
+      <c r="AV146">
+        <v>1.24</v>
+      </c>
+      <c r="AW146">
+        <v>2.22</v>
+      </c>
+      <c r="AX146">
+        <v>8.75</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>1.1</v>
+      </c>
+      <c r="BA146">
+        <v>1.24</v>
+      </c>
+      <c r="BB146">
+        <v>1.47</v>
+      </c>
+      <c r="BC146">
+        <v>1.82</v>
+      </c>
+      <c r="BD146">
+        <v>2.32</v>
+      </c>
+      <c r="BE146">
+        <v>3.04</v>
+      </c>
+      <c r="BF146">
+        <v>2</v>
+      </c>
+      <c r="BG146">
+        <v>10</v>
+      </c>
+      <c r="BH146">
+        <v>2</v>
+      </c>
+      <c r="BI146">
+        <v>5</v>
+      </c>
+      <c r="BJ146">
+        <v>4</v>
+      </c>
+      <c r="BK146">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
         <v>1.67</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>1.53</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.43</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>1.6</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT50" t="n">
         <v>1.14</v>
@@ -11862,7 +11862,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>0.13</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT71" t="n">
         <v>1.21</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -18358,7 +18358,7 @@
         <v>2.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
         <v>1.87</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>1.67</v>
@@ -23027,7 +23027,7 @@
         <v>1.64</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>0.55</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT123" t="n">
         <v>0.43</v>
@@ -26275,7 +26275,7 @@
         <v>1.42</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT127" t="n">
         <v>1.53</v>
@@ -28914,7 +28914,7 @@
         <v>1.38</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT140" t="n">
         <v>1.5</v>
@@ -30390,6 +30390,209 @@
       </c>
       <c r="BK147" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5019418</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45185.65625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['17', '63']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>12</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>14</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>1.14</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.93</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.73</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT11" t="n">
         <v>0.8</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU12" t="n">
         <v>1.21</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -3745,7 +3745,7 @@
         <v>2.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.53</v>
@@ -4554,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4760,7 +4760,7 @@
         <v>2.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4960,7 +4960,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT22" t="n">
         <v>1.14</v>
@@ -5163,10 +5163,10 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU23" t="n">
         <v>1.26</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU24" t="n">
         <v>1.09</v>
@@ -5572,7 +5572,7 @@
         <v>1.73</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU25" t="n">
         <v>1.42</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.71</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU27" t="n">
         <v>2.19</v>
@@ -6990,10 +6990,10 @@
         <v>2.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>0.99</v>
@@ -7193,7 +7193,7 @@
         <v>0.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.13</v>
@@ -7602,7 +7602,7 @@
         <v>1.73</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU35" t="n">
         <v>1.63</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8008,7 +8008,7 @@
         <v>1.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU37" t="n">
         <v>1.87</v>
@@ -8614,10 +8614,10 @@
         <v>0.67</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU42" t="n">
         <v>1.4</v>
@@ -9226,7 +9226,7 @@
         <v>1.73</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU43" t="n">
         <v>2.06</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT44" t="n">
         <v>1.53</v>
@@ -9629,7 +9629,7 @@
         <v>1.75</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
         <v>0.8</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.05</v>
@@ -10644,7 +10644,7 @@
         <v>1.6</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>1.14</v>
@@ -10850,7 +10850,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU51" t="n">
         <v>1.41</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.31</v>
@@ -11253,10 +11253,10 @@
         <v>2.4</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11659,10 +11659,10 @@
         <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU55" t="n">
         <v>1.6</v>
@@ -11862,7 +11862,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.13</v>
@@ -12065,10 +12065,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU57" t="n">
         <v>1.04</v>
@@ -12268,10 +12268,10 @@
         <v>0.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.06</v>
@@ -13080,7 +13080,7 @@
         <v>1.17</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.8</v>
@@ -13286,7 +13286,7 @@
         <v>1.93</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU63" t="n">
         <v>1.82</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU65" t="n">
         <v>1.02</v>
@@ -13895,7 +13895,7 @@
         <v>1.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU66" t="n">
         <v>1.96</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU67" t="n">
         <v>2.06</v>
@@ -14298,7 +14298,7 @@
         <v>0.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT68" t="n">
         <v>0.13</v>
@@ -14501,10 +14501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.84</v>
@@ -14907,10 +14907,10 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU71" t="n">
         <v>1.67</v>
@@ -15113,7 +15113,7 @@
         <v>1.93</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.84</v>
@@ -15316,7 +15316,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.44</v>
@@ -15516,7 +15516,7 @@
         <v>1.29</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15719,10 +15719,10 @@
         <v>2.14</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU75" t="n">
         <v>1.06</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.73</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU77" t="n">
         <v>1.85</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
         <v>1.53</v>
@@ -16737,7 +16737,7 @@
         <v>1.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80" t="n">
         <v>1.57</v>
@@ -17752,7 +17752,7 @@
         <v>1.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.3</v>
@@ -17952,7 +17952,7 @@
         <v>0.13</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT86" t="n">
         <v>0.13</v>
@@ -18155,10 +18155,10 @@
         <v>1.38</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU87" t="n">
         <v>1.52</v>
@@ -18358,10 +18358,10 @@
         <v>2.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.55</v>
@@ -18564,7 +18564,7 @@
         <v>2.2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU89" t="n">
         <v>2.12</v>
@@ -18764,7 +18764,7 @@
         <v>1.44</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT90" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>0.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.87</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU94" t="n">
         <v>1.28</v>
@@ -19982,10 +19982,10 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU96" t="n">
         <v>1.48</v>
@@ -20185,10 +20185,10 @@
         <v>2.22</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU97" t="n">
         <v>1.51</v>
@@ -20388,7 +20388,7 @@
         <v>1.33</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
         <v>1.14</v>
@@ -20591,7 +20591,7 @@
         <v>1.6</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>1.53</v>
@@ -20794,7 +20794,7 @@
         <v>1.11</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT100" t="n">
         <v>0.8</v>
@@ -21000,7 +21000,7 @@
         <v>1.4</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU101" t="n">
         <v>1.29</v>
@@ -21203,7 +21203,7 @@
         <v>1.73</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.92</v>
@@ -21609,7 +21609,7 @@
         <v>1.93</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -21812,7 +21812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.86</v>
@@ -22012,10 +22012,10 @@
         <v>1.27</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU106" t="n">
         <v>1.8</v>
@@ -22215,7 +22215,7 @@
         <v>1.22</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>1.1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22827,7 +22827,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU110" t="n">
         <v>2.07</v>
@@ -23027,10 +23027,10 @@
         <v>1.64</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23230,7 +23230,7 @@
         <v>0.09</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.13</v>
@@ -23436,7 +23436,7 @@
         <v>1.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU113" t="n">
         <v>1.62</v>
@@ -23839,10 +23839,10 @@
         <v>1.82</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU115" t="n">
         <v>1.18</v>
@@ -24045,7 +24045,7 @@
         <v>1.93</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU116" t="n">
         <v>1.64</v>
@@ -24448,10 +24448,10 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU118" t="n">
         <v>1.76</v>
@@ -24651,10 +24651,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU119" t="n">
         <v>1.62</v>
@@ -24854,7 +24854,7 @@
         <v>1.1</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU121" t="n">
         <v>1.17</v>
@@ -25260,7 +25260,7 @@
         <v>1.18</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT122" t="n">
         <v>1.14</v>
@@ -25463,10 +25463,10 @@
         <v>0.55</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU123" t="n">
         <v>1.42</v>
@@ -26072,7 +26072,7 @@
         <v>0.92</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT126" t="n">
         <v>0.8</v>
@@ -26275,7 +26275,7 @@
         <v>1.42</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.53</v>
@@ -26887,7 +26887,7 @@
         <v>2.2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27087,10 +27087,10 @@
         <v>1.77</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU131" t="n">
         <v>1.19</v>
@@ -27493,10 +27493,10 @@
         <v>1.46</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.58</v>
@@ -28102,10 +28102,10 @@
         <v>0.46</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU136" t="n">
         <v>1.68</v>
@@ -28305,7 +28305,7 @@
         <v>1.54</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT137" t="n">
         <v>1.53</v>
@@ -28511,7 +28511,7 @@
         <v>2.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU138" t="n">
         <v>1.96</v>
@@ -28714,7 +28714,7 @@
         <v>1.93</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU139" t="n">
         <v>1.7</v>
@@ -28914,7 +28914,7 @@
         <v>1.38</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.5</v>
@@ -29117,7 +29117,7 @@
         <v>1.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT141" t="n">
         <v>1.53</v>
@@ -29323,7 +29323,7 @@
         <v>1.73</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29526,7 +29526,7 @@
         <v>2.2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU143" t="n">
         <v>1.91</v>
@@ -29929,7 +29929,7 @@
         <v>0.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT145" t="n">
         <v>0.13</v>
@@ -30132,10 +30132,10 @@
         <v>1.79</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU146" t="n">
         <v>0.98</v>
@@ -30338,7 +30338,7 @@
         <v>1.73</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AU147" t="n">
         <v>1.79</v>
@@ -30538,7 +30538,7 @@
         <v>0.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>0.13</v>
@@ -30593,6 +30593,1021 @@
       </c>
       <c r="BK148" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5019419</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45191.65625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>31</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>6</v>
+      </c>
+      <c r="S149" t="n">
+        <v>11</v>
+      </c>
+      <c r="T149" t="n">
+        <v>4</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5019420</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45191.65625</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['28', '45+2']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>6</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>6</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5019421</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45191.65625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['49', '57', '90+8']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>6</v>
+      </c>
+      <c r="S151" t="n">
+        <v>7</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5019422</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45191.65625</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>10</v>
+      </c>
+      <c r="S152" t="n">
+        <v>10</v>
+      </c>
+      <c r="T152" t="n">
+        <v>17</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X152" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5019423</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45191.65625</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>6</v>
+      </c>
+      <c r="T153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT3" t="n">
         <v>0.13</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT5" t="n">
         <v>1.75</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2121,7 +2121,7 @@
         <v>1.73</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU10" t="n">
         <v>1.15</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT13" t="n">
         <v>1.53</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>1.79</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU18" t="n">
         <v>1.73</v>
@@ -4760,7 +4760,7 @@
         <v>2.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4963,7 +4963,7 @@
         <v>0.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>1.18</v>
@@ -5163,7 +5163,7 @@
         <v>1.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1.31</v>
@@ -5775,7 +5775,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU26" t="n">
         <v>1.71</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU28" t="n">
         <v>1.4</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT30" t="n">
         <v>0.13</v>
@@ -7193,7 +7193,7 @@
         <v>0.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT33" t="n">
         <v>0.13</v>
@@ -7399,7 +7399,7 @@
         <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.45</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT35" t="n">
         <v>1.63</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT37" t="n">
         <v>1.63</v>
@@ -8211,7 +8211,7 @@
         <v>1.73</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU38" t="n">
         <v>1.84</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8614,10 +8614,10 @@
         <v>0.67</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8820,7 +8820,7 @@
         <v>0.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU41" t="n">
         <v>1.1</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT47" t="n">
         <v>1.53</v>
@@ -10241,7 +10241,7 @@
         <v>0.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU48" t="n">
         <v>1.05</v>
@@ -10444,7 +10444,7 @@
         <v>2.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU49" t="n">
         <v>2.31</v>
@@ -10647,7 +10647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -10847,7 +10847,7 @@
         <v>2.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT51" t="n">
         <v>1.75</v>
@@ -11659,7 +11659,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT55" t="n">
         <v>1.63</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU58" t="n">
         <v>1.06</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU60" t="n">
         <v>1.38</v>
@@ -13080,7 +13080,7 @@
         <v>1.17</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT62" t="n">
         <v>0.8</v>
@@ -13283,10 +13283,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU63" t="n">
         <v>1.82</v>
@@ -13489,7 +13489,7 @@
         <v>1.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU64" t="n">
         <v>1.85</v>
@@ -15110,7 +15110,7 @@
         <v>2.43</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT72" t="n">
         <v>1.75</v>
@@ -15313,10 +15313,10 @@
         <v>0.29</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.44</v>
@@ -15516,10 +15516,10 @@
         <v>1.29</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU74" t="n">
         <v>1.47</v>
@@ -15925,7 +15925,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU76" t="n">
         <v>1.67</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT80" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>2.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17546,10 +17546,10 @@
         <v>1.29</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU84" t="n">
         <v>1.66</v>
@@ -18155,7 +18155,7 @@
         <v>1.38</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT87" t="n">
         <v>1.13</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.87</v>
@@ -19173,7 +19173,7 @@
         <v>1.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.92</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT93" t="n">
         <v>0.8</v>
@@ -19779,7 +19779,7 @@
         <v>0.11</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT95" t="n">
         <v>0.13</v>
@@ -20185,7 +20185,7 @@
         <v>2.22</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT97" t="n">
         <v>1.75</v>
@@ -20391,7 +20391,7 @@
         <v>1.75</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU98" t="n">
         <v>1.17</v>
@@ -21606,7 +21606,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT104" t="n">
         <v>1.63</v>
@@ -21812,7 +21812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU105" t="n">
         <v>1.86</v>
@@ -22215,10 +22215,10 @@
         <v>1.22</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU107" t="n">
         <v>1.55</v>
@@ -22621,7 +22621,7 @@
         <v>1.45</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT109" t="n">
         <v>1.53</v>
@@ -23230,7 +23230,7 @@
         <v>0.09</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT112" t="n">
         <v>0.13</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT113" t="n">
         <v>1.63</v>
@@ -23639,7 +23639,7 @@
         <v>1.4</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU114" t="n">
         <v>1.23</v>
@@ -24042,7 +24042,7 @@
         <v>1.42</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT116" t="n">
         <v>1.13</v>
@@ -24651,10 +24651,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.62</v>
@@ -24857,7 +24857,7 @@
         <v>0.6</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU120" t="n">
         <v>1.01</v>
@@ -25263,7 +25263,7 @@
         <v>0.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU122" t="n">
         <v>0.95</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.42</v>
@@ -25666,7 +25666,7 @@
         <v>0.08</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT124" t="n">
         <v>0.13</v>
@@ -25872,7 +25872,7 @@
         <v>1.4</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU125" t="n">
         <v>1.18</v>
@@ -26478,10 +26478,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU128" t="n">
         <v>1.67</v>
@@ -26681,10 +26681,10 @@
         <v>1.42</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU129" t="n">
         <v>1.57</v>
@@ -26887,7 +26887,7 @@
         <v>2.2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27290,7 +27290,7 @@
         <v>0.92</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT132" t="n">
         <v>0.8</v>
@@ -27493,7 +27493,7 @@
         <v>1.46</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT133" t="n">
         <v>1.31</v>
@@ -27902,7 +27902,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28105,7 +28105,7 @@
         <v>1.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU136" t="n">
         <v>1.68</v>
@@ -28711,7 +28711,7 @@
         <v>1.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT139" t="n">
         <v>1.75</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29320,7 +29320,7 @@
         <v>1.69</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT142" t="n">
         <v>1.75</v>
@@ -30947,7 +30947,7 @@
         <v>1.75</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU150" t="n">
         <v>1.25</v>
@@ -31147,7 +31147,7 @@
         <v>1.21</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT151" t="n">
         <v>1.13</v>
@@ -31608,6 +31608,615 @@
       </c>
       <c r="BK153" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5019414</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45194.65625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>30</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5019416</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45194.65625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>30</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>5</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['18', '27', '33', '55', '87']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>7</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5019417</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45194.65625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>30</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['6', '81']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -31795,22 +31795,22 @@
         <v>3</v>
       </c>
       <c r="BF154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG154" t="n">
         <v>3</v>
       </c>
       <c r="BH154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ154" t="n">
         <v>14</v>
       </c>
-      <c r="BI154" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ154" t="n">
-        <v>21</v>
-      </c>
       <c r="BK154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ156"/>
+  <dimension ref="A1:AZ161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.31</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.13</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.38</v>
@@ -2199,7 +2199,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR10" t="n">
         <v>1.15</v>
@@ -2369,7 +2369,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR13" t="n">
         <v>1.66</v>
@@ -2876,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR14" t="n">
         <v>1.3</v>
@@ -3049,7 +3049,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR15" t="n">
         <v>1.95</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.75</v>
@@ -3386,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR17" t="n">
         <v>1.79</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR18" t="n">
         <v>1.73</v>
@@ -3729,7 +3729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR19" t="n">
         <v>2.15</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.38</v>
@@ -4239,7 +4239,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR22" t="n">
         <v>1.18</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.13</v>
@@ -5256,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR28" t="n">
         <v>1.4</v>
@@ -5426,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR29" t="n">
         <v>2.27</v>
@@ -5596,10 +5596,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -5766,10 +5766,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR31" t="n">
         <v>1.78</v>
@@ -6109,7 +6109,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR33" t="n">
         <v>1.2</v>
@@ -6276,10 +6276,10 @@
         <v>1.33</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR34" t="n">
         <v>1.45</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.63</v>
@@ -6786,7 +6786,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.63</v>
@@ -6956,10 +6956,10 @@
         <v>1.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR38" t="n">
         <v>1.84</v>
@@ -7126,10 +7126,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR39" t="n">
         <v>1.45</v>
@@ -7469,7 +7469,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR41" t="n">
         <v>1.1</v>
@@ -7636,7 +7636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.13</v>
@@ -7806,7 +7806,7 @@
         <v>2.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.31</v>
@@ -7979,7 +7979,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR44" t="n">
         <v>2.09</v>
@@ -8149,7 +8149,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.07</v>
@@ -8316,10 +8316,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -8486,10 +8486,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -8826,10 +8826,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR49" t="n">
         <v>2.31</v>
@@ -8999,7 +8999,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR50" t="n">
         <v>1.75</v>
@@ -9166,7 +9166,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.75</v>
@@ -9336,7 +9336,7 @@
         <v>2.2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.75</v>
@@ -10019,7 +10019,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR56" t="n">
         <v>1.62</v>
@@ -10526,10 +10526,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR59" t="n">
         <v>2.01</v>
@@ -10696,10 +10696,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR60" t="n">
         <v>1.38</v>
@@ -10866,10 +10866,10 @@
         <v>1.4</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -11039,7 +11039,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR62" t="n">
         <v>1.54</v>
@@ -11206,7 +11206,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.38</v>
@@ -11379,7 +11379,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR64" t="n">
         <v>1.85</v>
@@ -11716,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.63</v>
@@ -11886,7 +11886,7 @@
         <v>2.29</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.31</v>
@@ -12059,7 +12059,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR68" t="n">
         <v>1.11</v>
@@ -12396,10 +12396,10 @@
         <v>1.17</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR70" t="n">
         <v>1.33</v>
@@ -12736,7 +12736,7 @@
         <v>2.43</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.75</v>
@@ -12906,7 +12906,7 @@
         <v>0.29</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.38</v>
@@ -13079,7 +13079,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR74" t="n">
         <v>1.47</v>
@@ -13419,7 +13419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -13586,7 +13586,7 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.13</v>
@@ -13756,10 +13756,10 @@
         <v>1.43</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR78" t="n">
         <v>1.98</v>
@@ -13929,7 +13929,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR79" t="n">
         <v>1.13</v>
@@ -14096,7 +14096,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.31</v>
@@ -14266,10 +14266,10 @@
         <v>0.14</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR81" t="n">
         <v>1.8</v>
@@ -14436,10 +14436,10 @@
         <v>1.43</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -14606,10 +14606,10 @@
         <v>1.13</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -14776,10 +14776,10 @@
         <v>1.29</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR84" t="n">
         <v>1.66</v>
@@ -14946,7 +14946,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.63</v>
@@ -15119,7 +15119,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -15626,7 +15626,7 @@
         <v>1.22</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.13</v>
@@ -15799,7 +15799,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -16136,10 +16136,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR92" t="n">
         <v>1.92</v>
@@ -16306,10 +16306,10 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR93" t="n">
         <v>1.6</v>
@@ -16476,7 +16476,7 @@
         <v>1.89</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.31</v>
@@ -16646,10 +16646,10 @@
         <v>0.11</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR95" t="n">
         <v>1.57</v>
@@ -17159,7 +17159,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR98" t="n">
         <v>1.17</v>
@@ -17329,7 +17329,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR99" t="n">
         <v>1.8</v>
@@ -17499,7 +17499,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR100" t="n">
         <v>1.17</v>
@@ -17666,7 +17666,7 @@
         <v>1.1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.13</v>
@@ -17836,7 +17836,7 @@
         <v>1.7</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.31</v>
@@ -18006,10 +18006,10 @@
         <v>0.1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR103" t="n">
         <v>2.07</v>
@@ -18176,7 +18176,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.63</v>
@@ -18346,7 +18346,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.38</v>
@@ -18689,7 +18689,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -18859,7 +18859,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR108" t="n">
         <v>1.04</v>
@@ -19026,10 +19026,10 @@
         <v>1.45</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR109" t="n">
         <v>1.67</v>
@@ -19196,7 +19196,7 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.75</v>
@@ -19539,7 +19539,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR112" t="n">
         <v>1.51</v>
@@ -19706,7 +19706,7 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.63</v>
@@ -19876,10 +19876,10 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR114" t="n">
         <v>1.23</v>
@@ -20216,7 +20216,7 @@
         <v>1.42</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.13</v>
@@ -20386,10 +20386,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR117" t="n">
         <v>1.81</v>
@@ -20899,7 +20899,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR120" t="n">
         <v>1.01</v>
@@ -21239,7 +21239,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR122" t="n">
         <v>0.95</v>
@@ -21576,10 +21576,10 @@
         <v>0.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR124" t="n">
         <v>1.64</v>
@@ -21746,10 +21746,10 @@
         <v>1.27</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR125" t="n">
         <v>1.18</v>
@@ -21919,7 +21919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR126" t="n">
         <v>1.69</v>
@@ -22089,7 +22089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR127" t="n">
         <v>1.49</v>
@@ -22256,10 +22256,10 @@
         <v>1.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -22426,10 +22426,10 @@
         <v>1.42</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -22596,7 +22596,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.38</v>
@@ -22936,10 +22936,10 @@
         <v>0.92</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR132" t="n">
         <v>1.55</v>
@@ -23276,10 +23276,10 @@
         <v>0.08</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR134" t="n">
         <v>1.14</v>
@@ -23446,10 +23446,10 @@
         <v>1.23</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR135" t="n">
         <v>1.8</v>
@@ -23789,7 +23789,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR137" t="n">
         <v>0.95</v>
@@ -23956,7 +23956,7 @@
         <v>1.31</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.13</v>
@@ -24126,7 +24126,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.75</v>
@@ -24299,7 +24299,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR140" t="n">
         <v>1.49</v>
@@ -24469,7 +24469,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -24636,7 +24636,7 @@
         <v>1.69</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.75</v>
@@ -24806,7 +24806,7 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.31</v>
@@ -24976,10 +24976,10 @@
         <v>0.86</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR144" t="n">
         <v>1.18</v>
@@ -25149,7 +25149,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR145" t="n">
         <v>1.67</v>
@@ -25486,7 +25486,7 @@
         <v>1.71</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.63</v>
@@ -25659,7 +25659,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AR148" t="n">
         <v>1.48</v>
@@ -26676,10 +26676,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR154" t="n">
         <v>1.66</v>
@@ -26846,7 +26846,7 @@
         <v>0.4</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.38</v>
@@ -27019,7 +27019,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -27047,6 +27047,856 @@
       </c>
       <c r="AZ156" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5019428</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45198.65625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5019427</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45198.65625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['40', '46', '77']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X158" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5019424</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45198.65625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['55', '73', '85']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X159" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5019425</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45198.65625</v>
+      </c>
+      <c r="F160" t="n">
+        <v>32</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X160" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5019426</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45198.65625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>32</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>6</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>6</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['5', '46', '54', '69', '76', '89']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>17</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U161" t="n">
+        <v>4</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X161" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -27201,7 +27201,7 @@
         <v>3.14</v>
       </c>
       <c r="AU157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV157" t="n">
         <v>2</v>
@@ -27213,7 +27213,7 @@
         <v>1</v>
       </c>
       <c r="AY157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ157" t="n">
         <v>3</v>
@@ -27371,22 +27371,22 @@
         <v>2.77</v>
       </c>
       <c r="AU158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW158" t="n">
         <v>3</v>
       </c>
       <c r="AX158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ158" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -27541,22 +27541,22 @@
         <v>3.02</v>
       </c>
       <c r="AU159" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV159" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW159" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX159" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY159" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ159" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -27711,22 +27711,22 @@
         <v>2.58</v>
       </c>
       <c r="AU160" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV160" t="n">
         <v>3</v>
       </c>
       <c r="AW160" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY160" t="n">
         <v>14</v>
       </c>
       <c r="AZ160" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -27881,22 +27881,22 @@
         <v>2.69</v>
       </c>
       <c r="AU161" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY161" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ161"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>11</v>
       </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>9</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>8</v>
       </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>9</v>
       </c>
+      <c r="BA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>14</v>
       </c>
+      <c r="BA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>7</v>
       </c>
+      <c r="BA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>12</v>
       </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>21</v>
       </c>
+      <c r="BA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>14</v>
       </c>
+      <c r="BA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>20</v>
       </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>8</v>
       </c>
+      <c r="BA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>12</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>8</v>
       </c>
+      <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
+      <c r="BA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
+      <c r="BA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>14</v>
       </c>
+      <c r="BA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>14</v>
       </c>
+      <c r="BA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>9</v>
       </c>
+      <c r="BA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>13</v>
       </c>
+      <c r="BA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>19</v>
       </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>14</v>
       </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>6</v>
       </c>
+      <c r="BA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>11</v>
       </c>
+      <c r="BA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>5</v>
       </c>
+      <c r="BA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>6</v>
       </c>
+      <c r="BA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>10</v>
       </c>
+      <c r="BA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>7</v>
       </c>
+      <c r="BA31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>10</v>
       </c>
+      <c r="BA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>11</v>
       </c>
+      <c r="BA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>7</v>
       </c>
+      <c r="BA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>16</v>
       </c>
+      <c r="BA35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>11</v>
       </c>
+      <c r="BA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>16</v>
       </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>8</v>
       </c>
+      <c r="BA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>13</v>
       </c>
+      <c r="BA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>10</v>
       </c>
+      <c r="BA40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>6</v>
       </c>
+      <c r="BA41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>10</v>
       </c>
+      <c r="BA42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>7</v>
       </c>
+      <c r="BA43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>15</v>
       </c>
+      <c r="BA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>11</v>
       </c>
+      <c r="BA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>6</v>
       </c>
+      <c r="BA46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>10</v>
       </c>
+      <c r="BA47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>7</v>
       </c>
+      <c r="BA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>7</v>
       </c>
+      <c r="BA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>9</v>
       </c>
+      <c r="BA50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>10</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>9</v>
       </c>
+      <c r="BA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>9</v>
       </c>
+      <c r="BA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>20</v>
       </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>16</v>
       </c>
+      <c r="BA55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>7</v>
       </c>
+      <c r="BA56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>6</v>
       </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>13</v>
       </c>
+      <c r="BA58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>9</v>
       </c>
+      <c r="BA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>8</v>
       </c>
+      <c r="BA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>19</v>
       </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>12</v>
       </c>
+      <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>5</v>
       </c>
+      <c r="BA63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>10</v>
       </c>
+      <c r="BA64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>10</v>
       </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>8</v>
       </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>13</v>
       </c>
+      <c r="BA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>13</v>
       </c>
+      <c r="BA68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>13</v>
       </c>
+      <c r="BA69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>16</v>
       </c>
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>14</v>
       </c>
+      <c r="BA71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>18</v>
       </c>
+      <c r="BA72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>7</v>
       </c>
+      <c r="BA73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>11</v>
       </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>21</v>
       </c>
+      <c r="BA75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>11</v>
       </c>
+      <c r="BA76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>8</v>
       </c>
+      <c r="BA77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>9</v>
       </c>
+      <c r="BA78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>17</v>
       </c>
+      <c r="BA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>13</v>
       </c>
+      <c r="BA80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>10</v>
       </c>
+      <c r="BA81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>11</v>
       </c>
+      <c r="BA82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>9</v>
       </c>
+      <c r="BA83" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>10</v>
       </c>
+      <c r="BA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>11</v>
       </c>
+      <c r="BA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>13</v>
       </c>
+      <c r="BA86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>15</v>
       </c>
+      <c r="BA87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>14</v>
       </c>
+      <c r="BA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15658,6 +19914,54 @@
       <c r="AZ89" t="n">
         <v>12</v>
       </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -15828,6 +20132,54 @@
       <c r="AZ90" t="n">
         <v>13</v>
       </c>
+      <c r="BA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -15998,6 +20350,54 @@
       <c r="AZ91" t="n">
         <v>7</v>
       </c>
+      <c r="BA91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -16168,6 +20568,54 @@
       <c r="AZ92" t="n">
         <v>8</v>
       </c>
+      <c r="BA92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -16338,6 +20786,54 @@
       <c r="AZ93" t="n">
         <v>7</v>
       </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -16508,6 +21004,54 @@
       <c r="AZ94" t="n">
         <v>12</v>
       </c>
+      <c r="BA94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -16678,6 +21222,54 @@
       <c r="AZ95" t="n">
         <v>4</v>
       </c>
+      <c r="BA95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -16848,6 +21440,54 @@
       <c r="AZ96" t="n">
         <v>16</v>
       </c>
+      <c r="BA96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17018,6 +21658,54 @@
       <c r="AZ97" t="n">
         <v>7</v>
       </c>
+      <c r="BA97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17188,6 +21876,54 @@
       <c r="AZ98" t="n">
         <v>9</v>
       </c>
+      <c r="BA98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17358,6 +22094,54 @@
       <c r="AZ99" t="n">
         <v>9</v>
       </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17528,6 +22312,54 @@
       <c r="AZ100" t="n">
         <v>12</v>
       </c>
+      <c r="BA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17698,6 +22530,54 @@
       <c r="AZ101" t="n">
         <v>9</v>
       </c>
+      <c r="BA101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17868,6 +22748,54 @@
       <c r="AZ102" t="n">
         <v>7</v>
       </c>
+      <c r="BA102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -18038,6 +22966,54 @@
       <c r="AZ103" t="n">
         <v>2</v>
       </c>
+      <c r="BA103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -18208,6 +23184,54 @@
       <c r="AZ104" t="n">
         <v>11</v>
       </c>
+      <c r="BA104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -18378,6 +23402,54 @@
       <c r="AZ105" t="n">
         <v>8</v>
       </c>
+      <c r="BA105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18548,6 +23620,54 @@
       <c r="AZ106" t="n">
         <v>9</v>
       </c>
+      <c r="BA106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18718,6 +23838,54 @@
       <c r="AZ107" t="n">
         <v>8</v>
       </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18888,6 +24056,54 @@
       <c r="AZ108" t="n">
         <v>11</v>
       </c>
+      <c r="BA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -19058,6 +24274,54 @@
       <c r="AZ109" t="n">
         <v>11</v>
       </c>
+      <c r="BA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -19228,6 +24492,54 @@
       <c r="AZ110" t="n">
         <v>5</v>
       </c>
+      <c r="BA110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -19398,6 +24710,54 @@
       <c r="AZ111" t="n">
         <v>5</v>
       </c>
+      <c r="BA111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -19568,6 +24928,54 @@
       <c r="AZ112" t="n">
         <v>2</v>
       </c>
+      <c r="BA112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -19738,6 +25146,54 @@
       <c r="AZ113" t="n">
         <v>9</v>
       </c>
+      <c r="BA113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -19908,6 +25364,54 @@
       <c r="AZ114" t="n">
         <v>11</v>
       </c>
+      <c r="BA114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -20078,6 +25582,54 @@
       <c r="AZ115" t="n">
         <v>10</v>
       </c>
+      <c r="BA115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -20248,6 +25800,54 @@
       <c r="AZ116" t="n">
         <v>5</v>
       </c>
+      <c r="BA116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -20418,6 +26018,54 @@
       <c r="AZ117" t="n">
         <v>11</v>
       </c>
+      <c r="BA117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -20588,6 +26236,54 @@
       <c r="AZ118" t="n">
         <v>10</v>
       </c>
+      <c r="BA118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -20758,6 +26454,54 @@
       <c r="AZ119" t="n">
         <v>4</v>
       </c>
+      <c r="BA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -20928,6 +26672,54 @@
       <c r="AZ120" t="n">
         <v>23</v>
       </c>
+      <c r="BA120" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -21098,6 +26890,54 @@
       <c r="AZ121" t="n">
         <v>12</v>
       </c>
+      <c r="BA121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -21268,6 +27108,54 @@
       <c r="AZ122" t="n">
         <v>11</v>
       </c>
+      <c r="BA122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -21438,6 +27326,54 @@
       <c r="AZ123" t="n">
         <v>5</v>
       </c>
+      <c r="BA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -21608,6 +27544,54 @@
       <c r="AZ124" t="n">
         <v>4</v>
       </c>
+      <c r="BA124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -21778,6 +27762,54 @@
       <c r="AZ125" t="n">
         <v>7</v>
       </c>
+      <c r="BA125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -21948,6 +27980,54 @@
       <c r="AZ126" t="n">
         <v>5</v>
       </c>
+      <c r="BA126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -22118,6 +28198,54 @@
       <c r="AZ127" t="n">
         <v>14</v>
       </c>
+      <c r="BA127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -22288,6 +28416,54 @@
       <c r="AZ128" t="n">
         <v>14</v>
       </c>
+      <c r="BA128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -22458,6 +28634,54 @@
       <c r="AZ129" t="n">
         <v>8</v>
       </c>
+      <c r="BA129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -22628,6 +28852,54 @@
       <c r="AZ130" t="n">
         <v>11</v>
       </c>
+      <c r="BA130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -22798,6 +29070,54 @@
       <c r="AZ131" t="n">
         <v>13</v>
       </c>
+      <c r="BA131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -22968,6 +29288,54 @@
       <c r="AZ132" t="n">
         <v>6</v>
       </c>
+      <c r="BA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -23138,6 +29506,54 @@
       <c r="AZ133" t="n">
         <v>10</v>
       </c>
+      <c r="BA133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -23308,6 +29724,54 @@
       <c r="AZ134" t="n">
         <v>10</v>
       </c>
+      <c r="BA134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -23478,6 +29942,54 @@
       <c r="AZ135" t="n">
         <v>7</v>
       </c>
+      <c r="BA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -23648,6 +30160,54 @@
       <c r="AZ136" t="n">
         <v>10</v>
       </c>
+      <c r="BA136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -23818,6 +30378,54 @@
       <c r="AZ137" t="n">
         <v>5</v>
       </c>
+      <c r="BA137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -23988,6 +30596,54 @@
       <c r="AZ138" t="n">
         <v>8</v>
       </c>
+      <c r="BA138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -24158,6 +30814,54 @@
       <c r="AZ139" t="n">
         <v>9</v>
       </c>
+      <c r="BA139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -24328,6 +31032,54 @@
       <c r="AZ140" t="n">
         <v>13</v>
       </c>
+      <c r="BA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -24498,6 +31250,54 @@
       <c r="AZ141" t="n">
         <v>7</v>
       </c>
+      <c r="BA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -24668,6 +31468,54 @@
       <c r="AZ142" t="n">
         <v>9</v>
       </c>
+      <c r="BA142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -24838,6 +31686,54 @@
       <c r="AZ143" t="n">
         <v>7</v>
       </c>
+      <c r="BA143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -25008,6 +31904,54 @@
       <c r="AZ144" t="n">
         <v>9</v>
       </c>
+      <c r="BA144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -25178,6 +32122,54 @@
       <c r="AZ145" t="n">
         <v>9</v>
       </c>
+      <c r="BA145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -25348,6 +32340,54 @@
       <c r="AZ146" t="n">
         <v>15</v>
       </c>
+      <c r="BA146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -25518,6 +32558,54 @@
       <c r="AZ147" t="n">
         <v>10</v>
       </c>
+      <c r="BA147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -25688,6 +32776,54 @@
       <c r="AZ148" t="n">
         <v>2</v>
       </c>
+      <c r="BA148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -25858,6 +32994,54 @@
       <c r="AZ149" t="n">
         <v>8</v>
       </c>
+      <c r="BA149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -26028,6 +33212,54 @@
       <c r="AZ150" t="n">
         <v>12</v>
       </c>
+      <c r="BA150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -26198,6 +33430,54 @@
       <c r="AZ151" t="n">
         <v>7</v>
       </c>
+      <c r="BA151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -26368,6 +33648,54 @@
       <c r="AZ152" t="n">
         <v>15</v>
       </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -26538,6 +33866,54 @@
       <c r="AZ153" t="n">
         <v>6</v>
       </c>
+      <c r="BA153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -26708,6 +34084,54 @@
       <c r="AZ154" t="n">
         <v>4</v>
       </c>
+      <c r="BA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -26878,6 +34302,54 @@
       <c r="AZ155" t="n">
         <v>11</v>
       </c>
+      <c r="BA155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -27048,6 +34520,54 @@
       <c r="AZ156" t="n">
         <v>5</v>
       </c>
+      <c r="BA156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -27218,6 +34738,54 @@
       <c r="AZ157" t="n">
         <v>3</v>
       </c>
+      <c r="BA157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -27388,6 +34956,54 @@
       <c r="AZ158" t="n">
         <v>7</v>
       </c>
+      <c r="BA158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -27558,6 +35174,54 @@
       <c r="AZ159" t="n">
         <v>8</v>
       </c>
+      <c r="BA159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -27728,6 +35392,54 @@
       <c r="AZ160" t="n">
         <v>10</v>
       </c>
+      <c r="BA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -27897,6 +35609,54 @@
       </c>
       <c r="AZ161" t="n">
         <v>3</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.19</v>
@@ -1573,7 +1573,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.63</v>
@@ -3096,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.31</v>
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.75</v>
@@ -3971,7 +3971,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR20" t="n">
         <v>1.45</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.63</v>
@@ -5933,7 +5933,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR25" t="n">
         <v>1.42</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR27" t="n">
         <v>2.19</v>
@@ -7456,10 +7456,10 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR32" t="n">
         <v>0.99</v>
@@ -9639,7 +9639,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -10072,7 +10072,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.63</v>
@@ -10290,7 +10290,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.75</v>
@@ -11601,7 +11601,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11819,7 +11819,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR52" t="n">
         <v>1.31</v>
@@ -12034,7 +12034,7 @@
         <v>2.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.31</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR54" t="n">
         <v>1.12</v>
@@ -13124,7 +13124,7 @@
         <v>0.4</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.38</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.38</v>
@@ -14653,7 +14653,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR65" t="n">
         <v>1.02</v>
@@ -15304,7 +15304,7 @@
         <v>0.17</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.12</v>
@@ -15522,10 +15522,10 @@
         <v>2.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR69" t="n">
         <v>1.84</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR71" t="n">
         <v>1.67</v>
@@ -16179,7 +16179,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR72" t="n">
         <v>1.84</v>
@@ -17269,7 +17269,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR77" t="n">
         <v>1.85</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.63</v>
@@ -19228,7 +19228,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.12</v>
@@ -19449,7 +19449,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -19667,7 +19667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR88" t="n">
         <v>1.55</v>
@@ -19885,7 +19885,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR89" t="n">
         <v>2.12</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.38</v>
@@ -21629,7 +21629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR97" t="n">
         <v>1.51</v>
@@ -21844,7 +21844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.19</v>
@@ -22062,7 +22062,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.63</v>
@@ -22280,7 +22280,7 @@
         <v>1.11</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.75</v>
@@ -22501,7 +22501,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -23588,10 +23588,10 @@
         <v>1.27</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR106" t="n">
         <v>1.8</v>
@@ -24463,7 +24463,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR110" t="n">
         <v>2.07</v>
@@ -25550,10 +25550,10 @@
         <v>1.82</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR115" t="n">
         <v>1.18</v>
@@ -25771,7 +25771,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR116" t="n">
         <v>1.64</v>
@@ -26204,7 +26204,7 @@
         <v>1.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.63</v>
@@ -26858,7 +26858,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.31</v>
@@ -27948,7 +27948,7 @@
         <v>0.92</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.75</v>
@@ -29038,7 +29038,7 @@
         <v>1.77</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.63</v>
@@ -30128,7 +30128,7 @@
         <v>0.46</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.38</v>
@@ -30567,7 +30567,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR138" t="n">
         <v>1.96</v>
@@ -30785,7 +30785,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR139" t="n">
         <v>1.7</v>
@@ -31218,7 +31218,7 @@
         <v>1.64</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.63</v>
@@ -31439,7 +31439,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR142" t="n">
         <v>1.53</v>
@@ -32090,7 +32090,7 @@
         <v>0.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.12</v>
@@ -32311,7 +32311,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR146" t="n">
         <v>0.98</v>
@@ -32962,7 +32962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.31</v>
@@ -33180,7 +33180,7 @@
         <v>0.43</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.38</v>
@@ -33401,7 +33401,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR151" t="n">
         <v>1.56</v>
@@ -33837,7 +33837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR153" t="n">
         <v>1.47</v>
@@ -35657,6 +35657,442 @@
       </c>
       <c r="BP161" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5019430</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45205.65625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>33</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X162" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5019431</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45205.65625</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.75</v>
@@ -3099,7 +3099,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR12" t="n">
         <v>1.21</v>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.71</v>
@@ -5276,7 +5276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.19</v>
@@ -5497,7 +5497,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR23" t="n">
         <v>1.26</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR36" t="n">
         <v>1.81</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.38</v>
@@ -9857,7 +9857,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR43" t="n">
         <v>2.06</v>
@@ -10944,7 +10944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.38</v>
@@ -12037,7 +12037,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR53" t="n">
         <v>1.9</v>
@@ -12906,10 +12906,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR57" t="n">
         <v>1.04</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.06</v>
@@ -15089,7 +15089,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR67" t="n">
         <v>2.06</v>
@@ -16830,7 +16830,7 @@
         <v>2.14</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.63</v>
@@ -17923,7 +17923,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR80" t="n">
         <v>1.57</v>
@@ -20100,7 +20100,7 @@
         <v>1.44</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.63</v>
@@ -20975,7 +20975,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR94" t="n">
         <v>1.28</v>
@@ -22719,7 +22719,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR102" t="n">
         <v>1.92</v>
@@ -24024,7 +24024,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.75</v>
@@ -24681,7 +24681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR111" t="n">
         <v>1.41</v>
@@ -26640,7 +26640,7 @@
         <v>1.1</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.38</v>
@@ -26861,7 +26861,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR121" t="n">
         <v>1.17</v>
@@ -27076,7 +27076,7 @@
         <v>1.18</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.19</v>
@@ -29477,7 +29477,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR133" t="n">
         <v>1.58</v>
@@ -30346,7 +30346,7 @@
         <v>1.54</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.63</v>
@@ -31657,7 +31657,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR143" t="n">
         <v>1.91</v>
@@ -32308,7 +32308,7 @@
         <v>1.79</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.71</v>
@@ -32965,7 +32965,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR149" t="n">
         <v>1.65</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.63</v>
@@ -36093,6 +36093,224 @@
       </c>
       <c r="BP163" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5019433</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45211.65625</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['46', '66']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>9</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U164" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X164" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.63</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR10" t="n">
         <v>1.15</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.75</v>
@@ -3317,7 +3317,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR13" t="n">
         <v>1.66</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.19</v>
@@ -4407,7 +4407,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR18" t="n">
         <v>1.73</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR19" t="n">
         <v>2.15</v>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.71</v>
@@ -5061,7 +5061,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR21" t="n">
         <v>1.43</v>
@@ -5276,7 +5276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.19</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR25" t="n">
         <v>1.42</v>
@@ -6148,10 +6148,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR26" t="n">
         <v>1.71</v>
@@ -6369,7 +6369,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR27" t="n">
         <v>2.19</v>
@@ -6587,7 +6587,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR28" t="n">
         <v>1.4</v>
@@ -6805,7 +6805,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR29" t="n">
         <v>2.27</v>
@@ -7020,7 +7020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.12</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.75</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.41</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.63</v>
@@ -8764,7 +8764,7 @@
         <v>1.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.19</v>
@@ -9203,7 +9203,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR40" t="n">
         <v>1.52</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR41" t="n">
         <v>1.1</v>
@@ -9639,7 +9639,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>2.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.41</v>
@@ -10075,7 +10075,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR44" t="n">
         <v>2.09</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -10944,10 +10944,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR48" t="n">
         <v>1.05</v>
@@ -11165,7 +11165,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR49" t="n">
         <v>2.31</v>
@@ -11380,7 +11380,7 @@
         <v>1.6</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.19</v>
@@ -12255,7 +12255,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR54" t="n">
         <v>1.12</v>
@@ -12688,7 +12688,7 @@
         <v>0.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.12</v>
@@ -12906,7 +12906,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.41</v>
@@ -13127,7 +13127,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR58" t="n">
         <v>1.06</v>
@@ -13342,10 +13342,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR59" t="n">
         <v>2.01</v>
@@ -14214,10 +14214,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR63" t="n">
         <v>1.82</v>
@@ -14435,7 +14435,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR64" t="n">
         <v>1.85</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR65" t="n">
         <v>1.02</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.63</v>
@@ -15743,7 +15743,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR70" t="n">
         <v>1.33</v>
@@ -15958,10 +15958,10 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR71" t="n">
         <v>1.67</v>
@@ -16176,7 +16176,7 @@
         <v>2.43</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.71</v>
@@ -16397,7 +16397,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR73" t="n">
         <v>1.44</v>
@@ -16830,7 +16830,7 @@
         <v>2.14</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.63</v>
@@ -17048,10 +17048,10 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17266,10 +17266,10 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR77" t="n">
         <v>1.85</v>
@@ -17487,7 +17487,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR78" t="n">
         <v>1.98</v>
@@ -17705,7 +17705,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.13</v>
@@ -18138,7 +18138,7 @@
         <v>0.14</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.12</v>
@@ -18792,10 +18792,10 @@
         <v>1.29</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR84" t="n">
         <v>1.66</v>
@@ -19449,7 +19449,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -19664,7 +19664,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.71</v>
@@ -19885,7 +19885,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR89" t="n">
         <v>2.12</v>
@@ -20100,10 +20100,10 @@
         <v>1.44</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20321,7 +20321,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR91" t="n">
         <v>1.87</v>
@@ -20536,10 +20536,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR92" t="n">
         <v>1.92</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.75</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.63</v>
@@ -22065,7 +22065,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.8</v>
@@ -22501,7 +22501,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>1.7</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.41</v>
@@ -23152,7 +23152,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.63</v>
@@ -23370,10 +23370,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR105" t="n">
         <v>1.86</v>
@@ -23591,7 +23591,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR106" t="n">
         <v>1.8</v>
@@ -23809,7 +23809,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24024,7 +24024,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.75</v>
@@ -24245,7 +24245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR109" t="n">
         <v>1.67</v>
@@ -24678,7 +24678,7 @@
         <v>1.64</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.41</v>
@@ -25768,10 +25768,10 @@
         <v>1.42</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR116" t="n">
         <v>1.64</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.75</v>
@@ -26425,7 +26425,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -26640,10 +26640,10 @@
         <v>1.1</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR120" t="n">
         <v>1.01</v>
@@ -27076,7 +27076,7 @@
         <v>1.18</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.19</v>
@@ -27294,10 +27294,10 @@
         <v>0.55</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR123" t="n">
         <v>1.42</v>
@@ -27512,7 +27512,7 @@
         <v>0.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.12</v>
@@ -27733,7 +27733,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR125" t="n">
         <v>1.18</v>
@@ -28166,10 +28166,10 @@
         <v>1.42</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR127" t="n">
         <v>1.49</v>
@@ -28384,7 +28384,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.19</v>
@@ -28605,7 +28605,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28823,7 +28823,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR130" t="n">
         <v>1.98</v>
@@ -29910,7 +29910,7 @@
         <v>1.23</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.19</v>
@@ -30131,7 +30131,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -30346,10 +30346,10 @@
         <v>1.54</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR137" t="n">
         <v>0.95</v>
@@ -30567,7 +30567,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR138" t="n">
         <v>1.96</v>
@@ -30782,7 +30782,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.71</v>
@@ -31000,10 +31000,10 @@
         <v>1.38</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR140" t="n">
         <v>1.49</v>
@@ -31221,7 +31221,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -32308,7 +32308,7 @@
         <v>1.79</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.71</v>
@@ -32526,7 +32526,7 @@
         <v>1.71</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.63</v>
@@ -32744,7 +32744,7 @@
         <v>0.13</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.12</v>
@@ -33183,7 +33183,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR150" t="n">
         <v>1.25</v>
@@ -33401,7 +33401,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR151" t="n">
         <v>1.56</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.63</v>
@@ -33834,7 +33834,7 @@
         <v>1.87</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.71</v>
@@ -34052,10 +34052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR154" t="n">
         <v>1.66</v>
@@ -34273,7 +34273,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR155" t="n">
         <v>1.57</v>
@@ -34709,7 +34709,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR157" t="n">
         <v>1.93</v>
@@ -35142,7 +35142,7 @@
         <v>0.8</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.75</v>
@@ -35363,7 +35363,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR160" t="n">
         <v>1.19</v>
@@ -35578,7 +35578,7 @@
         <v>0.13</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.12</v>
@@ -36017,7 +36017,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR163" t="n">
         <v>1.24</v>
@@ -36232,7 +36232,7 @@
         <v>1.31</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.41</v>
@@ -36311,6 +36311,878 @@
       </c>
       <c r="BP164" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5019438</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45219.65625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>34</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['19', '88']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>3</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X165" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5019434</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45219.65625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>34</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['59', '82']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X166" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5019435</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45219.65625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>34</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X167" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5019436</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45221.45833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>34</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['44', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X168" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.71</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.35</v>
@@ -2881,7 +2881,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR15" t="n">
         <v>1.95</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.71</v>
@@ -4189,7 +4189,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR17" t="n">
         <v>1.79</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.53</v>
@@ -5279,7 +5279,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR22" t="n">
         <v>1.18</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.41</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.71</v>
@@ -7241,7 +7241,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
         <v>1.78</v>
@@ -7674,7 +7674,7 @@
         <v>0.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.12</v>
@@ -7895,7 +7895,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR34" t="n">
         <v>1.45</v>
@@ -8767,7 +8767,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR38" t="n">
         <v>1.84</v>
@@ -8985,7 +8985,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR39" t="n">
         <v>1.45</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.53</v>
@@ -10293,7 +10293,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR45" t="n">
         <v>1.07</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.12</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.35</v>
@@ -11383,7 +11383,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR50" t="n">
         <v>1.75</v>
@@ -12470,7 +12470,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.63</v>
@@ -13563,7 +13563,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR60" t="n">
         <v>1.38</v>
@@ -13778,10 +13778,10 @@
         <v>1.4</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -13996,10 +13996,10 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR62" t="n">
         <v>1.54</v>
@@ -15086,7 +15086,7 @@
         <v>2.29</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.41</v>
@@ -16612,10 +16612,10 @@
         <v>1.29</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR74" t="n">
         <v>1.47</v>
@@ -17484,7 +17484,7 @@
         <v>1.43</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.71</v>
@@ -18359,7 +18359,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -18574,10 +18574,10 @@
         <v>1.13</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -19446,7 +19446,7 @@
         <v>1.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.18</v>
@@ -19882,7 +19882,7 @@
         <v>1.22</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.18</v>
@@ -20757,7 +20757,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR93" t="n">
         <v>1.6</v>
@@ -21626,7 +21626,7 @@
         <v>2.22</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.71</v>
@@ -21847,7 +21847,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR98" t="n">
         <v>1.17</v>
@@ -22283,7 +22283,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR100" t="n">
         <v>1.17</v>
@@ -22934,7 +22934,7 @@
         <v>0.1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.12</v>
@@ -23806,7 +23806,7 @@
         <v>1.22</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.35</v>
@@ -24027,7 +24027,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR108" t="n">
         <v>1.04</v>
@@ -24460,7 +24460,7 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.71</v>
@@ -24896,7 +24896,7 @@
         <v>0.09</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.12</v>
@@ -25335,7 +25335,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR114" t="n">
         <v>1.23</v>
@@ -25989,7 +25989,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR117" t="n">
         <v>1.81</v>
@@ -26422,7 +26422,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.53</v>
@@ -27079,7 +27079,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR122" t="n">
         <v>0.95</v>
@@ -27951,7 +27951,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR126" t="n">
         <v>1.69</v>
@@ -28387,7 +28387,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -28820,7 +28820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.53</v>
@@ -29259,7 +29259,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR132" t="n">
         <v>1.55</v>
@@ -29474,7 +29474,7 @@
         <v>1.46</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.41</v>
@@ -29913,7 +29913,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR135" t="n">
         <v>1.8</v>
@@ -30564,7 +30564,7 @@
         <v>1.31</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.18</v>
@@ -31654,7 +31654,7 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.41</v>
@@ -31875,7 +31875,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR144" t="n">
         <v>1.18</v>
@@ -33398,7 +33398,7 @@
         <v>1.21</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.18</v>
@@ -34488,10 +34488,10 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34706,7 +34706,7 @@
         <v>1.47</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.35</v>
@@ -34927,7 +34927,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR158" t="n">
         <v>1.59</v>
@@ -35145,7 +35145,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR159" t="n">
         <v>1.67</v>
@@ -37183,6 +37183,442 @@
       </c>
       <c r="BP168" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5019437</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>34</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>5</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['6', '15', '27', '48', '53']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X169" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5019432</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45222.64583333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>33</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.12</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.35</v>
@@ -3096,10 +3096,10 @@
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>1.21</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.71</v>
@@ -3532,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR14" t="n">
         <v>1.3</v>
@@ -3971,7 +3971,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.35</v>
@@ -4843,7 +4843,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR20" t="n">
         <v>1.45</v>
@@ -5494,10 +5494,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>1.26</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR24" t="n">
         <v>1.09</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.35</v>
@@ -7023,7 +7023,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR30" t="n">
         <v>1.75</v>
@@ -7456,10 +7456,10 @@
         <v>2.33</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR32" t="n">
         <v>0.99</v>
@@ -7674,10 +7674,10 @@
         <v>0.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR33" t="n">
         <v>1.2</v>
@@ -7892,7 +7892,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.12</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -8331,7 +8331,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR36" t="n">
         <v>1.81</v>
@@ -8549,7 +8549,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR37" t="n">
         <v>1.87</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.71</v>
@@ -9200,7 +9200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.53</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.18</v>
@@ -9857,7 +9857,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>2.06</v>
@@ -10290,7 +10290,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.71</v>
@@ -10511,7 +10511,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR46" t="n">
         <v>2.25</v>
@@ -11598,10 +11598,10 @@
         <v>2.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR51" t="n">
         <v>1.41</v>
@@ -11816,10 +11816,10 @@
         <v>2.2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR52" t="n">
         <v>1.31</v>
@@ -12037,7 +12037,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.9</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.18</v>
@@ -12470,10 +12470,10 @@
         <v>1.8</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12691,7 +12691,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR56" t="n">
         <v>1.62</v>
@@ -12909,7 +12909,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR57" t="n">
         <v>1.04</v>
@@ -13124,7 +13124,7 @@
         <v>0.4</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.53</v>
@@ -13560,7 +13560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.12</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.71</v>
@@ -14871,7 +14871,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR66" t="n">
         <v>1.96</v>
@@ -15089,7 +15089,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>2.06</v>
@@ -15304,10 +15304,10 @@
         <v>0.17</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR68" t="n">
         <v>1.11</v>
@@ -15525,7 +15525,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR69" t="n">
         <v>1.84</v>
@@ -15740,7 +15740,7 @@
         <v>1.17</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.71</v>
@@ -16179,7 +16179,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR72" t="n">
         <v>1.84</v>
@@ -16394,7 +16394,7 @@
         <v>0.29</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.53</v>
@@ -16612,7 +16612,7 @@
         <v>1.29</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.12</v>
@@ -16833,7 +16833,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR75" t="n">
         <v>1.06</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.71</v>
@@ -17920,10 +17920,10 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.57</v>
@@ -18141,7 +18141,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR81" t="n">
         <v>1.8</v>
@@ -18356,7 +18356,7 @@
         <v>1.43</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.71</v>
@@ -19010,10 +19010,10 @@
         <v>2.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR85" t="n">
         <v>1.3</v>
@@ -19231,7 +19231,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR86" t="n">
         <v>1.8</v>
@@ -19446,7 +19446,7 @@
         <v>1.38</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.18</v>
@@ -19667,7 +19667,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR88" t="n">
         <v>1.55</v>
@@ -20972,10 +20972,10 @@
         <v>1.89</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.28</v>
@@ -21190,10 +21190,10 @@
         <v>0.11</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR95" t="n">
         <v>1.57</v>
@@ -21411,7 +21411,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR96" t="n">
         <v>1.48</v>
@@ -21626,10 +21626,10 @@
         <v>2.22</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR97" t="n">
         <v>1.51</v>
@@ -21844,7 +21844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.12</v>
@@ -22280,7 +22280,7 @@
         <v>1.11</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.71</v>
@@ -22498,7 +22498,7 @@
         <v>1.1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.18</v>
@@ -22719,7 +22719,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR102" t="n">
         <v>1.92</v>
@@ -22937,7 +22937,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR103" t="n">
         <v>2.07</v>
@@ -23155,7 +23155,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR104" t="n">
         <v>1.63</v>
@@ -23806,7 +23806,7 @@
         <v>1.22</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.35</v>
@@ -24242,7 +24242,7 @@
         <v>1.45</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.71</v>
@@ -24463,7 +24463,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR110" t="n">
         <v>2.07</v>
@@ -24681,7 +24681,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR111" t="n">
         <v>1.41</v>
@@ -24896,10 +24896,10 @@
         <v>0.09</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR112" t="n">
         <v>1.51</v>
@@ -25114,10 +25114,10 @@
         <v>2</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR113" t="n">
         <v>1.62</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.12</v>
@@ -25550,10 +25550,10 @@
         <v>1.82</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR115" t="n">
         <v>1.18</v>
@@ -26207,7 +26207,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR118" t="n">
         <v>1.76</v>
@@ -26422,7 +26422,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.53</v>
@@ -26858,10 +26858,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR121" t="n">
         <v>1.17</v>
@@ -27515,7 +27515,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.64</v>
@@ -27730,7 +27730,7 @@
         <v>1.27</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.35</v>
@@ -28602,7 +28602,7 @@
         <v>1.42</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.35</v>
@@ -29038,10 +29038,10 @@
         <v>1.77</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR131" t="n">
         <v>1.19</v>
@@ -29256,7 +29256,7 @@
         <v>0.92</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.71</v>
@@ -29474,10 +29474,10 @@
         <v>1.46</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR133" t="n">
         <v>1.58</v>
@@ -29692,10 +29692,10 @@
         <v>0.08</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR134" t="n">
         <v>1.14</v>
@@ -30785,7 +30785,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR139" t="n">
         <v>1.7</v>
@@ -31218,7 +31218,7 @@
         <v>1.64</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.71</v>
@@ -31436,10 +31436,10 @@
         <v>1.69</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR142" t="n">
         <v>1.53</v>
@@ -31657,7 +31657,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR143" t="n">
         <v>1.91</v>
@@ -31872,7 +31872,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.71</v>
@@ -32093,7 +32093,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR145" t="n">
         <v>1.67</v>
@@ -32311,7 +32311,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR146" t="n">
         <v>0.98</v>
@@ -32529,7 +32529,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -32747,7 +32747,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR148" t="n">
         <v>1.48</v>
@@ -32965,7 +32965,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR149" t="n">
         <v>1.65</v>
@@ -33180,7 +33180,7 @@
         <v>0.43</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.53</v>
@@ -33398,7 +33398,7 @@
         <v>1.21</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.18</v>
@@ -33619,7 +33619,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR152" t="n">
         <v>0.96</v>
@@ -33837,7 +33837,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR153" t="n">
         <v>1.47</v>
@@ -34270,7 +34270,7 @@
         <v>0.4</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.53</v>
@@ -34488,7 +34488,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.12</v>
@@ -34924,7 +34924,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.12</v>
@@ -35360,7 +35360,7 @@
         <v>1.53</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.71</v>
@@ -35581,7 +35581,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AR161" t="n">
         <v>1.77</v>
@@ -35799,7 +35799,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR162" t="n">
         <v>1.6</v>
@@ -36014,7 +36014,7 @@
         <v>1.13</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.18</v>
@@ -36235,7 +36235,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR164" t="n">
         <v>0.91</v>
@@ -37540,7 +37540,7 @@
         <v>0.75</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.71</v>
@@ -37619,6 +37619,878 @@
       </c>
       <c r="BP170" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5019439</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45226.65625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>35</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U171" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X171" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5019440</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45226.65625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['77', '90+2']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5019441</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45226.65625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['20', '63', '89']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['50', '81']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R173" t="n">
+        <v>3</v>
+      </c>
+      <c r="S173" t="n">
+        <v>13</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X173" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5019442</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45226.66666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['84', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U174" t="n">
+        <v>3</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.71</v>
@@ -4189,7 +4189,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR17" t="n">
         <v>1.79</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.71</v>
@@ -5279,7 +5279,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR22" t="n">
         <v>1.18</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.53</v>
@@ -7895,7 +7895,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR34" t="n">
         <v>1.45</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.33</v>
@@ -8767,7 +8767,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR38" t="n">
         <v>1.84</v>
@@ -11380,10 +11380,10 @@
         <v>1.6</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR50" t="n">
         <v>1.75</v>
@@ -12688,7 +12688,7 @@
         <v>0.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.11</v>
@@ -13563,7 +13563,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR60" t="n">
         <v>1.38</v>
@@ -15958,7 +15958,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.18</v>
@@ -16615,7 +16615,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR74" t="n">
         <v>1.47</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.35</v>
@@ -18577,7 +18577,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -19664,7 +19664,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.78</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.71</v>
@@ -21847,7 +21847,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR98" t="n">
         <v>1.17</v>
@@ -24678,7 +24678,7 @@
         <v>1.64</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.33</v>
@@ -25335,7 +25335,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR114" t="n">
         <v>1.23</v>
@@ -27079,7 +27079,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR122" t="n">
         <v>0.95</v>
@@ -27294,7 +27294,7 @@
         <v>0.55</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.53</v>
@@ -28166,7 +28166,7 @@
         <v>1.42</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.71</v>
@@ -28387,7 +28387,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR128" t="n">
         <v>1.67</v>
@@ -29913,7 +29913,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR135" t="n">
         <v>1.8</v>
@@ -31000,7 +31000,7 @@
         <v>1.38</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.35</v>
@@ -32744,7 +32744,7 @@
         <v>0.13</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.11</v>
@@ -33834,7 +33834,7 @@
         <v>1.87</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.78</v>
@@ -34491,7 +34491,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR156" t="n">
         <v>1.53</v>
@@ -34927,7 +34927,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR158" t="n">
         <v>1.59</v>
@@ -36450,7 +36450,7 @@
         <v>1.06</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.18</v>
@@ -37325,7 +37325,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR169" t="n">
         <v>1.92</v>
@@ -38491,6 +38491,224 @@
       </c>
       <c r="BP174" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5019443</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>35</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X175" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.33</v>
@@ -1791,7 +1791,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.11</v>
@@ -5715,7 +5715,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR24" t="n">
         <v>1.09</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.35</v>
@@ -7892,7 +7892,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.11</v>
@@ -8113,7 +8113,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR35" t="n">
         <v>1.63</v>
@@ -8549,7 +8549,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR37" t="n">
         <v>1.87</v>
@@ -9636,7 +9636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.18</v>
@@ -11816,7 +11816,7 @@
         <v>2.2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.78</v>
@@ -12473,7 +12473,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -14871,7 +14871,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.96</v>
@@ -15740,7 +15740,7 @@
         <v>1.17</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.71</v>
@@ -16833,7 +16833,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.06</v>
@@ -18356,7 +18356,7 @@
         <v>1.43</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.71</v>
@@ -19010,10 +19010,10 @@
         <v>2.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR85" t="n">
         <v>1.3</v>
@@ -20972,7 +20972,7 @@
         <v>1.89</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.48</v>
@@ -22498,7 +22498,7 @@
         <v>1.1</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.18</v>
@@ -23155,7 +23155,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR104" t="n">
         <v>1.63</v>
@@ -25117,7 +25117,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.62</v>
@@ -25332,7 +25332,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.11</v>
@@ -26207,7 +26207,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR118" t="n">
         <v>1.76</v>
@@ -27730,7 +27730,7 @@
         <v>1.27</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.35</v>
@@ -29041,7 +29041,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR131" t="n">
         <v>1.19</v>
@@ -29692,7 +29692,7 @@
         <v>0.08</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.11</v>
@@ -31872,7 +31872,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.71</v>
@@ -32529,7 +32529,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -33619,7 +33619,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR152" t="n">
         <v>0.96</v>
@@ -35360,7 +35360,7 @@
         <v>1.53</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.71</v>
@@ -37758,7 +37758,7 @@
         <v>1.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.78</v>
@@ -38415,7 +38415,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR174" t="n">
         <v>1.51</v>
@@ -38645,22 +38645,22 @@
         <v>2.55</v>
       </c>
       <c r="AU175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV175" t="n">
         <v>6</v>
       </c>
       <c r="AW175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX175" t="n">
         <v>4</v>
-      </c>
-      <c r="AX175" t="n">
-        <v>3</v>
       </c>
       <c r="AY175" t="n">
         <v>6</v>
       </c>
       <c r="AZ175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA175" t="n">
         <v>4</v>
@@ -38709,6 +38709,224 @@
       </c>
       <c r="BP175" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5019429</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45229.57291666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>33</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X176" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.67</v>
@@ -2663,7 +2663,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR10" t="n">
         <v>1.15</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR13" t="n">
         <v>1.66</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR15" t="n">
         <v>1.95</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.78</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.11</v>
@@ -4407,7 +4407,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR18" t="n">
         <v>1.73</v>
@@ -4625,7 +4625,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR19" t="n">
         <v>2.15</v>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.78</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.43</v>
@@ -5276,7 +5276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.11</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR25" t="n">
         <v>1.42</v>
@@ -6151,7 +6151,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR26" t="n">
         <v>1.71</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR27" t="n">
         <v>2.19</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR28" t="n">
         <v>1.4</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR29" t="n">
         <v>2.27</v>
@@ -7020,7 +7020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.11</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>1.78</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.67</v>
@@ -8764,7 +8764,7 @@
         <v>1.25</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.11</v>
@@ -8985,7 +8985,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR39" t="n">
         <v>1.45</v>
@@ -9203,7 +9203,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.52</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR41" t="n">
         <v>1.1</v>
@@ -9639,7 +9639,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR42" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>2.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -10072,10 +10072,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR44" t="n">
         <v>2.09</v>
@@ -10293,7 +10293,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.07</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.11</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -10944,10 +10944,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.05</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR49" t="n">
         <v>2.31</v>
@@ -12034,7 +12034,7 @@
         <v>2.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.33</v>
@@ -12255,7 +12255,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR54" t="n">
         <v>1.12</v>
@@ -12906,7 +12906,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.33</v>
@@ -13127,7 +13127,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.06</v>
@@ -13342,10 +13342,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR59" t="n">
         <v>2.01</v>
@@ -13778,10 +13778,10 @@
         <v>1.4</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -13999,7 +13999,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.54</v>
@@ -14214,10 +14214,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.82</v>
@@ -14432,10 +14432,10 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR64" t="n">
         <v>1.85</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR65" t="n">
         <v>1.02</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.67</v>
@@ -15086,7 +15086,7 @@
         <v>2.29</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.33</v>
@@ -15522,7 +15522,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.78</v>
@@ -15743,7 +15743,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR70" t="n">
         <v>1.33</v>
@@ -15961,7 +15961,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR71" t="n">
         <v>1.67</v>
@@ -16176,7 +16176,7 @@
         <v>2.43</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.78</v>
@@ -16397,7 +16397,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR73" t="n">
         <v>1.44</v>
@@ -16830,7 +16830,7 @@
         <v>2.14</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.67</v>
@@ -17051,7 +17051,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17266,10 +17266,10 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR77" t="n">
         <v>1.85</v>
@@ -17484,10 +17484,10 @@
         <v>1.43</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR78" t="n">
         <v>1.98</v>
@@ -17705,7 +17705,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR79" t="n">
         <v>1.13</v>
@@ -18138,7 +18138,7 @@
         <v>0.14</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.11</v>
@@ -18359,7 +18359,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -18574,7 +18574,7 @@
         <v>1.13</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.11</v>
@@ -18792,10 +18792,10 @@
         <v>1.29</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR84" t="n">
         <v>1.66</v>
@@ -19228,7 +19228,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.11</v>
@@ -19449,7 +19449,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR87" t="n">
         <v>1.52</v>
@@ -19882,10 +19882,10 @@
         <v>1.22</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR89" t="n">
         <v>2.12</v>
@@ -20100,10 +20100,10 @@
         <v>1.44</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20318,10 +20318,10 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR91" t="n">
         <v>1.87</v>
@@ -20536,10 +20536,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR92" t="n">
         <v>1.92</v>
@@ -20754,10 +20754,10 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR93" t="n">
         <v>1.6</v>
@@ -22062,10 +22062,10 @@
         <v>1.6</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR99" t="n">
         <v>1.8</v>
@@ -22283,7 +22283,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR100" t="n">
         <v>1.17</v>
@@ -22501,7 +22501,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>1.7</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.33</v>
@@ -22934,7 +22934,7 @@
         <v>0.1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.11</v>
@@ -23152,7 +23152,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.67</v>
@@ -23370,10 +23370,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR105" t="n">
         <v>1.86</v>
@@ -23588,10 +23588,10 @@
         <v>1.27</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR106" t="n">
         <v>1.8</v>
@@ -23809,7 +23809,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24024,10 +24024,10 @@
         <v>1.1</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR108" t="n">
         <v>1.04</v>
@@ -24245,7 +24245,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR109" t="n">
         <v>1.67</v>
@@ -24460,7 +24460,7 @@
         <v>2</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.78</v>
@@ -25768,10 +25768,10 @@
         <v>1.42</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR116" t="n">
         <v>1.64</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR117" t="n">
         <v>1.81</v>
@@ -26204,7 +26204,7 @@
         <v>1.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.67</v>
@@ -26425,7 +26425,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -26640,10 +26640,10 @@
         <v>1.1</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR120" t="n">
         <v>1.01</v>
@@ -27076,7 +27076,7 @@
         <v>1.18</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.11</v>
@@ -27297,7 +27297,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR123" t="n">
         <v>1.42</v>
@@ -27512,7 +27512,7 @@
         <v>0.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.11</v>
@@ -27733,7 +27733,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.18</v>
@@ -27948,10 +27948,10 @@
         <v>0.92</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR126" t="n">
         <v>1.69</v>
@@ -28169,7 +28169,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR127" t="n">
         <v>1.49</v>
@@ -28384,7 +28384,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.11</v>
@@ -28605,7 +28605,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28820,10 +28820,10 @@
         <v>0.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR130" t="n">
         <v>1.98</v>
@@ -29259,7 +29259,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR132" t="n">
         <v>1.55</v>
@@ -29910,7 +29910,7 @@
         <v>1.23</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.11</v>
@@ -30128,10 +30128,10 @@
         <v>0.46</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -30346,10 +30346,10 @@
         <v>1.54</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR137" t="n">
         <v>0.95</v>
@@ -30564,10 +30564,10 @@
         <v>1.31</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR138" t="n">
         <v>1.96</v>
@@ -30782,7 +30782,7 @@
         <v>1.75</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.78</v>
@@ -31003,7 +31003,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR140" t="n">
         <v>1.49</v>
@@ -31221,7 +31221,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -31654,7 +31654,7 @@
         <v>1.43</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -31875,7 +31875,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR144" t="n">
         <v>1.18</v>
@@ -32090,7 +32090,7 @@
         <v>0.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.11</v>
@@ -32308,7 +32308,7 @@
         <v>1.79</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.78</v>
@@ -32526,7 +32526,7 @@
         <v>1.71</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.67</v>
@@ -32962,7 +32962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.33</v>
@@ -33183,7 +33183,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR150" t="n">
         <v>1.25</v>
@@ -33401,7 +33401,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR151" t="n">
         <v>1.56</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.67</v>
@@ -34052,10 +34052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR154" t="n">
         <v>1.66</v>
@@ -34273,7 +34273,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR155" t="n">
         <v>1.57</v>
@@ -34706,10 +34706,10 @@
         <v>1.47</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR157" t="n">
         <v>1.93</v>
@@ -35142,10 +35142,10 @@
         <v>0.8</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR159" t="n">
         <v>1.67</v>
@@ -35363,7 +35363,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR160" t="n">
         <v>1.19</v>
@@ -35578,7 +35578,7 @@
         <v>0.13</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.11</v>
@@ -35796,7 +35796,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.78</v>
@@ -36017,7 +36017,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR163" t="n">
         <v>1.24</v>
@@ -36232,7 +36232,7 @@
         <v>1.31</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.33</v>
@@ -36453,7 +36453,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR165" t="n">
         <v>1.47</v>
@@ -36668,10 +36668,10 @@
         <v>1.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR166" t="n">
         <v>1.65</v>
@@ -36886,10 +36886,10 @@
         <v>1.38</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR167" t="n">
         <v>1.82</v>
@@ -37104,10 +37104,10 @@
         <v>0.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR168" t="n">
         <v>0.89</v>
@@ -37322,7 +37322,7 @@
         <v>1.19</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.11</v>
@@ -37543,7 +37543,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR170" t="n">
         <v>1.51</v>
@@ -38927,6 +38927,1096 @@
       </c>
       <c r="BP176" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5019447</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45233.69791666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>36</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>5</v>
+      </c>
+      <c r="N177" t="n">
+        <v>6</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['33', '64', '68', '70', '86']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X177" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5019444</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45233.69791666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>36</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>4</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['12', '45+1', '51', '57']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S178" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5019445</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45233.69791666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>36</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['11', '26', '86']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X179" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5019446</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45233.69791666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>4</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['31', '35']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['48', '54', '63', '74']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X180" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5019448</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Republic of Ireland Premier Division</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45233.69791666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>36</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['45+1', '51', '59', '65']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['8', '80']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S181" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U181" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X181" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
